--- a/DATA/ADT_stock_data.xlsx
+++ b/DATA/ADT_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1488"/>
+  <dimension ref="A1:G1489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>12.39000034332275</v>
       </c>
       <c r="F2" t="n">
-        <v>10.20660591125488</v>
+        <v>10.20660877227783</v>
       </c>
       <c r="G2" t="n">
         <v>68187400</v>
@@ -516,7 +516,7 @@
         <v>11.44999980926514</v>
       </c>
       <c r="F3" t="n">
-        <v>9.432253837585449</v>
+        <v>9.432254791259766</v>
       </c>
       <c r="G3" t="n">
         <v>26132900</v>
@@ -539,7 +539,7 @@
         <v>11.90999984741211</v>
       </c>
       <c r="F4" t="n">
-        <v>9.81119441986084</v>
+        <v>9.811191558837891</v>
       </c>
       <c r="G4" t="n">
         <v>8272100</v>
@@ -562,7 +562,7 @@
         <v>11.90999984741211</v>
       </c>
       <c r="F5" t="n">
-        <v>9.81119441986084</v>
+        <v>9.811191558837891</v>
       </c>
       <c r="G5" t="n">
         <v>10369000</v>
@@ -585,7 +585,7 @@
         <v>11.89999961853027</v>
       </c>
       <c r="F6" t="n">
-        <v>9.802953720092773</v>
+        <v>9.802956581115723</v>
       </c>
       <c r="G6" t="n">
         <v>9448600</v>
@@ -608,7 +608,7 @@
         <v>11.89999961853027</v>
       </c>
       <c r="F7" t="n">
-        <v>9.802953720092773</v>
+        <v>9.802956581115723</v>
       </c>
       <c r="G7" t="n">
         <v>7910600</v>
@@ -677,7 +677,7 @@
         <v>12.47999954223633</v>
       </c>
       <c r="F10" t="n">
-        <v>10.2807445526123</v>
+        <v>10.28074836730957</v>
       </c>
       <c r="G10" t="n">
         <v>6624700</v>
@@ -700,7 +700,7 @@
         <v>12.75</v>
       </c>
       <c r="F11" t="n">
-        <v>10.50316619873047</v>
+        <v>10.50316715240479</v>
       </c>
       <c r="G11" t="n">
         <v>6075100</v>
@@ -723,7 +723,7 @@
         <v>12.85999965667725</v>
       </c>
       <c r="F12" t="n">
-        <v>10.59378623962402</v>
+        <v>10.59378433227539</v>
       </c>
       <c r="G12" t="n">
         <v>6012400</v>
@@ -746,7 +746,7 @@
         <v>12.64000034332275</v>
       </c>
       <c r="F13" t="n">
-        <v>10.41255187988281</v>
+        <v>10.4125509262085</v>
       </c>
       <c r="G13" t="n">
         <v>4006400</v>
@@ -769,7 +769,7 @@
         <v>12.30000019073486</v>
       </c>
       <c r="F14" t="n">
-        <v>10.13246822357178</v>
+        <v>10.13246631622314</v>
       </c>
       <c r="G14" t="n">
         <v>4608500</v>
@@ -792,7 +792,7 @@
         <v>12.51000022888184</v>
       </c>
       <c r="F15" t="n">
-        <v>10.30545997619629</v>
+        <v>10.30545902252197</v>
       </c>
       <c r="G15" t="n">
         <v>2671200</v>
@@ -815,7 +815,7 @@
         <v>12.36999988555908</v>
       </c>
       <c r="F16" t="n">
-        <v>10.19013214111328</v>
+        <v>10.19013118743896</v>
       </c>
       <c r="G16" t="n">
         <v>4065800</v>
@@ -838,7 +838,7 @@
         <v>12.64000034332275</v>
       </c>
       <c r="F17" t="n">
-        <v>10.41255187988281</v>
+        <v>10.4125509262085</v>
       </c>
       <c r="G17" t="n">
         <v>4091500</v>
@@ -861,7 +861,7 @@
         <v>12.68000030517578</v>
       </c>
       <c r="F18" t="n">
-        <v>10.44550323486328</v>
+        <v>10.44550514221191</v>
       </c>
       <c r="G18" t="n">
         <v>2783100</v>
@@ -884,7 +884,7 @@
         <v>12.14999961853027</v>
       </c>
       <c r="F19" t="n">
-        <v>10.00889682769775</v>
+        <v>10.0088996887207</v>
       </c>
       <c r="G19" t="n">
         <v>6081700</v>
@@ -907,7 +907,7 @@
         <v>11.9399995803833</v>
       </c>
       <c r="F20" t="n">
-        <v>9.835905075073242</v>
+        <v>9.835909843444824</v>
       </c>
       <c r="G20" t="n">
         <v>5808100</v>
@@ -930,7 +930,7 @@
         <v>11.6899995803833</v>
       </c>
       <c r="F21" t="n">
-        <v>9.629962921142578</v>
+        <v>9.629961013793945</v>
       </c>
       <c r="G21" t="n">
         <v>5526000</v>
@@ -953,7 +953,7 @@
         <v>11.57999992370605</v>
       </c>
       <c r="F22" t="n">
-        <v>9.539346694946289</v>
+        <v>9.539347648620605</v>
       </c>
       <c r="G22" t="n">
         <v>1617300</v>
@@ -976,7 +976,7 @@
         <v>11.59000015258789</v>
       </c>
       <c r="F23" t="n">
-        <v>9.547586441040039</v>
+        <v>9.54758358001709</v>
       </c>
       <c r="G23" t="n">
         <v>1824400</v>
@@ -1022,7 +1022,7 @@
         <v>11.90999984741211</v>
       </c>
       <c r="F25" t="n">
-        <v>9.81119441986084</v>
+        <v>9.811191558837891</v>
       </c>
       <c r="G25" t="n">
         <v>2007200</v>
@@ -1045,7 +1045,7 @@
         <v>11.97999954223633</v>
       </c>
       <c r="F26" t="n">
-        <v>9.868855476379395</v>
+        <v>9.868857383728027</v>
       </c>
       <c r="G26" t="n">
         <v>3210000</v>
@@ -1068,7 +1068,7 @@
         <v>12.14999961853027</v>
       </c>
       <c r="F27" t="n">
-        <v>10.00889682769775</v>
+        <v>10.0088996887207</v>
       </c>
       <c r="G27" t="n">
         <v>1639700</v>
@@ -1137,7 +1137,7 @@
         <v>10.68000030517578</v>
       </c>
       <c r="F30" t="n">
-        <v>8.797945022583008</v>
+        <v>8.79794979095459</v>
       </c>
       <c r="G30" t="n">
         <v>2502000</v>
@@ -1160,7 +1160,7 @@
         <v>11.06999969482422</v>
       </c>
       <c r="F31" t="n">
-        <v>9.119220733642578</v>
+        <v>9.119218826293945</v>
       </c>
       <c r="G31" t="n">
         <v>3135000</v>
@@ -1183,7 +1183,7 @@
         <v>10.72000026702881</v>
       </c>
       <c r="F32" t="n">
-        <v>8.830898284912109</v>
+        <v>8.830897331237793</v>
       </c>
       <c r="G32" t="n">
         <v>2845500</v>
@@ -1206,7 +1206,7 @@
         <v>10.35000038146973</v>
       </c>
       <c r="F33" t="n">
-        <v>8.526098251342773</v>
+        <v>8.526102066040039</v>
       </c>
       <c r="G33" t="n">
         <v>4146200</v>
@@ -1229,7 +1229,7 @@
         <v>10.39999961853027</v>
       </c>
       <c r="F34" t="n">
-        <v>8.567288398742676</v>
+        <v>8.567289352416992</v>
       </c>
       <c r="G34" t="n">
         <v>1714600</v>
@@ -1275,7 +1275,7 @@
         <v>10.52999973297119</v>
       </c>
       <c r="F36" t="n">
-        <v>8.674381256103516</v>
+        <v>8.674379348754883</v>
       </c>
       <c r="G36" t="n">
         <v>1995000</v>
@@ -1298,7 +1298,7 @@
         <v>10.71000003814697</v>
       </c>
       <c r="F37" t="n">
-        <v>8.822663307189941</v>
+        <v>8.822659492492676</v>
       </c>
       <c r="G37" t="n">
         <v>2337500</v>
@@ -1321,7 +1321,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F38" t="n">
-        <v>8.682621002197266</v>
+        <v>8.682618141174316</v>
       </c>
       <c r="G38" t="n">
         <v>3052700</v>
@@ -1344,7 +1344,7 @@
         <v>10.21000003814697</v>
       </c>
       <c r="F39" t="n">
-        <v>8.410772323608398</v>
+        <v>8.410770416259766</v>
       </c>
       <c r="G39" t="n">
         <v>5656700</v>
@@ -1367,7 +1367,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F40" t="n">
-        <v>7.356335163116455</v>
+        <v>7.356335639953613</v>
       </c>
       <c r="G40" t="n">
         <v>10293500</v>
@@ -1390,7 +1390,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F41" t="n">
-        <v>7.191580295562744</v>
+        <v>7.191579341888428</v>
       </c>
       <c r="G41" t="n">
         <v>17341300</v>
@@ -1413,7 +1413,7 @@
         <v>9.140000343322754</v>
       </c>
       <c r="F42" t="n">
-        <v>7.529330253601074</v>
+        <v>7.529329299926758</v>
       </c>
       <c r="G42" t="n">
         <v>6452500</v>
@@ -1436,7 +1436,7 @@
         <v>8.960000038146973</v>
       </c>
       <c r="F43" t="n">
-        <v>7.381049156188965</v>
+        <v>7.381048679351807</v>
       </c>
       <c r="G43" t="n">
         <v>3126400</v>
@@ -1459,7 +1459,7 @@
         <v>8.970000267028809</v>
       </c>
       <c r="F44" t="n">
-        <v>7.389286994934082</v>
+        <v>7.38928747177124</v>
       </c>
       <c r="G44" t="n">
         <v>3754700</v>
@@ -1482,7 +1482,7 @@
         <v>8.670000076293945</v>
       </c>
       <c r="F45" t="n">
-        <v>7.142153739929199</v>
+        <v>7.142154216766357</v>
       </c>
       <c r="G45" t="n">
         <v>2408100</v>
@@ -1505,7 +1505,7 @@
         <v>8.100000381469727</v>
       </c>
       <c r="F46" t="n">
-        <v>6.699647426605225</v>
+        <v>6.699646472930908</v>
       </c>
       <c r="G46" t="n">
         <v>4169000</v>
@@ -1528,7 +1528,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F47" t="n">
-        <v>6.575578689575195</v>
+        <v>6.575578212738037</v>
       </c>
       <c r="G47" t="n">
         <v>4396900</v>
@@ -1597,7 +1597,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F50" t="n">
-        <v>6.559035778045654</v>
+        <v>6.559036254882812</v>
       </c>
       <c r="G50" t="n">
         <v>2952700</v>
@@ -1620,7 +1620,7 @@
         <v>7.829999923706055</v>
       </c>
       <c r="F51" t="n">
-        <v>6.476324558258057</v>
+        <v>6.476324081420898</v>
       </c>
       <c r="G51" t="n">
         <v>2443700</v>
@@ -1643,7 +1643,7 @@
         <v>7.550000190734863</v>
       </c>
       <c r="F52" t="n">
-        <v>6.24473237991333</v>
+        <v>6.244731426239014</v>
       </c>
       <c r="G52" t="n">
         <v>3926500</v>
@@ -1689,7 +1689,7 @@
         <v>8.810000419616699</v>
       </c>
       <c r="F54" t="n">
-        <v>7.286899566650391</v>
+        <v>7.286898136138916</v>
       </c>
       <c r="G54" t="n">
         <v>10407600</v>
@@ -1712,7 +1712,7 @@
         <v>8.75</v>
       </c>
       <c r="F55" t="n">
-        <v>7.237272262573242</v>
+        <v>7.237271785736084</v>
       </c>
       <c r="G55" t="n">
         <v>3687600</v>
@@ -1735,7 +1735,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F56" t="n">
-        <v>7.543305397033691</v>
+        <v>7.543306350708008</v>
       </c>
       <c r="G56" t="n">
         <v>4643200</v>
@@ -1758,7 +1758,7 @@
         <v>9.050000190734863</v>
       </c>
       <c r="F57" t="n">
-        <v>7.485407829284668</v>
+        <v>7.485409259796143</v>
       </c>
       <c r="G57" t="n">
         <v>4052700</v>
@@ -1781,7 +1781,7 @@
         <v>9.020000457763672</v>
       </c>
       <c r="F58" t="n">
-        <v>7.460594177246094</v>
+        <v>7.460594654083252</v>
       </c>
       <c r="G58" t="n">
         <v>1979700</v>
@@ -1804,7 +1804,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F59" t="n">
-        <v>7.526761531829834</v>
+        <v>7.526764392852783</v>
       </c>
       <c r="G59" t="n">
         <v>2704300</v>
@@ -1827,7 +1827,7 @@
         <v>8.989999771118164</v>
       </c>
       <c r="F60" t="n">
-        <v>7.435779571533203</v>
+        <v>7.435780048370361</v>
       </c>
       <c r="G60" t="n">
         <v>2198600</v>
@@ -1850,7 +1850,7 @@
         <v>8.989999771118164</v>
       </c>
       <c r="F61" t="n">
-        <v>7.435779571533203</v>
+        <v>7.435780048370361</v>
       </c>
       <c r="G61" t="n">
         <v>1314100</v>
@@ -1873,7 +1873,7 @@
         <v>9.25</v>
       </c>
       <c r="F62" t="n">
-        <v>7.65083122253418</v>
+        <v>7.650831699371338</v>
       </c>
       <c r="G62" t="n">
         <v>2045800</v>
@@ -1896,7 +1896,7 @@
         <v>9.560000419616699</v>
       </c>
       <c r="F63" t="n">
-        <v>7.90723705291748</v>
+        <v>7.907236576080322</v>
       </c>
       <c r="G63" t="n">
         <v>2788800</v>
@@ -1919,7 +1919,7 @@
         <v>9.380000114440918</v>
       </c>
       <c r="F64" t="n">
-        <v>7.758357524871826</v>
+        <v>7.758354187011719</v>
       </c>
       <c r="G64" t="n">
         <v>3010800</v>
@@ -1942,7 +1942,7 @@
         <v>9.300000190734863</v>
       </c>
       <c r="F65" t="n">
-        <v>7.692185878753662</v>
+        <v>7.692186832427979</v>
       </c>
       <c r="G65" t="n">
         <v>1070900</v>
@@ -1965,7 +1965,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F66" t="n">
-        <v>7.40269660949707</v>
+        <v>7.402695178985596</v>
       </c>
       <c r="G66" t="n">
         <v>2354200</v>
@@ -1988,7 +1988,7 @@
         <v>8.989999771118164</v>
       </c>
       <c r="F67" t="n">
-        <v>7.435779571533203</v>
+        <v>7.435780048370361</v>
       </c>
       <c r="G67" t="n">
         <v>1616800</v>
@@ -2011,7 +2011,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F68" t="n">
-        <v>7.543305397033691</v>
+        <v>7.543306350708008</v>
       </c>
       <c r="G68" t="n">
         <v>1251100</v>
@@ -2034,7 +2034,7 @@
         <v>9.079999923706055</v>
       </c>
       <c r="F69" t="n">
-        <v>7.510220527648926</v>
+        <v>7.510220050811768</v>
       </c>
       <c r="G69" t="n">
         <v>3967900</v>
@@ -2057,7 +2057,7 @@
         <v>9.109999656677246</v>
       </c>
       <c r="F70" t="n">
-        <v>7.5350341796875</v>
+        <v>7.535033702850342</v>
       </c>
       <c r="G70" t="n">
         <v>1356600</v>
@@ -2080,7 +2080,7 @@
         <v>8.909999847412109</v>
       </c>
       <c r="F71" t="n">
-        <v>7.369609832763672</v>
+        <v>7.369610786437988</v>
       </c>
       <c r="G71" t="n">
         <v>2558300</v>
@@ -2103,7 +2103,7 @@
         <v>8.680000305175781</v>
       </c>
       <c r="F72" t="n">
-        <v>7.179375171661377</v>
+        <v>7.179374217987061</v>
       </c>
       <c r="G72" t="n">
         <v>1698000</v>
@@ -2126,7 +2126,7 @@
         <v>8.699999809265137</v>
       </c>
       <c r="F73" t="n">
-        <v>7.195918083190918</v>
+        <v>7.195916175842285</v>
       </c>
       <c r="G73" t="n">
         <v>1727700</v>
@@ -2149,7 +2149,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F74" t="n">
-        <v>6.848526000976562</v>
+        <v>6.848527908325195</v>
       </c>
       <c r="G74" t="n">
         <v>3358800</v>
@@ -2195,7 +2195,7 @@
         <v>8.439999580383301</v>
       </c>
       <c r="F76" t="n">
-        <v>6.980865478515625</v>
+        <v>6.980865955352783</v>
       </c>
       <c r="G76" t="n">
         <v>2578200</v>
@@ -2218,7 +2218,7 @@
         <v>8.569999694824219</v>
       </c>
       <c r="F77" t="n">
-        <v>7.088390350341797</v>
+        <v>7.088389873504639</v>
       </c>
       <c r="G77" t="n">
         <v>4159200</v>
@@ -2241,7 +2241,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F78" t="n">
-        <v>6.468052864074707</v>
+        <v>6.468053340911865</v>
       </c>
       <c r="G78" t="n">
         <v>11564900</v>
@@ -2264,7 +2264,7 @@
         <v>7.920000076293945</v>
       </c>
       <c r="F79" t="n">
-        <v>6.550765991210938</v>
+        <v>6.550765514373779</v>
       </c>
       <c r="G79" t="n">
         <v>4317400</v>
@@ -2310,7 +2310,7 @@
         <v>7.300000190734863</v>
       </c>
       <c r="F81" t="n">
-        <v>6.037952899932861</v>
+        <v>6.03795337677002</v>
       </c>
       <c r="G81" t="n">
         <v>6584800</v>
@@ -2356,7 +2356,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>5.789817810058594</v>
+        <v>5.789816379547119</v>
       </c>
       <c r="G83" t="n">
         <v>3923900</v>
@@ -2379,7 +2379,7 @@
         <v>7.170000076293945</v>
       </c>
       <c r="F84" t="n">
-        <v>5.930427551269531</v>
+        <v>5.930428028106689</v>
       </c>
       <c r="G84" t="n">
         <v>5713200</v>
@@ -2402,7 +2402,7 @@
         <v>7.269999980926514</v>
       </c>
       <c r="F85" t="n">
-        <v>6.013138294219971</v>
+        <v>6.013139247894287</v>
       </c>
       <c r="G85" t="n">
         <v>3752500</v>
@@ -2425,7 +2425,7 @@
         <v>7.75</v>
       </c>
       <c r="F86" t="n">
-        <v>6.410154819488525</v>
+        <v>6.410155773162842</v>
       </c>
       <c r="G86" t="n">
         <v>4144800</v>
@@ -2448,7 +2448,7 @@
         <v>7.639999866485596</v>
       </c>
       <c r="F87" t="n">
-        <v>6.319172382354736</v>
+        <v>6.319172859191895</v>
       </c>
       <c r="G87" t="n">
         <v>3737200</v>
@@ -2471,7 +2471,7 @@
         <v>7.670000076293945</v>
       </c>
       <c r="F88" t="n">
-        <v>6.343986988067627</v>
+        <v>6.343985080718994</v>
       </c>
       <c r="G88" t="n">
         <v>1666300</v>
@@ -2494,7 +2494,7 @@
         <v>7.699999809265137</v>
       </c>
       <c r="F89" t="n">
-        <v>6.368799686431885</v>
+        <v>6.368800640106201</v>
       </c>
       <c r="G89" t="n">
         <v>1736000</v>
@@ -2517,7 +2517,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="F90" t="n">
-        <v>6.178562164306641</v>
+        <v>6.178563117980957</v>
       </c>
       <c r="G90" t="n">
         <v>2114100</v>
@@ -2540,7 +2540,7 @@
         <v>7.460000038146973</v>
       </c>
       <c r="F91" t="n">
-        <v>6.170291423797607</v>
+        <v>6.170291900634766</v>
       </c>
       <c r="G91" t="n">
         <v>3414100</v>
@@ -2563,7 +2563,7 @@
         <v>7.670000076293945</v>
       </c>
       <c r="F92" t="n">
-        <v>6.343986988067627</v>
+        <v>6.343985080718994</v>
       </c>
       <c r="G92" t="n">
         <v>2222400</v>
@@ -2609,7 +2609,7 @@
         <v>7.639999866485596</v>
       </c>
       <c r="F94" t="n">
-        <v>6.319172382354736</v>
+        <v>6.319172859191895</v>
       </c>
       <c r="G94" t="n">
         <v>3240500</v>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="n">
-        <v>6.616934776306152</v>
+        <v>6.616934299468994</v>
       </c>
       <c r="G98" t="n">
         <v>1368600</v>
@@ -2724,7 +2724,7 @@
         <v>8.220000267028809</v>
       </c>
       <c r="F99" t="n">
-        <v>6.79889965057373</v>
+        <v>6.798900604248047</v>
       </c>
       <c r="G99" t="n">
         <v>2004700</v>
@@ -2747,7 +2747,7 @@
         <v>7.96999979019165</v>
       </c>
       <c r="F100" t="n">
-        <v>6.59212064743042</v>
+        <v>6.592121124267578</v>
       </c>
       <c r="G100" t="n">
         <v>3721400</v>
@@ -2770,7 +2770,7 @@
         <v>8.289999961853027</v>
       </c>
       <c r="F101" t="n">
-        <v>6.856799602508545</v>
+        <v>6.856799125671387</v>
       </c>
       <c r="G101" t="n">
         <v>3254700</v>
@@ -2793,7 +2793,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F102" t="n">
-        <v>6.658289432525635</v>
+        <v>6.658289909362793</v>
       </c>
       <c r="G102" t="n">
         <v>3093300</v>
@@ -2839,7 +2839,7 @@
         <v>7.980000019073486</v>
       </c>
       <c r="F104" t="n">
-        <v>6.600391387939453</v>
+        <v>6.600391864776611</v>
       </c>
       <c r="G104" t="n">
         <v>2760000</v>
@@ -2862,7 +2862,7 @@
         <v>8.289999961853027</v>
       </c>
       <c r="F105" t="n">
-        <v>6.856799602508545</v>
+        <v>6.856799125671387</v>
       </c>
       <c r="G105" t="n">
         <v>3408700</v>
@@ -2885,7 +2885,7 @@
         <v>8.260000228881836</v>
       </c>
       <c r="F106" t="n">
-        <v>6.831985950469971</v>
+        <v>6.831985473632812</v>
       </c>
       <c r="G106" t="n">
         <v>2222700</v>
@@ -2908,7 +2908,7 @@
         <v>8.699999809265137</v>
       </c>
       <c r="F107" t="n">
-        <v>7.195918083190918</v>
+        <v>7.195916175842285</v>
       </c>
       <c r="G107" t="n">
         <v>4370000</v>
@@ -2931,7 +2931,7 @@
         <v>8.670000076293945</v>
       </c>
       <c r="F108" t="n">
-        <v>7.171102523803711</v>
+        <v>7.171103000640869</v>
       </c>
       <c r="G108" t="n">
         <v>3147700</v>
@@ -2954,7 +2954,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F109" t="n">
-        <v>7.249997615814209</v>
+        <v>7.249996662139893</v>
       </c>
       <c r="G109" t="n">
         <v>2749600</v>
@@ -2977,7 +2977,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F110" t="n">
-        <v>7.216776847839355</v>
+        <v>7.216777324676514</v>
       </c>
       <c r="G110" t="n">
         <v>4656800</v>
@@ -3023,7 +3023,7 @@
         <v>8.869999885559082</v>
       </c>
       <c r="F112" t="n">
-        <v>7.366263866424561</v>
+        <v>7.366261959075928</v>
       </c>
       <c r="G112" t="n">
         <v>2056600</v>
@@ -3046,7 +3046,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F113" t="n">
-        <v>6.992552280426025</v>
+        <v>6.992551803588867</v>
       </c>
       <c r="G113" t="n">
         <v>3688800</v>
@@ -3069,7 +3069,7 @@
         <v>8.649999618530273</v>
       </c>
       <c r="F114" t="n">
-        <v>7.183559417724609</v>
+        <v>7.183559894561768</v>
       </c>
       <c r="G114" t="n">
         <v>3132200</v>
@@ -3092,7 +3092,7 @@
         <v>8.149999618530273</v>
       </c>
       <c r="F115" t="n">
-        <v>6.76832389831543</v>
+        <v>6.768325328826904</v>
       </c>
       <c r="G115" t="n">
         <v>2936300</v>
@@ -3115,7 +3115,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F116" t="n">
-        <v>6.685277462005615</v>
+        <v>6.685278415679932</v>
       </c>
       <c r="G116" t="n">
         <v>1478900</v>
@@ -3138,7 +3138,7 @@
         <v>8.079999923706055</v>
       </c>
       <c r="F117" t="n">
-        <v>6.710192680358887</v>
+        <v>6.710193157196045</v>
       </c>
       <c r="G117" t="n">
         <v>1888800</v>
@@ -3161,7 +3161,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F118" t="n">
-        <v>6.793239116668701</v>
+        <v>6.793238639831543</v>
       </c>
       <c r="G118" t="n">
         <v>794100</v>
@@ -3184,7 +3184,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F119" t="n">
-        <v>7.092210292816162</v>
+        <v>7.092208862304688</v>
       </c>
       <c r="G119" t="n">
         <v>1872200</v>
@@ -3207,7 +3207,7 @@
         <v>8.619999885559082</v>
       </c>
       <c r="F120" t="n">
-        <v>7.158645629882812</v>
+        <v>7.158645153045654</v>
       </c>
       <c r="G120" t="n">
         <v>2203100</v>
@@ -3253,7 +3253,7 @@
         <v>8.920000076293945</v>
       </c>
       <c r="F122" t="n">
-        <v>7.407785415649414</v>
+        <v>7.407786846160889</v>
       </c>
       <c r="G122" t="n">
         <v>2570900</v>
@@ -3276,7 +3276,7 @@
         <v>8.960000038146973</v>
       </c>
       <c r="F123" t="n">
-        <v>7.441003799438477</v>
+        <v>7.441004753112793</v>
       </c>
       <c r="G123" t="n">
         <v>2935800</v>
@@ -3299,7 +3299,7 @@
         <v>9.180000305175781</v>
       </c>
       <c r="F124" t="n">
-        <v>7.623708724975586</v>
+        <v>7.623709678649902</v>
       </c>
       <c r="G124" t="n">
         <v>1453200</v>
@@ -3322,7 +3322,7 @@
         <v>9.390000343322754</v>
       </c>
       <c r="F125" t="n">
-        <v>7.79810619354248</v>
+        <v>7.798107624053955</v>
       </c>
       <c r="G125" t="n">
         <v>2589200</v>
@@ -3345,7 +3345,7 @@
         <v>9.449999809265137</v>
       </c>
       <c r="F126" t="n">
-        <v>7.847935676574707</v>
+        <v>7.847933769226074</v>
       </c>
       <c r="G126" t="n">
         <v>2028600</v>
@@ -3391,7 +3391,7 @@
         <v>9.350000381469727</v>
       </c>
       <c r="F128" t="n">
-        <v>7.764887809753418</v>
+        <v>7.764889240264893</v>
       </c>
       <c r="G128" t="n">
         <v>1512500</v>
@@ -3437,7 +3437,7 @@
         <v>9.25</v>
       </c>
       <c r="F130" t="n">
-        <v>7.681842803955078</v>
+        <v>7.68184232711792</v>
       </c>
       <c r="G130" t="n">
         <v>1752400</v>
@@ -3460,7 +3460,7 @@
         <v>9.229999542236328</v>
       </c>
       <c r="F131" t="n">
-        <v>7.665231227874756</v>
+        <v>7.665232181549072</v>
       </c>
       <c r="G131" t="n">
         <v>1345300</v>
@@ -3483,7 +3483,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F132" t="n">
-        <v>7.55726957321167</v>
+        <v>7.557271957397461</v>
       </c>
       <c r="G132" t="n">
         <v>1383900</v>
@@ -3506,7 +3506,7 @@
         <v>9.010000228881836</v>
       </c>
       <c r="F133" t="n">
-        <v>7.482527732849121</v>
+        <v>7.482531547546387</v>
       </c>
       <c r="G133" t="n">
         <v>2238200</v>
@@ -3529,7 +3529,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F134" t="n">
-        <v>7.291519641876221</v>
+        <v>7.291521072387695</v>
       </c>
       <c r="G134" t="n">
         <v>1711600</v>
@@ -3552,7 +3552,7 @@
         <v>9.010000228881836</v>
       </c>
       <c r="F135" t="n">
-        <v>7.482527732849121</v>
+        <v>7.482531547546387</v>
       </c>
       <c r="G135" t="n">
         <v>3398800</v>
@@ -3575,7 +3575,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F136" t="n">
-        <v>7.43270206451416</v>
+        <v>7.432700157165527</v>
       </c>
       <c r="G136" t="n">
         <v>1071500</v>
@@ -3598,7 +3598,7 @@
         <v>8.619999885559082</v>
       </c>
       <c r="F137" t="n">
-        <v>7.158645629882812</v>
+        <v>7.158645153045654</v>
       </c>
       <c r="G137" t="n">
         <v>2390200</v>
@@ -3621,7 +3621,7 @@
         <v>8.909999847412109</v>
       </c>
       <c r="F138" t="n">
-        <v>7.399481296539307</v>
+        <v>7.399481773376465</v>
       </c>
       <c r="G138" t="n">
         <v>1804500</v>
@@ -3644,7 +3644,7 @@
         <v>8.979999542236328</v>
       </c>
       <c r="F139" t="n">
-        <v>7.45761251449585</v>
+        <v>7.457613945007324</v>
       </c>
       <c r="G139" t="n">
         <v>1465100</v>
@@ -3667,7 +3667,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F140" t="n">
-        <v>7.598793506622314</v>
+        <v>7.598792552947998</v>
       </c>
       <c r="G140" t="n">
         <v>2852400</v>
@@ -3690,7 +3690,7 @@
         <v>9.479999542236328</v>
       </c>
       <c r="F141" t="n">
-        <v>7.872848510742188</v>
+        <v>7.872848987579346</v>
       </c>
       <c r="G141" t="n">
         <v>5827800</v>
@@ -3759,7 +3759,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F144" t="n">
-        <v>7.598793506622314</v>
+        <v>7.598792552947998</v>
       </c>
       <c r="G144" t="n">
         <v>2992800</v>
@@ -3805,7 +3805,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F146" t="n">
-        <v>7.249997615814209</v>
+        <v>7.249996662139893</v>
       </c>
       <c r="G146" t="n">
         <v>1996600</v>
@@ -3828,7 +3828,7 @@
         <v>8.720000267028809</v>
       </c>
       <c r="F147" t="n">
-        <v>7.241692543029785</v>
+        <v>7.241693019866943</v>
       </c>
       <c r="G147" t="n">
         <v>2375900</v>
@@ -3851,7 +3851,7 @@
         <v>8.710000038146973</v>
       </c>
       <c r="F148" t="n">
-        <v>7.233387470245361</v>
+        <v>7.233388900756836</v>
       </c>
       <c r="G148" t="n">
         <v>1376800</v>
@@ -3874,7 +3874,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F149" t="n">
-        <v>7.216776847839355</v>
+        <v>7.216777324676514</v>
       </c>
       <c r="G149" t="n">
         <v>1857700</v>
@@ -3943,7 +3943,7 @@
         <v>8.989999771118164</v>
       </c>
       <c r="F152" t="n">
-        <v>7.46591854095459</v>
+        <v>7.465919494628906</v>
       </c>
       <c r="G152" t="n">
         <v>3268300</v>
@@ -3966,7 +3966,7 @@
         <v>9.010000228881836</v>
       </c>
       <c r="F153" t="n">
-        <v>7.482527732849121</v>
+        <v>7.482531547546387</v>
       </c>
       <c r="G153" t="n">
         <v>1129200</v>
@@ -3989,7 +3989,7 @@
         <v>9.039999961853027</v>
       </c>
       <c r="F154" t="n">
-        <v>7.507444381713867</v>
+        <v>7.507442951202393</v>
       </c>
       <c r="G154" t="n">
         <v>1856100</v>
@@ -4035,7 +4035,7 @@
         <v>9.25</v>
       </c>
       <c r="F156" t="n">
-        <v>7.681842803955078</v>
+        <v>7.68184232711792</v>
       </c>
       <c r="G156" t="n">
         <v>3115000</v>
@@ -4058,7 +4058,7 @@
         <v>8.930000305175781</v>
       </c>
       <c r="F157" t="n">
-        <v>7.416090488433838</v>
+        <v>7.416091918945312</v>
       </c>
       <c r="G157" t="n">
         <v>3088100</v>
@@ -4081,7 +4081,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F158" t="n">
-        <v>7.43270206451416</v>
+        <v>7.432700157165527</v>
       </c>
       <c r="G158" t="n">
         <v>999500</v>
@@ -4104,7 +4104,7 @@
         <v>9.189999580383301</v>
       </c>
       <c r="F159" t="n">
-        <v>7.632013320922852</v>
+        <v>7.632010936737061</v>
       </c>
       <c r="G159" t="n">
         <v>1721700</v>
@@ -4150,7 +4150,7 @@
         <v>8.960000038146973</v>
       </c>
       <c r="F161" t="n">
-        <v>7.441003799438477</v>
+        <v>7.441004753112793</v>
       </c>
       <c r="G161" t="n">
         <v>3998700</v>
@@ -4173,7 +4173,7 @@
         <v>8.800000190734863</v>
       </c>
       <c r="F162" t="n">
-        <v>7.308130741119385</v>
+        <v>7.308129787445068</v>
       </c>
       <c r="G162" t="n">
         <v>1034300</v>
@@ -4219,7 +4219,7 @@
         <v>8.520000457763672</v>
       </c>
       <c r="F164" t="n">
-        <v>7.075599670410156</v>
+        <v>7.075597286224365</v>
       </c>
       <c r="G164" t="n">
         <v>2682500</v>
@@ -4242,7 +4242,7 @@
         <v>8.609999656677246</v>
       </c>
       <c r="F165" t="n">
-        <v>7.150341987609863</v>
+        <v>7.15034008026123</v>
       </c>
       <c r="G165" t="n">
         <v>1540900</v>
@@ -4288,7 +4288,7 @@
         <v>8.560000419616699</v>
       </c>
       <c r="F167" t="n">
-        <v>7.108820915222168</v>
+        <v>7.108818531036377</v>
       </c>
       <c r="G167" t="n">
         <v>1301900</v>
@@ -4311,7 +4311,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F168" t="n">
-        <v>7.004582405090332</v>
+        <v>7.00458288192749</v>
       </c>
       <c r="G168" t="n">
         <v>1658100</v>
@@ -4334,7 +4334,7 @@
         <v>8.590000152587891</v>
       </c>
       <c r="F169" t="n">
-        <v>7.163019180297852</v>
+        <v>7.16301965713501</v>
       </c>
       <c r="G169" t="n">
         <v>6629800</v>
@@ -4357,7 +4357,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F170" t="n">
-        <v>6.979565143585205</v>
+        <v>6.979566097259521</v>
       </c>
       <c r="G170" t="n">
         <v>1707200</v>
@@ -4380,7 +4380,7 @@
         <v>8.920000076293945</v>
       </c>
       <c r="F171" t="n">
-        <v>7.438199043273926</v>
+        <v>7.438199996948242</v>
       </c>
       <c r="G171" t="n">
         <v>9326700</v>
@@ -4403,7 +4403,7 @@
         <v>9.369999885559082</v>
       </c>
       <c r="F172" t="n">
-        <v>7.813446521759033</v>
+        <v>7.8134446144104</v>
       </c>
       <c r="G172" t="n">
         <v>10142800</v>
@@ -4449,7 +4449,7 @@
         <v>9.229999542236328</v>
       </c>
       <c r="F174" t="n">
-        <v>7.696701049804688</v>
+        <v>7.696701526641846</v>
       </c>
       <c r="G174" t="n">
         <v>1323000</v>
@@ -4541,7 +4541,7 @@
         <v>9.199999809265137</v>
       </c>
       <c r="F178" t="n">
-        <v>7.671686172485352</v>
+        <v>7.67168664932251</v>
       </c>
       <c r="G178" t="n">
         <v>2084200</v>
@@ -4564,7 +4564,7 @@
         <v>8.739999771118164</v>
       </c>
       <c r="F179" t="n">
-        <v>7.288103103637695</v>
+        <v>7.288101673126221</v>
       </c>
       <c r="G179" t="n">
         <v>4000800</v>
@@ -4587,7 +4587,7 @@
         <v>8.810000419616699</v>
       </c>
       <c r="F180" t="n">
-        <v>7.346473693847656</v>
+        <v>7.34647274017334</v>
       </c>
       <c r="G180" t="n">
         <v>1962100</v>
@@ -4610,7 +4610,7 @@
         <v>8.789999961853027</v>
       </c>
       <c r="F181" t="n">
-        <v>7.329794883728027</v>
+        <v>7.329795360565186</v>
       </c>
       <c r="G181" t="n">
         <v>1194300</v>
@@ -4633,7 +4633,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F182" t="n">
-        <v>7.246405601501465</v>
+        <v>7.246407032012939</v>
       </c>
       <c r="G182" t="n">
         <v>1243300</v>
@@ -4656,7 +4656,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F183" t="n">
-        <v>7.204713821411133</v>
+        <v>7.204713344573975</v>
       </c>
       <c r="G183" t="n">
         <v>1512400</v>
@@ -4679,7 +4679,7 @@
         <v>8.630000114440918</v>
       </c>
       <c r="F184" t="n">
-        <v>7.19637393951416</v>
+        <v>7.196375370025635</v>
       </c>
       <c r="G184" t="n">
         <v>943700</v>
@@ -4702,7 +4702,7 @@
         <v>8.140000343322754</v>
       </c>
       <c r="F185" t="n">
-        <v>6.78777551651001</v>
+        <v>6.787775039672852</v>
       </c>
       <c r="G185" t="n">
         <v>2213700</v>
@@ -4725,7 +4725,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F186" t="n">
-        <v>6.479238510131836</v>
+        <v>6.479238033294678</v>
       </c>
       <c r="G186" t="n">
         <v>3516900</v>
@@ -4748,7 +4748,7 @@
         <v>7.519999980926514</v>
       </c>
       <c r="F187" t="n">
-        <v>6.270768642425537</v>
+        <v>6.270769119262695</v>
       </c>
       <c r="G187" t="n">
         <v>3163500</v>
@@ -4771,7 +4771,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="F188" t="n">
-        <v>6.437543392181396</v>
+        <v>6.437543869018555</v>
       </c>
       <c r="G188" t="n">
         <v>1794700</v>
@@ -4794,7 +4794,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F189" t="n">
-        <v>6.679369926452637</v>
+        <v>6.679368495941162</v>
       </c>
       <c r="G189" t="n">
         <v>1131500</v>
@@ -4817,7 +4817,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F190" t="n">
-        <v>6.479238510131836</v>
+        <v>6.479238033294678</v>
       </c>
       <c r="G190" t="n">
         <v>1031000</v>
@@ -4840,7 +4840,7 @@
         <v>7.75</v>
       </c>
       <c r="F191" t="n">
-        <v>6.462562084197998</v>
+        <v>6.462562561035156</v>
       </c>
       <c r="G191" t="n">
         <v>873200</v>
@@ -4863,7 +4863,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F192" t="n">
-        <v>6.479238510131836</v>
+        <v>6.479238033294678</v>
       </c>
       <c r="G192" t="n">
         <v>1430900</v>
@@ -4909,7 +4909,7 @@
         <v>7.5</v>
       </c>
       <c r="F194" t="n">
-        <v>6.254091262817383</v>
+        <v>6.254091739654541</v>
       </c>
       <c r="G194" t="n">
         <v>1264100</v>
@@ -4932,7 +4932,7 @@
         <v>7.369999885559082</v>
       </c>
       <c r="F195" t="n">
-        <v>6.145686626434326</v>
+        <v>6.145688533782959</v>
       </c>
       <c r="G195" t="n">
         <v>2820300</v>
@@ -4978,7 +4978,7 @@
         <v>7.420000076293945</v>
       </c>
       <c r="F197" t="n">
-        <v>6.187381267547607</v>
+        <v>6.187380790710449</v>
       </c>
       <c r="G197" t="n">
         <v>2304000</v>
@@ -5047,7 +5047,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F200" t="n">
-        <v>6.454221725463867</v>
+        <v>6.454222202301025</v>
       </c>
       <c r="G200" t="n">
         <v>2404100</v>
@@ -5070,7 +5070,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="F201" t="n">
-        <v>6.437543392181396</v>
+        <v>6.437543869018555</v>
       </c>
       <c r="G201" t="n">
         <v>1445400</v>
@@ -5093,7 +5093,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F202" t="n">
-        <v>6.479238510131836</v>
+        <v>6.479238033294678</v>
       </c>
       <c r="G202" t="n">
         <v>932600</v>
@@ -5116,7 +5116,7 @@
         <v>7.699999809265137</v>
       </c>
       <c r="F203" t="n">
-        <v>6.420866966247559</v>
+        <v>6.420868396759033</v>
       </c>
       <c r="G203" t="n">
         <v>1091800</v>
@@ -5139,7 +5139,7 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F204" t="n">
-        <v>6.10399341583252</v>
+        <v>6.103992938995361</v>
       </c>
       <c r="G204" t="n">
         <v>2454200</v>
@@ -5162,7 +5162,7 @@
         <v>7.420000076293945</v>
       </c>
       <c r="F205" t="n">
-        <v>6.187381267547607</v>
+        <v>6.187380790710449</v>
       </c>
       <c r="G205" t="n">
         <v>2939000</v>
@@ -5185,7 +5185,7 @@
         <v>8.100000381469727</v>
       </c>
       <c r="F206" t="n">
-        <v>6.754419803619385</v>
+        <v>6.754419326782227</v>
       </c>
       <c r="G206" t="n">
         <v>4823100</v>
@@ -5208,7 +5208,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F207" t="n">
-        <v>6.54594898223877</v>
+        <v>6.545949935913086</v>
       </c>
       <c r="G207" t="n">
         <v>2385000</v>
@@ -5231,7 +5231,7 @@
         <v>7.449999809265137</v>
       </c>
       <c r="F208" t="n">
-        <v>6.212397575378418</v>
+        <v>6.212398052215576</v>
       </c>
       <c r="G208" t="n">
         <v>1580000</v>
@@ -5254,7 +5254,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F209" t="n">
-        <v>6.54594898223877</v>
+        <v>6.545949935913086</v>
       </c>
       <c r="G209" t="n">
         <v>2129900</v>
@@ -5277,7 +5277,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F210" t="n">
-        <v>6.454221725463867</v>
+        <v>6.454222202301025</v>
       </c>
       <c r="G210" t="n">
         <v>980300</v>
@@ -5323,7 +5323,7 @@
         <v>8.060000419616699</v>
       </c>
       <c r="F212" t="n">
-        <v>6.72106409072876</v>
+        <v>6.721063137054443</v>
       </c>
       <c r="G212" t="n">
         <v>1495800</v>
@@ -5346,7 +5346,7 @@
         <v>7.679999828338623</v>
       </c>
       <c r="F213" t="n">
-        <v>6.404189586639404</v>
+        <v>6.404190063476562</v>
       </c>
       <c r="G213" t="n">
         <v>1469600</v>
@@ -5369,7 +5369,7 @@
         <v>7.420000076293945</v>
       </c>
       <c r="F214" t="n">
-        <v>6.187381267547607</v>
+        <v>6.187380790710449</v>
       </c>
       <c r="G214" t="n">
         <v>1521100</v>
@@ -5392,7 +5392,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F215" t="n">
-        <v>6.345818519592285</v>
+        <v>6.345818042755127</v>
       </c>
       <c r="G215" t="n">
         <v>948300</v>
@@ -5438,7 +5438,7 @@
         <v>7.599999904632568</v>
       </c>
       <c r="F217" t="n">
-        <v>6.337478160858154</v>
+        <v>6.337478637695312</v>
       </c>
       <c r="G217" t="n">
         <v>1156300</v>
@@ -5461,7 +5461,7 @@
         <v>7.480000019073486</v>
       </c>
       <c r="F218" t="n">
-        <v>6.237412452697754</v>
+        <v>6.237413883209229</v>
       </c>
       <c r="G218" t="n">
         <v>1157600</v>
@@ -5484,7 +5484,7 @@
         <v>7.860000133514404</v>
       </c>
       <c r="F219" t="n">
-        <v>6.554288864135742</v>
+        <v>6.554288387298584</v>
       </c>
       <c r="G219" t="n">
         <v>1678300</v>
@@ -5507,7 +5507,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F220" t="n">
-        <v>6.54594898223877</v>
+        <v>6.545949935913086</v>
       </c>
       <c r="G220" t="n">
         <v>952800</v>
@@ -5530,7 +5530,7 @@
         <v>7.809999942779541</v>
       </c>
       <c r="F221" t="n">
-        <v>6.512593269348145</v>
+        <v>6.512593746185303</v>
       </c>
       <c r="G221" t="n">
         <v>1194900</v>
@@ -5553,7 +5553,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F222" t="n">
-        <v>6.454221725463867</v>
+        <v>6.454222202301025</v>
       </c>
       <c r="G222" t="n">
         <v>2147800</v>
@@ -5576,7 +5576,7 @@
         <v>7.420000076293945</v>
       </c>
       <c r="F223" t="n">
-        <v>6.187381267547607</v>
+        <v>6.187380790710449</v>
       </c>
       <c r="G223" t="n">
         <v>1538300</v>
@@ -5599,7 +5599,7 @@
         <v>7.670000076293945</v>
       </c>
       <c r="F224" t="n">
-        <v>6.395851135253906</v>
+        <v>6.39585018157959</v>
       </c>
       <c r="G224" t="n">
         <v>1640500</v>
@@ -5622,7 +5622,7 @@
         <v>7.449999809265137</v>
       </c>
       <c r="F225" t="n">
-        <v>6.212397575378418</v>
+        <v>6.212398052215576</v>
       </c>
       <c r="G225" t="n">
         <v>1746700</v>
@@ -5645,7 +5645,7 @@
         <v>7.260000228881836</v>
       </c>
       <c r="F226" t="n">
-        <v>6.053960800170898</v>
+        <v>6.053961277008057</v>
       </c>
       <c r="G226" t="n">
         <v>1744500</v>
@@ -5668,7 +5668,7 @@
         <v>7.260000228881836</v>
       </c>
       <c r="F227" t="n">
-        <v>6.053960800170898</v>
+        <v>6.053961277008057</v>
       </c>
       <c r="G227" t="n">
         <v>2251500</v>
@@ -5714,7 +5714,7 @@
         <v>7.190000057220459</v>
       </c>
       <c r="F229" t="n">
-        <v>6.024080276489258</v>
+        <v>6.024080753326416</v>
       </c>
       <c r="G229" t="n">
         <v>1745300</v>
@@ -5737,7 +5737,7 @@
         <v>6.820000171661377</v>
       </c>
       <c r="F230" t="n">
-        <v>5.714080333709717</v>
+        <v>5.714079856872559</v>
       </c>
       <c r="G230" t="n">
         <v>2858900</v>
@@ -5760,7 +5760,7 @@
         <v>6.710000038146973</v>
       </c>
       <c r="F231" t="n">
-        <v>5.621917724609375</v>
+        <v>5.621918201446533</v>
       </c>
       <c r="G231" t="n">
         <v>2998000</v>
@@ -5783,7 +5783,7 @@
         <v>6.570000171661377</v>
       </c>
       <c r="F232" t="n">
-        <v>5.50462007522583</v>
+        <v>5.504619121551514</v>
       </c>
       <c r="G232" t="n">
         <v>2353700</v>
@@ -5806,7 +5806,7 @@
         <v>6.519999980926514</v>
       </c>
       <c r="F233" t="n">
-        <v>5.462727546691895</v>
+        <v>5.462728500366211</v>
       </c>
       <c r="G233" t="n">
         <v>2493900</v>
@@ -5829,7 +5829,7 @@
         <v>6.389999866485596</v>
       </c>
       <c r="F234" t="n">
-        <v>5.35380744934082</v>
+        <v>5.353807926177979</v>
       </c>
       <c r="G234" t="n">
         <v>2486100</v>
@@ -5852,7 +5852,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F235" t="n">
-        <v>5.202996253967285</v>
+        <v>5.202996730804443</v>
       </c>
       <c r="G235" t="n">
         <v>8084500</v>
@@ -5875,7 +5875,7 @@
         <v>6.010000228881836</v>
       </c>
       <c r="F236" t="n">
-        <v>5.035427570343018</v>
+        <v>5.035428524017334</v>
       </c>
       <c r="G236" t="n">
         <v>1034200</v>
@@ -5921,7 +5921,7 @@
         <v>6.159999847412109</v>
       </c>
       <c r="F238" t="n">
-        <v>5.161102294921875</v>
+        <v>5.161104679107666</v>
       </c>
       <c r="G238" t="n">
         <v>2172000</v>
@@ -5944,7 +5944,7 @@
         <v>6.110000133514404</v>
       </c>
       <c r="F239" t="n">
-        <v>5.11921215057373</v>
+        <v>5.119213104248047</v>
       </c>
       <c r="G239" t="n">
         <v>3024000</v>
@@ -5967,7 +5967,7 @@
         <v>6.010000228881836</v>
       </c>
       <c r="F240" t="n">
-        <v>5.035427570343018</v>
+        <v>5.035428524017334</v>
       </c>
       <c r="G240" t="n">
         <v>2658000</v>
@@ -5990,7 +5990,7 @@
         <v>6.409999847412109</v>
       </c>
       <c r="F241" t="n">
-        <v>5.370564460754395</v>
+        <v>5.370564937591553</v>
       </c>
       <c r="G241" t="n">
         <v>2066600</v>
@@ -6013,7 +6013,7 @@
         <v>6.320000171661377</v>
       </c>
       <c r="F242" t="n">
-        <v>5.295159339904785</v>
+        <v>5.295159816741943</v>
       </c>
       <c r="G242" t="n">
         <v>2306500</v>
@@ -6036,7 +6036,7 @@
         <v>6.670000076293945</v>
       </c>
       <c r="F243" t="n">
-        <v>5.588403701782227</v>
+        <v>5.588404178619385</v>
       </c>
       <c r="G243" t="n">
         <v>4152300</v>
@@ -6082,7 +6082,7 @@
         <v>6.949999809265137</v>
       </c>
       <c r="F245" t="n">
-        <v>5.822999477386475</v>
+        <v>5.822999000549316</v>
       </c>
       <c r="G245" t="n">
         <v>1751000</v>
@@ -6105,7 +6105,7 @@
         <v>6.989999771118164</v>
       </c>
       <c r="F246" t="n">
-        <v>5.856513500213623</v>
+        <v>5.856514453887939</v>
       </c>
       <c r="G246" t="n">
         <v>1072800</v>
@@ -6128,7 +6128,7 @@
         <v>6.920000076293945</v>
       </c>
       <c r="F247" t="n">
-        <v>5.797863483428955</v>
+        <v>5.797865390777588</v>
       </c>
       <c r="G247" t="n">
         <v>1222200</v>
@@ -6151,7 +6151,7 @@
         <v>7.099999904632568</v>
       </c>
       <c r="F248" t="n">
-        <v>5.948676586151123</v>
+        <v>5.948675155639648</v>
       </c>
       <c r="G248" t="n">
         <v>1158300</v>
@@ -6174,7 +6174,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="F249" t="n">
-        <v>5.839755058288574</v>
+        <v>5.839755535125732</v>
       </c>
       <c r="G249" t="n">
         <v>2204600</v>
@@ -6197,7 +6197,7 @@
         <v>6.900000095367432</v>
       </c>
       <c r="F250" t="n">
-        <v>5.781106472015381</v>
+        <v>5.781106948852539</v>
       </c>
       <c r="G250" t="n">
         <v>2309900</v>
@@ -6243,7 +6243,7 @@
         <v>7.260000228881836</v>
       </c>
       <c r="F252" t="n">
-        <v>6.082731246948242</v>
+        <v>6.0827317237854</v>
       </c>
       <c r="G252" t="n">
         <v>2363200</v>
@@ -6266,7 +6266,7 @@
         <v>7.329999923706055</v>
       </c>
       <c r="F253" t="n">
-        <v>6.141378402709961</v>
+        <v>6.141379356384277</v>
       </c>
       <c r="G253" t="n">
         <v>1447400</v>
@@ -6312,7 +6312,7 @@
         <v>7</v>
       </c>
       <c r="F255" t="n">
-        <v>5.864890575408936</v>
+        <v>5.864891052246094</v>
       </c>
       <c r="G255" t="n">
         <v>1203400</v>
@@ -6335,7 +6335,7 @@
         <v>7.059999942779541</v>
       </c>
       <c r="F256" t="n">
-        <v>5.915161609649658</v>
+        <v>5.915163040161133</v>
       </c>
       <c r="G256" t="n">
         <v>1354500</v>
@@ -6358,7 +6358,7 @@
         <v>7.190000057220459</v>
       </c>
       <c r="F257" t="n">
-        <v>6.024080276489258</v>
+        <v>6.024080753326416</v>
       </c>
       <c r="G257" t="n">
         <v>2096300</v>
@@ -6404,7 +6404,7 @@
         <v>7.119999885559082</v>
       </c>
       <c r="F259" t="n">
-        <v>5.965431690216064</v>
+        <v>5.965433597564697</v>
       </c>
       <c r="G259" t="n">
         <v>951000</v>
@@ -6450,7 +6450,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="F261" t="n">
-        <v>6.049216270446777</v>
+        <v>6.049217224121094</v>
       </c>
       <c r="G261" t="n">
         <v>945700</v>
@@ -6473,7 +6473,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F262" t="n">
-        <v>6.124621868133545</v>
+        <v>6.12462329864502</v>
       </c>
       <c r="G262" t="n">
         <v>1456900</v>
@@ -6519,7 +6519,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F264" t="n">
-        <v>6.342461109161377</v>
+        <v>6.342460632324219</v>
       </c>
       <c r="G264" t="n">
         <v>1878400</v>
@@ -6542,7 +6542,7 @@
         <v>7.639999866485596</v>
       </c>
       <c r="F265" t="n">
-        <v>6.401111125946045</v>
+        <v>6.40110969543457</v>
       </c>
       <c r="G265" t="n">
         <v>1531700</v>
@@ -6611,7 +6611,7 @@
         <v>7.829999923706055</v>
       </c>
       <c r="F268" t="n">
-        <v>6.560300350189209</v>
+        <v>6.560299396514893</v>
       </c>
       <c r="G268" t="n">
         <v>2024500</v>
@@ -6634,7 +6634,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F269" t="n">
-        <v>6.711111545562744</v>
+        <v>6.711111068725586</v>
       </c>
       <c r="G269" t="n">
         <v>1830800</v>
@@ -6680,7 +6680,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F271" t="n">
-        <v>6.660841941833496</v>
+        <v>6.660840511322021</v>
       </c>
       <c r="G271" t="n">
         <v>932000</v>
@@ -6726,7 +6726,7 @@
         <v>8.039999961853027</v>
       </c>
       <c r="F273" t="n">
-        <v>6.736247062683105</v>
+        <v>6.736248016357422</v>
       </c>
       <c r="G273" t="n">
         <v>1358700</v>
@@ -6749,7 +6749,7 @@
         <v>8.149999618530273</v>
       </c>
       <c r="F274" t="n">
-        <v>6.828409671783447</v>
+        <v>6.828409194946289</v>
       </c>
       <c r="G274" t="n">
         <v>1220300</v>
@@ -6795,7 +6795,7 @@
         <v>8.149999618530273</v>
       </c>
       <c r="F276" t="n">
-        <v>6.828409671783447</v>
+        <v>6.828409194946289</v>
       </c>
       <c r="G276" t="n">
         <v>755200</v>
@@ -6864,7 +6864,7 @@
         <v>8.100000381469727</v>
       </c>
       <c r="F279" t="n">
-        <v>6.786517143249512</v>
+        <v>6.78651762008667</v>
       </c>
       <c r="G279" t="n">
         <v>1016600</v>
@@ -6910,7 +6910,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F281" t="n">
-        <v>6.66921854019165</v>
+        <v>6.669219493865967</v>
       </c>
       <c r="G281" t="n">
         <v>1560100</v>
@@ -6933,7 +6933,7 @@
         <v>7.989999771118164</v>
       </c>
       <c r="F282" t="n">
-        <v>6.694355010986328</v>
+        <v>6.694354057312012</v>
       </c>
       <c r="G282" t="n">
         <v>1157700</v>
@@ -6956,7 +6956,7 @@
         <v>7.980000019073486</v>
       </c>
       <c r="F283" t="n">
-        <v>6.685976028442383</v>
+        <v>6.685976505279541</v>
       </c>
       <c r="G283" t="n">
         <v>2150100</v>
@@ -6979,7 +6979,7 @@
         <v>7.71999979019165</v>
       </c>
       <c r="F284" t="n">
-        <v>6.468137264251709</v>
+        <v>6.468138217926025</v>
       </c>
       <c r="G284" t="n">
         <v>1451700</v>
@@ -7025,7 +7025,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F286" t="n">
-        <v>6.183270454406738</v>
+        <v>6.183271884918213</v>
       </c>
       <c r="G286" t="n">
         <v>2941800</v>
@@ -7071,7 +7071,7 @@
         <v>6.570000171661377</v>
       </c>
       <c r="F288" t="n">
-        <v>5.50462007522583</v>
+        <v>5.504619121551514</v>
       </c>
       <c r="G288" t="n">
         <v>16575300</v>
@@ -7094,7 +7094,7 @@
         <v>6.380000114440918</v>
       </c>
       <c r="F289" t="n">
-        <v>5.345430374145508</v>
+        <v>5.34542989730835</v>
       </c>
       <c r="G289" t="n">
         <v>7638600</v>
@@ -7117,7 +7117,7 @@
         <v>6.179999828338623</v>
       </c>
       <c r="F290" t="n">
-        <v>5.17786169052124</v>
+        <v>5.177862644195557</v>
       </c>
       <c r="G290" t="n">
         <v>5857600</v>
@@ -7140,7 +7140,7 @@
         <v>6.46999979019165</v>
       </c>
       <c r="F291" t="n">
-        <v>5.420835494995117</v>
+        <v>5.420835018157959</v>
       </c>
       <c r="G291" t="n">
         <v>6260900</v>
@@ -7163,7 +7163,7 @@
         <v>6.75</v>
       </c>
       <c r="F292" t="n">
-        <v>5.655431270599365</v>
+        <v>5.655430316925049</v>
       </c>
       <c r="G292" t="n">
         <v>6094700</v>
@@ -7186,7 +7186,7 @@
         <v>6.71999979019165</v>
       </c>
       <c r="F293" t="n">
-        <v>5.630294799804688</v>
+        <v>5.630295753479004</v>
       </c>
       <c r="G293" t="n">
         <v>5086100</v>
@@ -7209,7 +7209,7 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F294" t="n">
-        <v>5.554890632629395</v>
+        <v>5.554889678955078</v>
       </c>
       <c r="G294" t="n">
         <v>3519000</v>
@@ -7232,7 +7232,7 @@
         <v>6.570000171661377</v>
       </c>
       <c r="F295" t="n">
-        <v>5.50462007522583</v>
+        <v>5.504619121551514</v>
       </c>
       <c r="G295" t="n">
         <v>2657000</v>
@@ -7255,7 +7255,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F296" t="n">
-        <v>5.202996253967285</v>
+        <v>5.202996730804443</v>
       </c>
       <c r="G296" t="n">
         <v>3742600</v>
@@ -7278,7 +7278,7 @@
         <v>6.159999847412109</v>
       </c>
       <c r="F297" t="n">
-        <v>5.161102294921875</v>
+        <v>5.161104679107666</v>
       </c>
       <c r="G297" t="n">
         <v>2049300</v>
@@ -7370,7 +7370,7 @@
         <v>6.389999866485596</v>
       </c>
       <c r="F301" t="n">
-        <v>5.35380744934082</v>
+        <v>5.353807926177979</v>
       </c>
       <c r="G301" t="n">
         <v>2686300</v>
@@ -7416,7 +7416,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F303" t="n">
-        <v>5.560210704803467</v>
+        <v>5.56020975112915</v>
       </c>
       <c r="G303" t="n">
         <v>1444600</v>
@@ -7439,7 +7439,7 @@
         <v>6.670000076293945</v>
       </c>
       <c r="F304" t="n">
-        <v>5.619182586669922</v>
+        <v>5.619181156158447</v>
       </c>
       <c r="G304" t="n">
         <v>2409400</v>
@@ -7462,7 +7462,7 @@
         <v>6.730000019073486</v>
       </c>
       <c r="F305" t="n">
-        <v>5.669729709625244</v>
+        <v>5.669729232788086</v>
       </c>
       <c r="G305" t="n">
         <v>1033900</v>
@@ -7485,7 +7485,7 @@
         <v>6.679999828338623</v>
       </c>
       <c r="F306" t="n">
-        <v>5.627606391906738</v>
+        <v>5.627606868743896</v>
       </c>
       <c r="G306" t="n">
         <v>1724600</v>
@@ -7508,7 +7508,7 @@
         <v>6.610000133514404</v>
       </c>
       <c r="F307" t="n">
-        <v>5.568634033203125</v>
+        <v>5.568634510040283</v>
       </c>
       <c r="G307" t="n">
         <v>2470200</v>
@@ -7531,7 +7531,7 @@
         <v>6.489999771118164</v>
       </c>
       <c r="F308" t="n">
-        <v>5.467540264129639</v>
+        <v>5.46753978729248</v>
       </c>
       <c r="G308" t="n">
         <v>7404600</v>
@@ -7554,7 +7554,7 @@
         <v>6.670000076293945</v>
       </c>
       <c r="F309" t="n">
-        <v>5.619182586669922</v>
+        <v>5.619181156158447</v>
       </c>
       <c r="G309" t="n">
         <v>3404400</v>
@@ -7577,7 +7577,7 @@
         <v>6.659999847412109</v>
       </c>
       <c r="F310" t="n">
-        <v>5.610757350921631</v>
+        <v>5.610756874084473</v>
       </c>
       <c r="G310" t="n">
         <v>985900</v>
@@ -7623,7 +7623,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F312" t="n">
-        <v>5.560210704803467</v>
+        <v>5.56020975112915</v>
       </c>
       <c r="G312" t="n">
         <v>1156700</v>
@@ -7646,7 +7646,7 @@
         <v>6.699999809265137</v>
       </c>
       <c r="F313" t="n">
-        <v>5.644455909729004</v>
+        <v>5.644455432891846</v>
       </c>
       <c r="G313" t="n">
         <v>1936800</v>
@@ -7669,7 +7669,7 @@
         <v>6.670000076293945</v>
       </c>
       <c r="F314" t="n">
-        <v>5.619182586669922</v>
+        <v>5.619181156158447</v>
       </c>
       <c r="G314" t="n">
         <v>1741800</v>
@@ -7692,7 +7692,7 @@
         <v>6.650000095367432</v>
       </c>
       <c r="F315" t="n">
-        <v>5.602333068847656</v>
+        <v>5.602334022521973</v>
       </c>
       <c r="G315" t="n">
         <v>1239200</v>
@@ -7715,7 +7715,7 @@
         <v>6.659999847412109</v>
       </c>
       <c r="F316" t="n">
-        <v>5.610757350921631</v>
+        <v>5.610756874084473</v>
       </c>
       <c r="G316" t="n">
         <v>954600</v>
@@ -7738,7 +7738,7 @@
         <v>6.659999847412109</v>
       </c>
       <c r="F317" t="n">
-        <v>5.610757350921631</v>
+        <v>5.610756874084473</v>
       </c>
       <c r="G317" t="n">
         <v>1386900</v>
@@ -7761,7 +7761,7 @@
         <v>6.539999961853027</v>
       </c>
       <c r="F318" t="n">
-        <v>5.509661674499512</v>
+        <v>5.50966215133667</v>
       </c>
       <c r="G318" t="n">
         <v>1880300</v>
@@ -7784,7 +7784,7 @@
         <v>6.289999961853027</v>
       </c>
       <c r="F319" t="n">
-        <v>5.299048900604248</v>
+        <v>5.29904842376709</v>
       </c>
       <c r="G319" t="n">
         <v>1920100</v>
@@ -7807,7 +7807,7 @@
         <v>6.440000057220459</v>
       </c>
       <c r="F320" t="n">
-        <v>5.425417423248291</v>
+        <v>5.425416946411133</v>
       </c>
       <c r="G320" t="n">
         <v>2697200</v>
@@ -7830,7 +7830,7 @@
         <v>6.679999828338623</v>
       </c>
       <c r="F321" t="n">
-        <v>5.627606391906738</v>
+        <v>5.627606868743896</v>
       </c>
       <c r="G321" t="n">
         <v>2137500</v>
@@ -7876,7 +7876,7 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F323" t="n">
-        <v>5.585484027862549</v>
+        <v>5.585483551025391</v>
       </c>
       <c r="G323" t="n">
         <v>1188800</v>
@@ -7922,7 +7922,7 @@
         <v>6.869999885559082</v>
       </c>
       <c r="F325" t="n">
-        <v>5.78767204284668</v>
+        <v>5.787673473358154</v>
       </c>
       <c r="G325" t="n">
         <v>1868400</v>
@@ -7945,7 +7945,7 @@
         <v>6.989999771118164</v>
       </c>
       <c r="F326" t="n">
-        <v>5.888767242431641</v>
+        <v>5.888767719268799</v>
       </c>
       <c r="G326" t="n">
         <v>1515600</v>
@@ -7968,7 +7968,7 @@
         <v>6.949999809265137</v>
       </c>
       <c r="F327" t="n">
-        <v>5.855069160461426</v>
+        <v>5.855068683624268</v>
       </c>
       <c r="G327" t="n">
         <v>2598900</v>
@@ -7991,7 +7991,7 @@
         <v>6.179999828338623</v>
       </c>
       <c r="F328" t="n">
-        <v>5.206377983093262</v>
+        <v>5.206377506256104</v>
       </c>
       <c r="G328" t="n">
         <v>7188900</v>
@@ -8014,7 +8014,7 @@
         <v>6.349999904632568</v>
       </c>
       <c r="F329" t="n">
-        <v>5.349595546722412</v>
+        <v>5.349595069885254</v>
       </c>
       <c r="G329" t="n">
         <v>3721800</v>
@@ -8037,7 +8037,7 @@
         <v>6.369999885559082</v>
       </c>
       <c r="F330" t="n">
-        <v>5.366445541381836</v>
+        <v>5.36644458770752</v>
       </c>
       <c r="G330" t="n">
         <v>2798200</v>
@@ -8060,7 +8060,7 @@
         <v>5.980000019073486</v>
       </c>
       <c r="F331" t="n">
-        <v>5.037886142730713</v>
+        <v>5.037887096405029</v>
       </c>
       <c r="G331" t="n">
         <v>3391100</v>
@@ -8106,7 +8106,7 @@
         <v>6.130000114440918</v>
       </c>
       <c r="F333" t="n">
-        <v>5.164255619049072</v>
+        <v>5.16425609588623</v>
       </c>
       <c r="G333" t="n">
         <v>2232900</v>
@@ -8129,7 +8129,7 @@
         <v>6.269999980926514</v>
       </c>
       <c r="F334" t="n">
-        <v>5.282199859619141</v>
+        <v>5.282200336456299</v>
       </c>
       <c r="G334" t="n">
         <v>2493300</v>
@@ -8152,7 +8152,7 @@
         <v>6.070000171661377</v>
       </c>
       <c r="F335" t="n">
-        <v>5.113708019256592</v>
+        <v>5.11370849609375</v>
       </c>
       <c r="G335" t="n">
         <v>3461000</v>
@@ -8175,7 +8175,7 @@
         <v>6.070000171661377</v>
       </c>
       <c r="F336" t="n">
-        <v>5.113708019256592</v>
+        <v>5.11370849609375</v>
       </c>
       <c r="G336" t="n">
         <v>2328300</v>
@@ -8198,7 +8198,7 @@
         <v>6.329999923706055</v>
       </c>
       <c r="F337" t="n">
-        <v>5.332746505737305</v>
+        <v>5.332747936248779</v>
       </c>
       <c r="G337" t="n">
         <v>2761200</v>
@@ -8221,7 +8221,7 @@
         <v>6.329999923706055</v>
       </c>
       <c r="F338" t="n">
-        <v>5.332746505737305</v>
+        <v>5.332747936248779</v>
       </c>
       <c r="G338" t="n">
         <v>2743300</v>
@@ -8244,7 +8244,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="F339" t="n">
-        <v>5.24007511138916</v>
+        <v>5.240076541900635</v>
       </c>
       <c r="G339" t="n">
         <v>2521600</v>
@@ -8267,7 +8267,7 @@
         <v>6.190000057220459</v>
       </c>
       <c r="F340" t="n">
-        <v>5.214802742004395</v>
+        <v>5.214803695678711</v>
       </c>
       <c r="G340" t="n">
         <v>1850700</v>
@@ -8313,7 +8313,7 @@
         <v>6.110000133514404</v>
       </c>
       <c r="F342" t="n">
-        <v>5.147406101226807</v>
+        <v>5.147407054901123</v>
       </c>
       <c r="G342" t="n">
         <v>2670900</v>
@@ -8336,7 +8336,7 @@
         <v>6.119999885559082</v>
       </c>
       <c r="F343" t="n">
-        <v>5.155829906463623</v>
+        <v>5.155830860137939</v>
       </c>
       <c r="G343" t="n">
         <v>2258200</v>
@@ -8382,7 +8382,7 @@
         <v>6.070000171661377</v>
       </c>
       <c r="F345" t="n">
-        <v>5.113708019256592</v>
+        <v>5.11370849609375</v>
       </c>
       <c r="G345" t="n">
         <v>5567100</v>
@@ -8405,7 +8405,7 @@
         <v>6.159999847412109</v>
       </c>
       <c r="F346" t="n">
-        <v>5.189527034759521</v>
+        <v>5.189528465270996</v>
       </c>
       <c r="G346" t="n">
         <v>4757500</v>
@@ -8428,7 +8428,7 @@
         <v>6.110000133514404</v>
       </c>
       <c r="F347" t="n">
-        <v>5.147406101226807</v>
+        <v>5.147407054901123</v>
       </c>
       <c r="G347" t="n">
         <v>3407700</v>
@@ -8451,7 +8451,7 @@
         <v>6.070000171661377</v>
       </c>
       <c r="F348" t="n">
-        <v>5.113708019256592</v>
+        <v>5.11370849609375</v>
       </c>
       <c r="G348" t="n">
         <v>1730300</v>
@@ -8474,7 +8474,7 @@
         <v>6.170000076293945</v>
       </c>
       <c r="F349" t="n">
-        <v>5.197952747344971</v>
+        <v>5.197953224182129</v>
       </c>
       <c r="G349" t="n">
         <v>2962300</v>
@@ -8566,7 +8566,7 @@
         <v>6.480000019073486</v>
       </c>
       <c r="F353" t="n">
-        <v>5.490259647369385</v>
+        <v>5.49025821685791</v>
       </c>
       <c r="G353" t="n">
         <v>2808800</v>
@@ -8589,7 +8589,7 @@
         <v>6.460000038146973</v>
       </c>
       <c r="F354" t="n">
-        <v>5.47331428527832</v>
+        <v>5.473314762115479</v>
       </c>
       <c r="G354" t="n">
         <v>2692700</v>
@@ -8635,7 +8635,7 @@
         <v>6.260000228881836</v>
       </c>
       <c r="F356" t="n">
-        <v>5.303861618041992</v>
+        <v>5.30386209487915</v>
       </c>
       <c r="G356" t="n">
         <v>2352800</v>
@@ -8681,7 +8681,7 @@
         <v>6.260000228881836</v>
       </c>
       <c r="F358" t="n">
-        <v>5.303861618041992</v>
+        <v>5.30386209487915</v>
       </c>
       <c r="G358" t="n">
         <v>2098600</v>
@@ -8750,7 +8750,7 @@
         <v>5.869999885559082</v>
       </c>
       <c r="F361" t="n">
-        <v>4.973430156707764</v>
+        <v>4.973429679870605</v>
       </c>
       <c r="G361" t="n">
         <v>2035900</v>
@@ -8773,7 +8773,7 @@
         <v>5.989999771118164</v>
       </c>
       <c r="F362" t="n">
-        <v>5.075101375579834</v>
+        <v>5.075099468231201</v>
       </c>
       <c r="G362" t="n">
         <v>1811100</v>
@@ -8796,7 +8796,7 @@
         <v>6</v>
       </c>
       <c r="F363" t="n">
-        <v>5.083573341369629</v>
+        <v>5.083573818206787</v>
       </c>
       <c r="G363" t="n">
         <v>1282000</v>
@@ -8819,7 +8819,7 @@
         <v>6.119999885559082</v>
       </c>
       <c r="F364" t="n">
-        <v>5.185244083404541</v>
+        <v>5.185245037078857</v>
       </c>
       <c r="G364" t="n">
         <v>2019000</v>
@@ -8842,7 +8842,7 @@
         <v>6.179999828338623</v>
       </c>
       <c r="F365" t="n">
-        <v>5.236080646514893</v>
+        <v>5.236080169677734</v>
       </c>
       <c r="G365" t="n">
         <v>894700</v>
@@ -8865,7 +8865,7 @@
         <v>6.090000152587891</v>
       </c>
       <c r="F366" t="n">
-        <v>5.15982723236084</v>
+        <v>5.159827709197998</v>
       </c>
       <c r="G366" t="n">
         <v>1527700</v>
@@ -8888,7 +8888,7 @@
         <v>6.260000228881836</v>
       </c>
       <c r="F367" t="n">
-        <v>5.303861618041992</v>
+        <v>5.30386209487915</v>
       </c>
       <c r="G367" t="n">
         <v>789400</v>
@@ -8911,7 +8911,7 @@
         <v>6.21999979019165</v>
       </c>
       <c r="F368" t="n">
-        <v>5.269969940185547</v>
+        <v>5.269971370697021</v>
       </c>
       <c r="G368" t="n">
         <v>925900</v>
@@ -8934,7 +8934,7 @@
         <v>6.300000190734863</v>
       </c>
       <c r="F369" t="n">
-        <v>5.337751865386963</v>
+        <v>5.337753295898438</v>
       </c>
       <c r="G369" t="n">
         <v>1495200</v>
@@ -8957,7 +8957,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F370" t="n">
-        <v>5.261498928070068</v>
+        <v>5.261499404907227</v>
       </c>
       <c r="G370" t="n">
         <v>1661400</v>
@@ -8980,7 +8980,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F371" t="n">
-        <v>5.261498928070068</v>
+        <v>5.261499404907227</v>
       </c>
       <c r="G371" t="n">
         <v>988600</v>
@@ -9003,7 +9003,7 @@
         <v>6.179999828338623</v>
       </c>
       <c r="F372" t="n">
-        <v>5.236080646514893</v>
+        <v>5.236080169677734</v>
       </c>
       <c r="G372" t="n">
         <v>843700</v>
@@ -9026,7 +9026,7 @@
         <v>6.360000133514404</v>
       </c>
       <c r="F373" t="n">
-        <v>5.388587951660156</v>
+        <v>5.388586521148682</v>
       </c>
       <c r="G373" t="n">
         <v>1560800</v>
@@ -9072,7 +9072,7 @@
         <v>6.449999809265137</v>
       </c>
       <c r="F375" t="n">
-        <v>5.464841842651367</v>
+        <v>5.464841365814209</v>
       </c>
       <c r="G375" t="n">
         <v>2271700</v>
@@ -9095,7 +9095,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F376" t="n">
-        <v>5.261498928070068</v>
+        <v>5.261499404907227</v>
       </c>
       <c r="G376" t="n">
         <v>1474800</v>
@@ -9141,7 +9141,7 @@
         <v>6.230000019073486</v>
       </c>
       <c r="F378" t="n">
-        <v>5.278443336486816</v>
+        <v>5.278444290161133</v>
       </c>
       <c r="G378" t="n">
         <v>1111800</v>
@@ -9164,7 +9164,7 @@
         <v>6.03000020980835</v>
       </c>
       <c r="F379" t="n">
-        <v>5.108991622924805</v>
+        <v>5.108991146087646</v>
       </c>
       <c r="G379" t="n">
         <v>1638800</v>
@@ -9187,7 +9187,7 @@
         <v>6.010000228881836</v>
       </c>
       <c r="F380" t="n">
-        <v>5.092045783996582</v>
+        <v>5.092046737670898</v>
       </c>
       <c r="G380" t="n">
         <v>3629500</v>
@@ -9210,7 +9210,7 @@
         <v>6.150000095367432</v>
       </c>
       <c r="F381" t="n">
-        <v>5.210662841796875</v>
+        <v>5.210662364959717</v>
       </c>
       <c r="G381" t="n">
         <v>1597900</v>
@@ -9256,7 +9256,7 @@
         <v>6.300000190734863</v>
       </c>
       <c r="F383" t="n">
-        <v>5.337751865386963</v>
+        <v>5.337753295898438</v>
       </c>
       <c r="G383" t="n">
         <v>1067900</v>
@@ -9279,7 +9279,7 @@
         <v>6.360000133514404</v>
       </c>
       <c r="F384" t="n">
-        <v>5.388587951660156</v>
+        <v>5.388586521148682</v>
       </c>
       <c r="G384" t="n">
         <v>880400</v>
@@ -9302,7 +9302,7 @@
         <v>6.409999847412109</v>
       </c>
       <c r="F385" t="n">
-        <v>5.430950164794922</v>
+        <v>5.43095064163208</v>
       </c>
       <c r="G385" t="n">
         <v>892400</v>
@@ -9348,7 +9348,7 @@
         <v>6.079999923706055</v>
       </c>
       <c r="F387" t="n">
-        <v>5.15135383605957</v>
+        <v>5.151354312896729</v>
       </c>
       <c r="G387" t="n">
         <v>1168600</v>
@@ -9417,7 +9417,7 @@
         <v>5.550000190734863</v>
       </c>
       <c r="F390" t="n">
-        <v>4.702305316925049</v>
+        <v>4.702305793762207</v>
       </c>
       <c r="G390" t="n">
         <v>2546200</v>
@@ -9440,7 +9440,7 @@
         <v>5.210000038146973</v>
       </c>
       <c r="F391" t="n">
-        <v>4.414235591888428</v>
+        <v>4.414236545562744</v>
       </c>
       <c r="G391" t="n">
         <v>7804300</v>
@@ -9463,7 +9463,7 @@
         <v>5.239999771118164</v>
       </c>
       <c r="F392" t="n">
-        <v>4.439653873443604</v>
+        <v>4.439654350280762</v>
       </c>
       <c r="G392" t="n">
         <v>2407000</v>
@@ -9509,7 +9509,7 @@
         <v>4.650000095367432</v>
       </c>
       <c r="F394" t="n">
-        <v>3.939769268035889</v>
+        <v>3.939770698547363</v>
       </c>
       <c r="G394" t="n">
         <v>1716200</v>
@@ -9555,7 +9555,7 @@
         <v>4.349999904632568</v>
       </c>
       <c r="F396" t="n">
-        <v>3.685591220855713</v>
+        <v>3.685590505599976</v>
       </c>
       <c r="G396" t="n">
         <v>3753400</v>
@@ -9578,7 +9578,7 @@
         <v>4.380000114440918</v>
       </c>
       <c r="F397" t="n">
-        <v>3.71100902557373</v>
+        <v>3.711008548736572</v>
       </c>
       <c r="G397" t="n">
         <v>1434600</v>
@@ -9624,7 +9624,7 @@
         <v>4.789999961853027</v>
       </c>
       <c r="F399" t="n">
-        <v>4.058385848999023</v>
+        <v>4.058386325836182</v>
       </c>
       <c r="G399" t="n">
         <v>2704100</v>
@@ -9647,7 +9647,7 @@
         <v>4.679999828338623</v>
       </c>
       <c r="F400" t="n">
-        <v>3.965187549591064</v>
+        <v>3.965187788009644</v>
       </c>
       <c r="G400" t="n">
         <v>2013500</v>
@@ -9670,7 +9670,7 @@
         <v>4.679999828338623</v>
       </c>
       <c r="F401" t="n">
-        <v>3.965187549591064</v>
+        <v>3.965187788009644</v>
       </c>
       <c r="G401" t="n">
         <v>2046900</v>
@@ -9693,7 +9693,7 @@
         <v>4.769999980926514</v>
       </c>
       <c r="F402" t="n">
-        <v>4.041440486907959</v>
+        <v>4.041442394256592</v>
       </c>
       <c r="G402" t="n">
         <v>2692600</v>
@@ -9716,7 +9716,7 @@
         <v>4.599999904632568</v>
       </c>
       <c r="F403" t="n">
-        <v>3.897406101226807</v>
+        <v>3.897405624389648</v>
       </c>
       <c r="G403" t="n">
         <v>1044200</v>
@@ -9739,7 +9739,7 @@
         <v>4.650000095367432</v>
       </c>
       <c r="F404" t="n">
-        <v>3.939769268035889</v>
+        <v>3.939770698547363</v>
       </c>
       <c r="G404" t="n">
         <v>775000</v>
@@ -9762,7 +9762,7 @@
         <v>4.570000171661377</v>
       </c>
       <c r="F405" t="n">
-        <v>3.871989488601685</v>
+        <v>3.871988534927368</v>
       </c>
       <c r="G405" t="n">
         <v>1356300</v>
@@ -9785,7 +9785,7 @@
         <v>4.71999979019165</v>
       </c>
       <c r="F406" t="n">
-        <v>3.999077796936035</v>
+        <v>3.999077320098877</v>
       </c>
       <c r="G406" t="n">
         <v>1004300</v>
@@ -9808,7 +9808,7 @@
         <v>4.699999809265137</v>
       </c>
       <c r="F407" t="n">
-        <v>3.98213267326355</v>
+        <v>3.982131958007812</v>
       </c>
       <c r="G407" t="n">
         <v>1028700</v>
@@ -9854,7 +9854,7 @@
         <v>4.769999980926514</v>
       </c>
       <c r="F409" t="n">
-        <v>4.041440486907959</v>
+        <v>4.041442394256592</v>
       </c>
       <c r="G409" t="n">
         <v>1276400</v>
@@ -9900,7 +9900,7 @@
         <v>5.309999942779541</v>
       </c>
       <c r="F411" t="n">
-        <v>4.498961925506592</v>
+        <v>4.498962879180908</v>
       </c>
       <c r="G411" t="n">
         <v>1962200</v>
@@ -9946,7 +9946,7 @@
         <v>5.690000057220459</v>
       </c>
       <c r="F413" t="n">
-        <v>4.820921897888184</v>
+        <v>4.820922374725342</v>
       </c>
       <c r="G413" t="n">
         <v>2644700</v>
@@ -9969,7 +9969,7 @@
         <v>6.050000190734863</v>
       </c>
       <c r="F414" t="n">
-        <v>5.157661914825439</v>
+        <v>5.157662868499756</v>
       </c>
       <c r="G414" t="n">
         <v>2562500</v>
@@ -9992,7 +9992,7 @@
         <v>5.960000038146973</v>
       </c>
       <c r="F415" t="n">
-        <v>5.080936431884766</v>
+        <v>5.080936908721924</v>
       </c>
       <c r="G415" t="n">
         <v>2656400</v>
@@ -10015,7 +10015,7 @@
         <v>5.96999979019165</v>
       </c>
       <c r="F416" t="n">
-        <v>5.089461326599121</v>
+        <v>5.089460372924805</v>
       </c>
       <c r="G416" t="n">
         <v>1638500</v>
@@ -10061,7 +10061,7 @@
         <v>6.050000190734863</v>
       </c>
       <c r="F418" t="n">
-        <v>5.157661914825439</v>
+        <v>5.157662868499756</v>
       </c>
       <c r="G418" t="n">
         <v>4150300</v>
@@ -10084,7 +10084,7 @@
         <v>6.019999980926514</v>
       </c>
       <c r="F419" t="n">
-        <v>5.132087230682373</v>
+        <v>5.132087707519531</v>
       </c>
       <c r="G419" t="n">
         <v>1149600</v>
@@ -10153,7 +10153,7 @@
         <v>6.099999904632568</v>
       </c>
       <c r="F422" t="n">
-        <v>5.200287342071533</v>
+        <v>5.200287818908691</v>
       </c>
       <c r="G422" t="n">
         <v>3462500</v>
@@ -10176,7 +10176,7 @@
         <v>6.230000019073486</v>
       </c>
       <c r="F423" t="n">
-        <v>5.311112403869629</v>
+        <v>5.311113357543945</v>
       </c>
       <c r="G423" t="n">
         <v>1443400</v>
@@ -10199,7 +10199,7 @@
         <v>6.210000038146973</v>
       </c>
       <c r="F424" t="n">
-        <v>5.294063091278076</v>
+        <v>5.294063568115234</v>
       </c>
       <c r="G424" t="n">
         <v>1195900</v>
@@ -10222,7 +10222,7 @@
         <v>6.559999942779541</v>
       </c>
       <c r="F425" t="n">
-        <v>5.592440605163574</v>
+        <v>5.592441082000732</v>
       </c>
       <c r="G425" t="n">
         <v>2678000</v>
@@ -10268,7 +10268,7 @@
         <v>6.159999847412109</v>
       </c>
       <c r="F427" t="n">
-        <v>5.251436710357666</v>
+        <v>5.251437187194824</v>
       </c>
       <c r="G427" t="n">
         <v>1052400</v>
@@ -10337,7 +10337,7 @@
         <v>6.389999866485596</v>
       </c>
       <c r="F430" t="n">
-        <v>5.447514533996582</v>
+        <v>5.447514057159424</v>
       </c>
       <c r="G430" t="n">
         <v>2234700</v>
@@ -10360,7 +10360,7 @@
         <v>6.230000019073486</v>
       </c>
       <c r="F431" t="n">
-        <v>5.311112403869629</v>
+        <v>5.311113357543945</v>
       </c>
       <c r="G431" t="n">
         <v>3561200</v>
@@ -10383,7 +10383,7 @@
         <v>6.25</v>
       </c>
       <c r="F432" t="n">
-        <v>5.32816219329834</v>
+        <v>5.328162670135498</v>
       </c>
       <c r="G432" t="n">
         <v>1086000</v>
@@ -10406,7 +10406,7 @@
         <v>6.329999923706055</v>
       </c>
       <c r="F433" t="n">
-        <v>5.396363735198975</v>
+        <v>5.396364212036133</v>
       </c>
       <c r="G433" t="n">
         <v>1078600</v>
@@ -10429,7 +10429,7 @@
         <v>6.190000057220459</v>
       </c>
       <c r="F434" t="n">
-        <v>5.277013778686523</v>
+        <v>5.277013301849365</v>
       </c>
       <c r="G434" t="n">
         <v>1509900</v>
@@ -10452,7 +10452,7 @@
         <v>6.260000228881836</v>
       </c>
       <c r="F435" t="n">
-        <v>5.336688041687012</v>
+        <v>5.336688995361328</v>
       </c>
       <c r="G435" t="n">
         <v>455300</v>
@@ -10498,7 +10498,7 @@
         <v>6.579999923706055</v>
       </c>
       <c r="F437" t="n">
-        <v>5.609489440917969</v>
+        <v>5.609490871429443</v>
       </c>
       <c r="G437" t="n">
         <v>988800</v>
@@ -10521,7 +10521,7 @@
         <v>6.590000152587891</v>
       </c>
       <c r="F438" t="n">
-        <v>5.618015766143799</v>
+        <v>5.618014812469482</v>
       </c>
       <c r="G438" t="n">
         <v>515800</v>
@@ -10544,7 +10544,7 @@
         <v>6.739999771118164</v>
       </c>
       <c r="F439" t="n">
-        <v>5.745890617370605</v>
+        <v>5.74589204788208</v>
       </c>
       <c r="G439" t="n">
         <v>1008500</v>
@@ -10567,7 +10567,7 @@
         <v>7.099999904632568</v>
       </c>
       <c r="F440" t="n">
-        <v>6.052793979644775</v>
+        <v>6.052793502807617</v>
       </c>
       <c r="G440" t="n">
         <v>1735900</v>
@@ -10590,7 +10590,7 @@
         <v>7.010000228881836</v>
       </c>
       <c r="F441" t="n">
-        <v>5.976068019866943</v>
+        <v>5.97606897354126</v>
       </c>
       <c r="G441" t="n">
         <v>1233400</v>
@@ -10613,7 +10613,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F442" t="n">
-        <v>6.291494846343994</v>
+        <v>6.291495800018311</v>
       </c>
       <c r="G442" t="n">
         <v>1032000</v>
@@ -10636,7 +10636,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="F443" t="n">
-        <v>6.155094623565674</v>
+        <v>6.155094146728516</v>
       </c>
       <c r="G443" t="n">
         <v>1286600</v>
@@ -10659,7 +10659,7 @@
         <v>7.630000114440918</v>
       </c>
       <c r="F444" t="n">
-        <v>6.504621028900146</v>
+        <v>6.504621505737305</v>
       </c>
       <c r="G444" t="n">
         <v>2379600</v>
@@ -10682,7 +10682,7 @@
         <v>7.650000095367432</v>
       </c>
       <c r="F445" t="n">
-        <v>6.52167272567749</v>
+        <v>6.521672248840332</v>
       </c>
       <c r="G445" t="n">
         <v>2646900</v>
@@ -10705,7 +10705,7 @@
         <v>7.590000152587891</v>
       </c>
       <c r="F446" t="n">
-        <v>6.470521926879883</v>
+        <v>6.470522403717041</v>
       </c>
       <c r="G446" t="n">
         <v>2266300</v>
@@ -10728,7 +10728,7 @@
         <v>7.699999809265137</v>
       </c>
       <c r="F447" t="n">
-        <v>6.564297676086426</v>
+        <v>6.564296722412109</v>
       </c>
       <c r="G447" t="n">
         <v>1516900</v>
@@ -10751,7 +10751,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F448" t="n">
-        <v>6.623972415924072</v>
+        <v>6.623973369598389</v>
       </c>
       <c r="G448" t="n">
         <v>2190300</v>
@@ -10774,7 +10774,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F449" t="n">
-        <v>6.760374069213867</v>
+        <v>6.760374546051025</v>
       </c>
       <c r="G449" t="n">
         <v>1128800</v>
@@ -10797,7 +10797,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F450" t="n">
-        <v>6.785949230194092</v>
+        <v>6.785948276519775</v>
       </c>
       <c r="G450" t="n">
         <v>1019700</v>
@@ -10820,7 +10820,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F451" t="n">
-        <v>6.598397731781006</v>
+        <v>6.598397254943848</v>
       </c>
       <c r="G451" t="n">
         <v>1261400</v>
@@ -10843,7 +10843,7 @@
         <v>7.920000076293945</v>
       </c>
       <c r="F452" t="n">
-        <v>6.751848220825195</v>
+        <v>6.751849174499512</v>
       </c>
       <c r="G452" t="n">
         <v>1233700</v>
@@ -10866,7 +10866,7 @@
         <v>8</v>
       </c>
       <c r="F453" t="n">
-        <v>6.820048332214355</v>
+        <v>6.820049285888672</v>
       </c>
       <c r="G453" t="n">
         <v>1707200</v>
@@ -10912,7 +10912,7 @@
         <v>7.869999885559082</v>
       </c>
       <c r="F455" t="n">
-        <v>6.709222793579102</v>
+        <v>6.709223747253418</v>
       </c>
       <c r="G455" t="n">
         <v>1181800</v>
@@ -10935,7 +10935,7 @@
         <v>7.789999961853027</v>
       </c>
       <c r="F456" t="n">
-        <v>6.641022205352783</v>
+        <v>6.6410231590271</v>
       </c>
       <c r="G456" t="n">
         <v>1311200</v>
@@ -10958,7 +10958,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F457" t="n">
-        <v>6.77742338180542</v>
+        <v>6.777424335479736</v>
       </c>
       <c r="G457" t="n">
         <v>916600</v>
@@ -11027,7 +11027,7 @@
         <v>8.350000381469727</v>
       </c>
       <c r="F460" t="n">
-        <v>7.118427753448486</v>
+        <v>7.118425846099854</v>
       </c>
       <c r="G460" t="n">
         <v>7289400</v>
@@ -11050,7 +11050,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F461" t="n">
-        <v>7.058751106262207</v>
+        <v>7.058750152587891</v>
       </c>
       <c r="G461" t="n">
         <v>2299100</v>
@@ -11073,7 +11073,7 @@
         <v>8.390000343322754</v>
       </c>
       <c r="F462" t="n">
-        <v>7.152527332305908</v>
+        <v>7.152526378631592</v>
       </c>
       <c r="G462" t="n">
         <v>1909100</v>
@@ -11096,7 +11096,7 @@
         <v>8.289999961853027</v>
       </c>
       <c r="F463" t="n">
-        <v>7.067276954650879</v>
+        <v>7.067275047302246</v>
       </c>
       <c r="G463" t="n">
         <v>1440400</v>
@@ -11119,7 +11119,7 @@
         <v>8.470000267028809</v>
       </c>
       <c r="F464" t="n">
-        <v>7.22072696685791</v>
+        <v>7.220727920532227</v>
       </c>
       <c r="G464" t="n">
         <v>1221500</v>
@@ -11142,7 +11142,7 @@
         <v>8.449999809265137</v>
       </c>
       <c r="F465" t="n">
-        <v>7.203677654266357</v>
+        <v>7.203675746917725</v>
       </c>
       <c r="G465" t="n">
         <v>1172100</v>
@@ -11165,7 +11165,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F466" t="n">
-        <v>7.280404090881348</v>
+        <v>7.280401706695557</v>
       </c>
       <c r="G466" t="n">
         <v>916700</v>
@@ -11188,7 +11188,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F467" t="n">
-        <v>7.408279418945312</v>
+        <v>7.408277988433838</v>
       </c>
       <c r="G467" t="n">
         <v>898500</v>
@@ -11234,7 +11234,7 @@
         <v>9.569999694824219</v>
       </c>
       <c r="F469" t="n">
-        <v>8.158481597900391</v>
+        <v>8.158482551574707</v>
       </c>
       <c r="G469" t="n">
         <v>2385100</v>
@@ -11257,7 +11257,7 @@
         <v>9.479999542236328</v>
       </c>
       <c r="F470" t="n">
-        <v>8.081757545471191</v>
+        <v>8.081758499145508</v>
       </c>
       <c r="G470" t="n">
         <v>1371400</v>
@@ -11280,7 +11280,7 @@
         <v>9.239999771118164</v>
       </c>
       <c r="F471" t="n">
-        <v>7.877157211303711</v>
+        <v>7.877156734466553</v>
       </c>
       <c r="G471" t="n">
         <v>515900</v>
@@ -11303,7 +11303,7 @@
         <v>8.880000114440918</v>
       </c>
       <c r="F472" t="n">
-        <v>7.570254325866699</v>
+        <v>7.570254802703857</v>
       </c>
       <c r="G472" t="n">
         <v>1137800</v>
@@ -11326,7 +11326,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F473" t="n">
-        <v>7.442378997802734</v>
+        <v>7.442378044128418</v>
       </c>
       <c r="G473" t="n">
         <v>716000</v>
@@ -11349,7 +11349,7 @@
         <v>9.060000419616699</v>
       </c>
       <c r="F474" t="n">
-        <v>7.723705768585205</v>
+        <v>7.723706245422363</v>
       </c>
       <c r="G474" t="n">
         <v>783900</v>
@@ -11372,7 +11372,7 @@
         <v>9.229999542236328</v>
       </c>
       <c r="F475" t="n">
-        <v>7.868632793426514</v>
+        <v>7.868630886077881</v>
       </c>
       <c r="G475" t="n">
         <v>729700</v>
@@ -11395,7 +11395,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F476" t="n">
-        <v>7.629929542541504</v>
+        <v>7.629929065704346</v>
       </c>
       <c r="G476" t="n">
         <v>1230600</v>
@@ -11418,7 +11418,7 @@
         <v>9.119999885559082</v>
       </c>
       <c r="F477" t="n">
-        <v>7.774856090545654</v>
+        <v>7.774855136871338</v>
       </c>
       <c r="G477" t="n">
         <v>1084100</v>
@@ -11441,7 +11441,7 @@
         <v>9.260000228881836</v>
       </c>
       <c r="F478" t="n">
-        <v>7.894205570220947</v>
+        <v>7.894206523895264</v>
       </c>
       <c r="G478" t="n">
         <v>1000400</v>
@@ -11464,7 +11464,7 @@
         <v>9.180000305175781</v>
       </c>
       <c r="F479" t="n">
-        <v>7.826005935668945</v>
+        <v>7.826006889343262</v>
       </c>
       <c r="G479" t="n">
         <v>1021600</v>
@@ -11487,7 +11487,7 @@
         <v>8.430000305175781</v>
       </c>
       <c r="F480" t="n">
-        <v>7.812107086181641</v>
+        <v>7.812106609344482</v>
       </c>
       <c r="G480" t="n">
         <v>1740400</v>
@@ -11510,7 +11510,7 @@
         <v>8.479999542236328</v>
       </c>
       <c r="F481" t="n">
-        <v>7.858440399169922</v>
+        <v>7.858439922332764</v>
       </c>
       <c r="G481" t="n">
         <v>1373400</v>
@@ -11533,7 +11533,7 @@
         <v>8.039999961853027</v>
       </c>
       <c r="F482" t="n">
-        <v>7.450691223144531</v>
+        <v>7.450691699981689</v>
       </c>
       <c r="G482" t="n">
         <v>2016100</v>
@@ -11556,7 +11556,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F483" t="n">
-        <v>7.673099994659424</v>
+        <v>7.673099517822266</v>
       </c>
       <c r="G483" t="n">
         <v>1099300</v>
@@ -11579,7 +11579,7 @@
         <v>8.25</v>
       </c>
       <c r="F484" t="n">
-        <v>7.64530086517334</v>
+        <v>7.645299434661865</v>
       </c>
       <c r="G484" t="n">
         <v>819100</v>
@@ -11602,7 +11602,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F485" t="n">
-        <v>7.459959983825684</v>
+        <v>7.459959030151367</v>
       </c>
       <c r="G485" t="n">
         <v>969000</v>
@@ -11625,7 +11625,7 @@
         <v>7.829999923706055</v>
       </c>
       <c r="F486" t="n">
-        <v>7.256083011627197</v>
+        <v>7.256083488464355</v>
       </c>
       <c r="G486" t="n">
         <v>2931500</v>
@@ -11648,7 +11648,7 @@
         <v>7.760000228881836</v>
       </c>
       <c r="F487" t="n">
-        <v>7.191214561462402</v>
+        <v>7.191215515136719</v>
       </c>
       <c r="G487" t="n">
         <v>2004500</v>
@@ -11671,7 +11671,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F488" t="n">
-        <v>7.200481414794922</v>
+        <v>7.20048189163208</v>
       </c>
       <c r="G488" t="n">
         <v>594000</v>
@@ -11694,7 +11694,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="F489" t="n">
-        <v>7.209749221801758</v>
+        <v>7.209748268127441</v>
       </c>
       <c r="G489" t="n">
         <v>745100</v>
@@ -11717,7 +11717,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="F490" t="n">
-        <v>7.209749221801758</v>
+        <v>7.209748268127441</v>
       </c>
       <c r="G490" t="n">
         <v>880100</v>
@@ -11740,7 +11740,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F491" t="n">
-        <v>7.200481414794922</v>
+        <v>7.20048189163208</v>
       </c>
       <c r="G491" t="n">
         <v>1089000</v>
@@ -11763,7 +11763,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F492" t="n">
-        <v>7.348755359649658</v>
+        <v>7.3487548828125</v>
       </c>
       <c r="G492" t="n">
         <v>1407800</v>
@@ -11786,7 +11786,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F493" t="n">
-        <v>7.015141010284424</v>
+        <v>7.015141487121582</v>
       </c>
       <c r="G493" t="n">
         <v>2070000</v>
@@ -11832,7 +11832,7 @@
         <v>7.559999942779541</v>
       </c>
       <c r="F495" t="n">
-        <v>7.005874156951904</v>
+        <v>7.005873680114746</v>
       </c>
       <c r="G495" t="n">
         <v>1932700</v>
@@ -11855,7 +11855,7 @@
         <v>7.440000057220459</v>
       </c>
       <c r="F496" t="n">
-        <v>6.894669532775879</v>
+        <v>6.894670009613037</v>
       </c>
       <c r="G496" t="n">
         <v>1657400</v>
@@ -11878,7 +11878,7 @@
         <v>6.809999942779541</v>
       </c>
       <c r="F497" t="n">
-        <v>6.310847759246826</v>
+        <v>6.310845851898193</v>
       </c>
       <c r="G497" t="n">
         <v>3111600</v>
@@ -11901,7 +11901,7 @@
         <v>6.550000190734863</v>
       </c>
       <c r="F498" t="n">
-        <v>6.069904327392578</v>
+        <v>6.069903373718262</v>
       </c>
       <c r="G498" t="n">
         <v>2938300</v>
@@ -11924,7 +11924,7 @@
         <v>6.300000190734863</v>
       </c>
       <c r="F499" t="n">
-        <v>5.83822774887085</v>
+        <v>5.838228225708008</v>
       </c>
       <c r="G499" t="n">
         <v>2706700</v>
@@ -11947,7 +11947,7 @@
         <v>6.300000190734863</v>
       </c>
       <c r="F500" t="n">
-        <v>5.83822774887085</v>
+        <v>5.838228225708008</v>
       </c>
       <c r="G500" t="n">
         <v>1754500</v>
@@ -11970,7 +11970,7 @@
         <v>6.400000095367432</v>
       </c>
       <c r="F501" t="n">
-        <v>5.930898666381836</v>
+        <v>5.930899620056152</v>
       </c>
       <c r="G501" t="n">
         <v>1499700</v>
@@ -11993,7 +11993,7 @@
         <v>6.400000095367432</v>
       </c>
       <c r="F502" t="n">
-        <v>5.930898666381836</v>
+        <v>5.930899620056152</v>
       </c>
       <c r="G502" t="n">
         <v>1733500</v>
@@ -12016,7 +12016,7 @@
         <v>6.489999771118164</v>
       </c>
       <c r="F503" t="n">
-        <v>6.014302730560303</v>
+        <v>6.014301776885986</v>
       </c>
       <c r="G503" t="n">
         <v>2066700</v>
@@ -12062,7 +12062,7 @@
         <v>6.429999828338623</v>
       </c>
       <c r="F505" t="n">
-        <v>5.958699226379395</v>
+        <v>5.958699703216553</v>
       </c>
       <c r="G505" t="n">
         <v>1343600</v>
@@ -12085,7 +12085,7 @@
         <v>6.519999980926514</v>
       </c>
       <c r="F506" t="n">
-        <v>6.042103290557861</v>
+        <v>6.042102813720703</v>
       </c>
       <c r="G506" t="n">
         <v>1280500</v>
@@ -12108,7 +12108,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F507" t="n">
-        <v>6.116240501403809</v>
+        <v>6.116239547729492</v>
       </c>
       <c r="G507" t="n">
         <v>1230300</v>
@@ -12154,7 +12154,7 @@
         <v>6.449999809265137</v>
       </c>
       <c r="F509" t="n">
-        <v>5.97723388671875</v>
+        <v>5.977234840393066</v>
       </c>
       <c r="G509" t="n">
         <v>1132700</v>
@@ -12177,7 +12177,7 @@
         <v>6.460000038146973</v>
       </c>
       <c r="F510" t="n">
-        <v>5.986501216888428</v>
+        <v>5.98650074005127</v>
       </c>
       <c r="G510" t="n">
         <v>1300500</v>
@@ -12223,7 +12223,7 @@
         <v>6.360000133514404</v>
       </c>
       <c r="F512" t="n">
-        <v>5.8938307762146</v>
+        <v>5.893830299377441</v>
       </c>
       <c r="G512" t="n">
         <v>1486900</v>
@@ -12246,7 +12246,7 @@
         <v>6.199999809265137</v>
       </c>
       <c r="F513" t="n">
-        <v>5.745557308197021</v>
+        <v>5.745558738708496</v>
       </c>
       <c r="G513" t="n">
         <v>1116700</v>
@@ -12292,7 +12292,7 @@
         <v>6.369999885559082</v>
       </c>
       <c r="F515" t="n">
-        <v>5.903097629547119</v>
+        <v>5.903098106384277</v>
       </c>
       <c r="G515" t="n">
         <v>758000</v>
@@ -12338,7 +12338,7 @@
         <v>6.550000190734863</v>
       </c>
       <c r="F517" t="n">
-        <v>6.069904327392578</v>
+        <v>6.069903373718262</v>
       </c>
       <c r="G517" t="n">
         <v>818600</v>
@@ -12361,7 +12361,7 @@
         <v>6.590000152587891</v>
       </c>
       <c r="F518" t="n">
-        <v>6.106972217559814</v>
+        <v>6.106973171234131</v>
       </c>
       <c r="G518" t="n">
         <v>658400</v>
@@ -12384,7 +12384,7 @@
         <v>6.610000133514404</v>
       </c>
       <c r="F519" t="n">
-        <v>6.125505924224854</v>
+        <v>6.125506401062012</v>
       </c>
       <c r="G519" t="n">
         <v>1001400</v>
@@ -12407,7 +12407,7 @@
         <v>6.829999923706055</v>
       </c>
       <c r="F520" t="n">
-        <v>6.329381465911865</v>
+        <v>6.329380512237549</v>
       </c>
       <c r="G520" t="n">
         <v>1517200</v>
@@ -12430,7 +12430,7 @@
         <v>7.010000228881836</v>
       </c>
       <c r="F521" t="n">
-        <v>6.496187686920166</v>
+        <v>6.496188163757324</v>
       </c>
       <c r="G521" t="n">
         <v>2044000</v>
@@ -12476,7 +12476,7 @@
         <v>7.039999961853027</v>
       </c>
       <c r="F523" t="n">
-        <v>6.523989200592041</v>
+        <v>6.523989677429199</v>
       </c>
       <c r="G523" t="n">
         <v>1302000</v>
@@ -12499,7 +12499,7 @@
         <v>7.019999980926514</v>
       </c>
       <c r="F524" t="n">
-        <v>6.505454063415527</v>
+        <v>6.505455017089844</v>
       </c>
       <c r="G524" t="n">
         <v>638400</v>
@@ -12522,7 +12522,7 @@
         <v>7.21999979019165</v>
       </c>
       <c r="F525" t="n">
-        <v>6.690793991088867</v>
+        <v>6.690795421600342</v>
       </c>
       <c r="G525" t="n">
         <v>1315900</v>
@@ -12545,7 +12545,7 @@
         <v>7.150000095367432</v>
       </c>
       <c r="F526" t="n">
-        <v>6.625925540924072</v>
+        <v>6.625926494598389</v>
       </c>
       <c r="G526" t="n">
         <v>916600</v>
@@ -12568,7 +12568,7 @@
         <v>6.980000019073486</v>
       </c>
       <c r="F527" t="n">
-        <v>6.468385696411133</v>
+        <v>6.468386650085449</v>
       </c>
       <c r="G527" t="n">
         <v>912000</v>
@@ -12614,7 +12614,7 @@
         <v>6.900000095367432</v>
       </c>
       <c r="F529" t="n">
-        <v>6.39424991607666</v>
+        <v>6.394250869750977</v>
       </c>
       <c r="G529" t="n">
         <v>1590600</v>
@@ -12637,7 +12637,7 @@
         <v>6.289999961853027</v>
       </c>
       <c r="F530" t="n">
-        <v>5.828961849212646</v>
+        <v>5.828961372375488</v>
       </c>
       <c r="G530" t="n">
         <v>1617400</v>
@@ -12660,7 +12660,7 @@
         <v>6.440000057220459</v>
       </c>
       <c r="F531" t="n">
-        <v>5.96796703338623</v>
+        <v>5.967967510223389</v>
       </c>
       <c r="G531" t="n">
         <v>1983200</v>
@@ -12706,7 +12706,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F533" t="n">
-        <v>6.116240501403809</v>
+        <v>6.116239547729492</v>
       </c>
       <c r="G533" t="n">
         <v>2037400</v>
@@ -12729,7 +12729,7 @@
         <v>6.320000171661377</v>
       </c>
       <c r="F534" t="n">
-        <v>5.856761932373047</v>
+        <v>5.856762886047363</v>
       </c>
       <c r="G534" t="n">
         <v>1739500</v>
@@ -12752,7 +12752,7 @@
         <v>6.769999980926514</v>
       </c>
       <c r="F535" t="n">
-        <v>6.273778438568115</v>
+        <v>6.273778915405273</v>
       </c>
       <c r="G535" t="n">
         <v>1568300</v>
@@ -12775,7 +12775,7 @@
         <v>6.269999980926514</v>
       </c>
       <c r="F536" t="n">
-        <v>5.810427188873291</v>
+        <v>5.810428142547607</v>
       </c>
       <c r="G536" t="n">
         <v>2823700</v>
@@ -12821,7 +12821,7 @@
         <v>5.269999980926514</v>
       </c>
       <c r="F538" t="n">
-        <v>4.883724689483643</v>
+        <v>4.883724212646484</v>
       </c>
       <c r="G538" t="n">
         <v>1780900</v>
@@ -12844,7 +12844,7 @@
         <v>5.239999771118164</v>
       </c>
       <c r="F539" t="n">
-        <v>4.855923652648926</v>
+        <v>4.855923175811768</v>
       </c>
       <c r="G539" t="n">
         <v>1862700</v>
@@ -12867,7 +12867,7 @@
         <v>4.75</v>
       </c>
       <c r="F540" t="n">
-        <v>4.401838779449463</v>
+        <v>4.401839256286621</v>
       </c>
       <c r="G540" t="n">
         <v>3405800</v>
@@ -12913,7 +12913,7 @@
         <v>4.699999809265137</v>
       </c>
       <c r="F542" t="n">
-        <v>4.355504035949707</v>
+        <v>4.355503082275391</v>
       </c>
       <c r="G542" t="n">
         <v>2642800</v>
@@ -12936,7 +12936,7 @@
         <v>4.03000020980835</v>
       </c>
       <c r="F543" t="n">
-        <v>3.734613180160522</v>
+        <v>3.734612941741943</v>
       </c>
       <c r="G543" t="n">
         <v>4079800</v>
@@ -12959,7 +12959,7 @@
         <v>4.300000190734863</v>
       </c>
       <c r="F544" t="n">
-        <v>3.984822034835815</v>
+        <v>3.98482346534729</v>
       </c>
       <c r="G544" t="n">
         <v>3385900</v>
@@ -13005,7 +13005,7 @@
         <v>3.970000028610229</v>
       </c>
       <c r="F546" t="n">
-        <v>3.709202289581299</v>
+        <v>3.709201812744141</v>
       </c>
       <c r="G546" t="n">
         <v>3567800</v>
@@ -13028,7 +13028,7 @@
         <v>3.869999885559082</v>
       </c>
       <c r="F547" t="n">
-        <v>3.615771532058716</v>
+        <v>3.615771055221558</v>
       </c>
       <c r="G547" t="n">
         <v>5599900</v>
@@ -13051,7 +13051,7 @@
         <v>3.720000028610229</v>
       </c>
       <c r="F548" t="n">
-        <v>3.475624561309814</v>
+        <v>3.475625276565552</v>
       </c>
       <c r="G548" t="n">
         <v>3053400</v>
@@ -13074,7 +13074,7 @@
         <v>4.320000171661377</v>
       </c>
       <c r="F549" t="n">
-        <v>4.036209583282471</v>
+        <v>4.036210536956787</v>
       </c>
       <c r="G549" t="n">
         <v>2830900</v>
@@ -13097,7 +13097,7 @@
         <v>4.420000076293945</v>
       </c>
       <c r="F550" t="n">
-        <v>4.129640579223633</v>
+        <v>4.129641056060791</v>
       </c>
       <c r="G550" t="n">
         <v>3199700</v>
@@ -13120,7 +13120,7 @@
         <v>4.659999847412109</v>
       </c>
       <c r="F551" t="n">
-        <v>4.353873729705811</v>
+        <v>4.353874206542969</v>
       </c>
       <c r="G551" t="n">
         <v>3832400</v>
@@ -13189,7 +13189,7 @@
         <v>4.320000171661377</v>
       </c>
       <c r="F554" t="n">
-        <v>4.036209583282471</v>
+        <v>4.036210536956787</v>
       </c>
       <c r="G554" t="n">
         <v>1824600</v>
@@ -13212,7 +13212,7 @@
         <v>4.090000152587891</v>
       </c>
       <c r="F555" t="n">
-        <v>3.821319341659546</v>
+        <v>3.821318864822388</v>
       </c>
       <c r="G555" t="n">
         <v>1964800</v>
@@ -13235,7 +13235,7 @@
         <v>4.110000133514404</v>
       </c>
       <c r="F556" t="n">
-        <v>3.840005397796631</v>
+        <v>3.840005159378052</v>
       </c>
       <c r="G556" t="n">
         <v>3623200</v>
@@ -13281,7 +13281,7 @@
         <v>4.380000114440918</v>
       </c>
       <c r="F558" t="n">
-        <v>4.092269420623779</v>
+        <v>4.092267990112305</v>
       </c>
       <c r="G558" t="n">
         <v>2615700</v>
@@ -13304,7 +13304,7 @@
         <v>4.199999809265137</v>
       </c>
       <c r="F559" t="n">
-        <v>3.924092531204224</v>
+        <v>3.924092054367065</v>
       </c>
       <c r="G559" t="n">
         <v>3181400</v>
@@ -13373,7 +13373,7 @@
         <v>5.150000095367432</v>
       </c>
       <c r="F562" t="n">
-        <v>4.811684608459473</v>
+        <v>4.811685562133789</v>
       </c>
       <c r="G562" t="n">
         <v>3071700</v>
@@ -13396,7 +13396,7 @@
         <v>5.710000038146973</v>
       </c>
       <c r="F563" t="n">
-        <v>5.334897994995117</v>
+        <v>5.334897518157959</v>
       </c>
       <c r="G563" t="n">
         <v>4205000</v>
@@ -13419,7 +13419,7 @@
         <v>5.320000171661377</v>
       </c>
       <c r="F564" t="n">
-        <v>4.970519065856934</v>
+        <v>4.970518112182617</v>
       </c>
       <c r="G564" t="n">
         <v>3176000</v>
@@ -13442,7 +13442,7 @@
         <v>5.28000020980835</v>
       </c>
       <c r="F565" t="n">
-        <v>4.933145523071289</v>
+        <v>4.933145046234131</v>
       </c>
       <c r="G565" t="n">
         <v>2419700</v>
@@ -13465,7 +13465,7 @@
         <v>5.369999885559082</v>
       </c>
       <c r="F566" t="n">
-        <v>5.017231941223145</v>
+        <v>5.017232894897461</v>
       </c>
       <c r="G566" t="n">
         <v>1539200</v>
@@ -13488,7 +13488,7 @@
         <v>5.25</v>
       </c>
       <c r="F567" t="n">
-        <v>4.905115604400635</v>
+        <v>4.905116558074951</v>
       </c>
       <c r="G567" t="n">
         <v>1414600</v>
@@ -13511,7 +13511,7 @@
         <v>5.050000190734863</v>
       </c>
       <c r="F568" t="n">
-        <v>4.718255043029785</v>
+        <v>4.718254566192627</v>
       </c>
       <c r="G568" t="n">
         <v>1325600</v>
@@ -13534,7 +13534,7 @@
         <v>5.099999904632568</v>
       </c>
       <c r="F569" t="n">
-        <v>4.764968872070312</v>
+        <v>4.764969825744629</v>
       </c>
       <c r="G569" t="n">
         <v>1061100</v>
@@ -13557,7 +13557,7 @@
         <v>5.239999771118164</v>
       </c>
       <c r="F570" t="n">
-        <v>4.895773410797119</v>
+        <v>4.895771980285645</v>
       </c>
       <c r="G570" t="n">
         <v>1478600</v>
@@ -13580,7 +13580,7 @@
         <v>5.289999961853027</v>
       </c>
       <c r="F571" t="n">
-        <v>4.942487716674805</v>
+        <v>4.942489147186279</v>
       </c>
       <c r="G571" t="n">
         <v>858000</v>
@@ -13603,7 +13603,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="F572" t="n">
-        <v>5.166721820831299</v>
+        <v>5.166722297668457</v>
       </c>
       <c r="G572" t="n">
         <v>1801700</v>
@@ -13626,7 +13626,7 @@
         <v>5.659999847412109</v>
       </c>
       <c r="F573" t="n">
-        <v>5.288181781768799</v>
+        <v>5.288182258605957</v>
       </c>
       <c r="G573" t="n">
         <v>3555400</v>
@@ -13649,7 +13649,7 @@
         <v>5.809999942779541</v>
       </c>
       <c r="F574" t="n">
-        <v>5.428328037261963</v>
+        <v>5.428328514099121</v>
       </c>
       <c r="G574" t="n">
         <v>2076300</v>
@@ -13672,7 +13672,7 @@
         <v>5.730000019073486</v>
       </c>
       <c r="F575" t="n">
-        <v>5.353583335876465</v>
+        <v>5.353583812713623</v>
       </c>
       <c r="G575" t="n">
         <v>1724300</v>
@@ -13695,7 +13695,7 @@
         <v>5.489999771118164</v>
       </c>
       <c r="F576" t="n">
-        <v>5.129349708557129</v>
+        <v>5.129350185394287</v>
       </c>
       <c r="G576" t="n">
         <v>1438300</v>
@@ -13718,7 +13718,7 @@
         <v>5.5</v>
       </c>
       <c r="F577" t="n">
-        <v>5.138692378997803</v>
+        <v>5.138691902160645</v>
       </c>
       <c r="G577" t="n">
         <v>976000</v>
@@ -13741,7 +13741,7 @@
         <v>5.579999923706055</v>
       </c>
       <c r="F578" t="n">
-        <v>5.213437557220459</v>
+        <v>5.213437080383301</v>
       </c>
       <c r="G578" t="n">
         <v>1391100</v>
@@ -13764,7 +13764,7 @@
         <v>5.53000020980835</v>
       </c>
       <c r="F579" t="n">
-        <v>5.166721820831299</v>
+        <v>5.166722297668457</v>
       </c>
       <c r="G579" t="n">
         <v>906700</v>
@@ -13787,7 +13787,7 @@
         <v>5.630000114440918</v>
       </c>
       <c r="F580" t="n">
-        <v>5.260152339935303</v>
+        <v>5.260153293609619</v>
       </c>
       <c r="G580" t="n">
         <v>1634800</v>
@@ -13810,7 +13810,7 @@
         <v>5.650000095367432</v>
       </c>
       <c r="F581" t="n">
-        <v>5.278839111328125</v>
+        <v>5.278838634490967</v>
       </c>
       <c r="G581" t="n">
         <v>1835700</v>
@@ -13833,7 +13833,7 @@
         <v>6.050000190734863</v>
       </c>
       <c r="F582" t="n">
-        <v>5.652562618255615</v>
+        <v>5.652563095092773</v>
       </c>
       <c r="G582" t="n">
         <v>2225000</v>
@@ -13856,7 +13856,7 @@
         <v>5.800000190734863</v>
       </c>
       <c r="F583" t="n">
-        <v>5.418985843658447</v>
+        <v>5.418985366821289</v>
       </c>
       <c r="G583" t="n">
         <v>1708600</v>
@@ -13879,7 +13879,7 @@
         <v>5.650000095367432</v>
       </c>
       <c r="F584" t="n">
-        <v>5.278839111328125</v>
+        <v>5.278838634490967</v>
       </c>
       <c r="G584" t="n">
         <v>1705300</v>
@@ -13902,7 +13902,7 @@
         <v>5.849999904632568</v>
       </c>
       <c r="F585" t="n">
-        <v>5.465700626373291</v>
+        <v>5.465700149536133</v>
       </c>
       <c r="G585" t="n">
         <v>1389200</v>
@@ -13971,7 +13971,7 @@
         <v>6.409999847412109</v>
       </c>
       <c r="F588" t="n">
-        <v>5.988913536071777</v>
+        <v>5.988912105560303</v>
       </c>
       <c r="G588" t="n">
         <v>1537800</v>
@@ -13994,7 +13994,7 @@
         <v>6.199999809265137</v>
       </c>
       <c r="F589" t="n">
-        <v>5.792706966400146</v>
+        <v>5.792708873748779</v>
       </c>
       <c r="G589" t="n">
         <v>1833400</v>
@@ -14017,7 +14017,7 @@
         <v>6.420000076293945</v>
       </c>
       <c r="F590" t="n">
-        <v>5.998256206512451</v>
+        <v>5.998256683349609</v>
       </c>
       <c r="G590" t="n">
         <v>1568400</v>
@@ -14040,7 +14040,7 @@
         <v>6.519999980926514</v>
       </c>
       <c r="F591" t="n">
-        <v>6.091686248779297</v>
+        <v>6.091686725616455</v>
       </c>
       <c r="G591" t="n">
         <v>1790600</v>
@@ -14086,7 +14086,7 @@
         <v>6.860000133514404</v>
       </c>
       <c r="F593" t="n">
-        <v>6.409350872039795</v>
+        <v>6.409351348876953</v>
       </c>
       <c r="G593" t="n">
         <v>2008800</v>
@@ -14109,7 +14109,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="F594" t="n">
-        <v>6.512124538421631</v>
+        <v>6.512124061584473</v>
       </c>
       <c r="G594" t="n">
         <v>1359600</v>
@@ -14132,7 +14132,7 @@
         <v>7.079999923706055</v>
       </c>
       <c r="F595" t="n">
-        <v>6.614899158477783</v>
+        <v>6.614899635314941</v>
       </c>
       <c r="G595" t="n">
         <v>1927500</v>
@@ -14155,7 +14155,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F596" t="n">
-        <v>7.42774772644043</v>
+        <v>7.427746295928955</v>
       </c>
       <c r="G596" t="n">
         <v>4003900</v>
@@ -14201,7 +14201,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F598" t="n">
-        <v>7.418404579162598</v>
+        <v>7.418403625488281</v>
       </c>
       <c r="G598" t="n">
         <v>2165200</v>
@@ -14247,7 +14247,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F600" t="n">
-        <v>7.820156574249268</v>
+        <v>7.820156097412109</v>
       </c>
       <c r="G600" t="n">
         <v>2777800</v>
@@ -14293,7 +14293,7 @@
         <v>8.489999771118164</v>
       </c>
       <c r="F602" t="n">
-        <v>7.932275772094727</v>
+        <v>7.932271957397461</v>
       </c>
       <c r="G602" t="n">
         <v>3049600</v>
@@ -14316,7 +14316,7 @@
         <v>8.359999656677246</v>
       </c>
       <c r="F603" t="n">
-        <v>7.810812950134277</v>
+        <v>7.810811042785645</v>
       </c>
       <c r="G603" t="n">
         <v>2300800</v>
@@ -14339,7 +14339,7 @@
         <v>7.909999847412109</v>
       </c>
       <c r="F604" t="n">
-        <v>7.390374183654785</v>
+        <v>7.390375137329102</v>
       </c>
       <c r="G604" t="n">
         <v>1812400</v>
@@ -14362,7 +14362,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F605" t="n">
-        <v>7.493149757385254</v>
+        <v>7.493149280548096</v>
       </c>
       <c r="G605" t="n">
         <v>1921800</v>
@@ -14385,7 +14385,7 @@
         <v>8.239999771118164</v>
       </c>
       <c r="F606" t="n">
-        <v>7.698696613311768</v>
+        <v>7.698695659637451</v>
       </c>
       <c r="G606" t="n">
         <v>2550100</v>
@@ -14408,7 +14408,7 @@
         <v>8.449999809265137</v>
       </c>
       <c r="F607" t="n">
-        <v>7.894900798797607</v>
+        <v>7.894901275634766</v>
       </c>
       <c r="G607" t="n">
         <v>2262200</v>
@@ -14431,7 +14431,7 @@
         <v>8.5</v>
       </c>
       <c r="F608" t="n">
-        <v>7.974647998809814</v>
+        <v>7.974646091461182</v>
       </c>
       <c r="G608" t="n">
         <v>1598400</v>
@@ -14454,7 +14454,7 @@
         <v>8.329999923706055</v>
       </c>
       <c r="F609" t="n">
-        <v>7.815154552459717</v>
+        <v>7.815154075622559</v>
       </c>
       <c r="G609" t="n">
         <v>1561500</v>
@@ -14477,7 +14477,7 @@
         <v>7.989999771118164</v>
       </c>
       <c r="F610" t="n">
-        <v>7.496168613433838</v>
+        <v>7.496167659759521</v>
       </c>
       <c r="G610" t="n">
         <v>3581600</v>
@@ -14500,7 +14500,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F611" t="n">
-        <v>7.514931678771973</v>
+        <v>7.514932632446289</v>
       </c>
       <c r="G611" t="n">
         <v>1786900</v>
@@ -14523,7 +14523,7 @@
         <v>8.189999580383301</v>
       </c>
       <c r="F612" t="n">
-        <v>7.6838059425354</v>
+        <v>7.683805465698242</v>
       </c>
       <c r="G612" t="n">
         <v>1834900</v>
@@ -14546,7 +14546,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="F613" t="n">
-        <v>7.299148082733154</v>
+        <v>7.299147605895996</v>
       </c>
       <c r="G613" t="n">
         <v>1945700</v>
@@ -14569,7 +14569,7 @@
         <v>7.760000228881836</v>
       </c>
       <c r="F614" t="n">
-        <v>7.280384063720703</v>
+        <v>7.280384540557861</v>
       </c>
       <c r="G614" t="n">
         <v>2308000</v>
@@ -14592,7 +14592,7 @@
         <v>7.619999885559082</v>
       </c>
       <c r="F615" t="n">
-        <v>7.149035930633545</v>
+        <v>7.149036407470703</v>
       </c>
       <c r="G615" t="n">
         <v>2177900</v>
@@ -14615,7 +14615,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F616" t="n">
-        <v>7.33667516708374</v>
+        <v>7.336675643920898</v>
       </c>
       <c r="G616" t="n">
         <v>1426700</v>
@@ -14638,7 +14638,7 @@
         <v>7.980000019073486</v>
       </c>
       <c r="F617" t="n">
-        <v>7.486784934997559</v>
+        <v>7.486785411834717</v>
       </c>
       <c r="G617" t="n">
         <v>2175400</v>
@@ -14661,7 +14661,7 @@
         <v>7.909999847412109</v>
       </c>
       <c r="F618" t="n">
-        <v>7.421112537384033</v>
+        <v>7.421113014221191</v>
       </c>
       <c r="G618" t="n">
         <v>1986400</v>
@@ -14684,7 +14684,7 @@
         <v>7.710000038146973</v>
       </c>
       <c r="F619" t="n">
-        <v>7.233473777770996</v>
+        <v>7.233474254608154</v>
       </c>
       <c r="G619" t="n">
         <v>2743300</v>
@@ -14707,7 +14707,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="F620" t="n">
-        <v>7.299148082733154</v>
+        <v>7.299147605895996</v>
       </c>
       <c r="G620" t="n">
         <v>2123400</v>
@@ -14753,7 +14753,7 @@
         <v>7.659999847412109</v>
       </c>
       <c r="F622" t="n">
-        <v>7.186564445495605</v>
+        <v>7.186563968658447</v>
       </c>
       <c r="G622" t="n">
         <v>1546800</v>
@@ -14776,7 +14776,7 @@
         <v>7.400000095367432</v>
       </c>
       <c r="F623" t="n">
-        <v>6.942634105682373</v>
+        <v>6.942633628845215</v>
       </c>
       <c r="G623" t="n">
         <v>1419100</v>
@@ -14822,7 +14822,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F625" t="n">
-        <v>7.139656066894531</v>
+        <v>7.139654636383057</v>
       </c>
       <c r="G625" t="n">
         <v>1018700</v>
@@ -14845,7 +14845,7 @@
         <v>7.800000190734863</v>
       </c>
       <c r="F626" t="n">
-        <v>7.31791353225708</v>
+        <v>7.317911148071289</v>
       </c>
       <c r="G626" t="n">
         <v>2282700</v>
@@ -14868,7 +14868,7 @@
         <v>8.329999923706055</v>
       </c>
       <c r="F627" t="n">
-        <v>7.815154552459717</v>
+        <v>7.815154075622559</v>
       </c>
       <c r="G627" t="n">
         <v>1725600</v>
@@ -14891,7 +14891,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F628" t="n">
-        <v>7.76824426651001</v>
+        <v>7.768244743347168</v>
       </c>
       <c r="G628" t="n">
         <v>1582200</v>
@@ -14914,7 +14914,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F629" t="n">
-        <v>7.674426555633545</v>
+        <v>7.67442512512207</v>
       </c>
       <c r="G629" t="n">
         <v>1307600</v>
@@ -14937,7 +14937,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F630" t="n">
-        <v>7.552460670471191</v>
+        <v>7.552460193634033</v>
       </c>
       <c r="G630" t="n">
         <v>910000</v>
@@ -14960,7 +14960,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F631" t="n">
-        <v>7.524314403533936</v>
+        <v>7.524315357208252</v>
       </c>
       <c r="G631" t="n">
         <v>1434300</v>
@@ -14983,7 +14983,7 @@
         <v>8.079999923706055</v>
       </c>
       <c r="F632" t="n">
-        <v>7.580605030059814</v>
+        <v>7.580605983734131</v>
       </c>
       <c r="G632" t="n">
         <v>884900</v>
@@ -15006,7 +15006,7 @@
         <v>7.989999771118164</v>
       </c>
       <c r="F633" t="n">
-        <v>7.496168613433838</v>
+        <v>7.496167659759521</v>
       </c>
       <c r="G633" t="n">
         <v>1299400</v>
@@ -15029,7 +15029,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F634" t="n">
-        <v>7.46802282333374</v>
+        <v>7.468021869659424</v>
       </c>
       <c r="G634" t="n">
         <v>1155200</v>
@@ -15052,7 +15052,7 @@
         <v>8</v>
       </c>
       <c r="F635" t="n">
-        <v>7.505550861358643</v>
+        <v>7.505550384521484</v>
       </c>
       <c r="G635" t="n">
         <v>966400</v>
@@ -15075,7 +15075,7 @@
         <v>7.909999847412109</v>
       </c>
       <c r="F636" t="n">
-        <v>7.421112537384033</v>
+        <v>7.421113014221191</v>
       </c>
       <c r="G636" t="n">
         <v>1256600</v>
@@ -15098,7 +15098,7 @@
         <v>8.439999580383301</v>
       </c>
       <c r="F637" t="n">
-        <v>7.918355464935303</v>
+        <v>7.918354988098145</v>
       </c>
       <c r="G637" t="n">
         <v>4003100</v>
@@ -15121,7 +15121,7 @@
         <v>8.649999618530273</v>
       </c>
       <c r="F638" t="n">
-        <v>8.115376472473145</v>
+        <v>8.115377426147461</v>
       </c>
       <c r="G638" t="n">
         <v>1504000</v>
@@ -15144,7 +15144,7 @@
         <v>8.609999656677246</v>
       </c>
       <c r="F639" t="n">
-        <v>8.077847480773926</v>
+        <v>8.077848434448242</v>
       </c>
       <c r="G639" t="n">
         <v>3787700</v>
@@ -15190,7 +15190,7 @@
         <v>12.77000045776367</v>
       </c>
       <c r="F641" t="n">
-        <v>11.98073387145996</v>
+        <v>11.98073577880859</v>
       </c>
       <c r="G641" t="n">
         <v>23151900</v>
@@ -15213,7 +15213,7 @@
         <v>12.77999973297119</v>
       </c>
       <c r="F642" t="n">
-        <v>11.99011611938477</v>
+        <v>11.99011516571045</v>
       </c>
       <c r="G642" t="n">
         <v>10549100</v>
@@ -15236,7 +15236,7 @@
         <v>12.02000045776367</v>
       </c>
       <c r="F643" t="n">
-        <v>11.2770881652832</v>
+        <v>11.27709102630615</v>
       </c>
       <c r="G643" t="n">
         <v>10137000</v>
@@ -15282,7 +15282,7 @@
         <v>11.93000030517578</v>
       </c>
       <c r="F645" t="n">
-        <v>11.19265174865723</v>
+        <v>11.19265270233154</v>
       </c>
       <c r="G645" t="n">
         <v>5345900</v>
@@ -15305,7 +15305,7 @@
         <v>11.61999988555908</v>
       </c>
       <c r="F646" t="n">
-        <v>10.90181255340576</v>
+        <v>10.90181159973145</v>
       </c>
       <c r="G646" t="n">
         <v>3391600</v>
@@ -15374,7 +15374,7 @@
         <v>11.78999996185303</v>
       </c>
       <c r="F649" t="n">
-        <v>11.06130599975586</v>
+        <v>11.06130409240723</v>
       </c>
       <c r="G649" t="n">
         <v>2529800</v>
@@ -15397,7 +15397,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F650" t="n">
-        <v>10.80799198150635</v>
+        <v>10.80799293518066</v>
       </c>
       <c r="G650" t="n">
         <v>3111000</v>
@@ -15420,7 +15420,7 @@
         <v>11.38000011444092</v>
       </c>
       <c r="F651" t="n">
-        <v>10.67664337158203</v>
+        <v>10.6766471862793</v>
       </c>
       <c r="G651" t="n">
         <v>2432000</v>
@@ -15443,7 +15443,7 @@
         <v>11.5</v>
       </c>
       <c r="F652" t="n">
-        <v>10.78922653198242</v>
+        <v>10.78922748565674</v>
       </c>
       <c r="G652" t="n">
         <v>2245500</v>
@@ -15466,7 +15466,7 @@
         <v>11.57999992370605</v>
       </c>
       <c r="F653" t="n">
-        <v>10.86428356170654</v>
+        <v>10.86428451538086</v>
       </c>
       <c r="G653" t="n">
         <v>1597100</v>
@@ -15489,7 +15489,7 @@
         <v>11.46000003814697</v>
       </c>
       <c r="F654" t="n">
-        <v>10.75169944763184</v>
+        <v>10.75170040130615</v>
       </c>
       <c r="G654" t="n">
         <v>1357200</v>
@@ -15512,7 +15512,7 @@
         <v>11.36999988555908</v>
       </c>
       <c r="F655" t="n">
-        <v>10.66726303100586</v>
+        <v>10.66726398468018</v>
       </c>
       <c r="G655" t="n">
         <v>1859000</v>
@@ -15535,7 +15535,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F656" t="n">
-        <v>10.56406116485596</v>
+        <v>10.56406307220459</v>
       </c>
       <c r="G656" t="n">
         <v>1306500</v>
@@ -15581,7 +15581,7 @@
         <v>11.01000022888184</v>
       </c>
       <c r="F658" t="n">
-        <v>10.32951164245605</v>
+        <v>10.32951354980469</v>
       </c>
       <c r="G658" t="n">
         <v>2008000</v>
@@ -15604,7 +15604,7 @@
         <v>10.94999980926514</v>
       </c>
       <c r="F659" t="n">
-        <v>10.27322292327881</v>
+        <v>10.27322387695312</v>
       </c>
       <c r="G659" t="n">
         <v>1592000</v>
@@ -15627,7 +15627,7 @@
         <v>10.64999961853027</v>
       </c>
       <c r="F660" t="n">
-        <v>9.991765022277832</v>
+        <v>9.991762161254883</v>
       </c>
       <c r="G660" t="n">
         <v>1972600</v>
@@ -15650,7 +15650,7 @@
         <v>11.10000038146973</v>
       </c>
       <c r="F661" t="n">
-        <v>10.4139518737793</v>
+        <v>10.41395092010498</v>
       </c>
       <c r="G661" t="n">
         <v>2102200</v>
@@ -15673,7 +15673,7 @@
         <v>10.85999965667725</v>
       </c>
       <c r="F662" t="n">
-        <v>10.18878364562988</v>
+        <v>10.1887845993042</v>
       </c>
       <c r="G662" t="n">
         <v>2177900</v>
@@ -15696,7 +15696,7 @@
         <v>10.30000019073486</v>
       </c>
       <c r="F663" t="n">
-        <v>9.663396835327148</v>
+        <v>9.663395881652832</v>
       </c>
       <c r="G663" t="n">
         <v>2297100</v>
@@ -15719,7 +15719,7 @@
         <v>10.28999996185303</v>
       </c>
       <c r="F664" t="n">
-        <v>9.654013633728027</v>
+        <v>9.65401554107666</v>
       </c>
       <c r="G664" t="n">
         <v>1437700</v>
@@ -15765,7 +15765,7 @@
         <v>10.72000026702881</v>
       </c>
       <c r="F666" t="n">
-        <v>10.05743885040283</v>
+        <v>10.0574369430542</v>
       </c>
       <c r="G666" t="n">
         <v>1586600</v>
@@ -15788,7 +15788,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="F667" t="n">
-        <v>10.26383972167969</v>
+        <v>10.26383876800537</v>
       </c>
       <c r="G667" t="n">
         <v>3912800</v>
@@ -15811,7 +15811,7 @@
         <v>10.94999980926514</v>
       </c>
       <c r="F668" t="n">
-        <v>10.27322292327881</v>
+        <v>10.27322387695312</v>
       </c>
       <c r="G668" t="n">
         <v>3281000</v>
@@ -15834,7 +15834,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="F669" t="n">
-        <v>10.13249397277832</v>
+        <v>10.13249206542969</v>
       </c>
       <c r="G669" t="n">
         <v>1462700</v>
@@ -15857,7 +15857,7 @@
         <v>10.80000019073486</v>
       </c>
       <c r="F670" t="n">
-        <v>10.13249397277832</v>
+        <v>10.13249206542969</v>
       </c>
       <c r="G670" t="n">
         <v>958500</v>
@@ -15903,7 +15903,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F672" t="n">
-        <v>8.635525703430176</v>
+        <v>8.635527610778809</v>
       </c>
       <c r="G672" t="n">
         <v>14027900</v>
@@ -15926,7 +15926,7 @@
         <v>8.720000267028809</v>
       </c>
       <c r="F673" t="n">
-        <v>8.211758613586426</v>
+        <v>8.211755752563477</v>
       </c>
       <c r="G673" t="n">
         <v>11486000</v>
@@ -15949,7 +15949,7 @@
         <v>8.720000267028809</v>
       </c>
       <c r="F674" t="n">
-        <v>8.211758613586426</v>
+        <v>8.211755752563477</v>
       </c>
       <c r="G674" t="n">
         <v>6327700</v>
@@ -15972,7 +15972,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F675" t="n">
-        <v>8.136419296264648</v>
+        <v>8.136420249938965</v>
       </c>
       <c r="G675" t="n">
         <v>3526200</v>
@@ -15995,7 +15995,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F676" t="n">
-        <v>7.703230381011963</v>
+        <v>7.703229427337646</v>
       </c>
       <c r="G676" t="n">
         <v>4481400</v>
@@ -16041,7 +16041,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F678" t="n">
-        <v>7.693813323974609</v>
+        <v>7.693811893463135</v>
       </c>
       <c r="G678" t="n">
         <v>6622100</v>
@@ -16064,7 +16064,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F679" t="n">
-        <v>7.929243087768555</v>
+        <v>7.92924165725708</v>
       </c>
       <c r="G679" t="n">
         <v>4158200</v>
@@ -16087,7 +16087,7 @@
         <v>8.359999656677246</v>
       </c>
       <c r="F680" t="n">
-        <v>7.872737407684326</v>
+        <v>7.87273645401001</v>
       </c>
       <c r="G680" t="n">
         <v>2801700</v>
@@ -16110,7 +16110,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F681" t="n">
-        <v>7.693813323974609</v>
+        <v>7.693811893463135</v>
       </c>
       <c r="G681" t="n">
         <v>7079200</v>
@@ -16133,7 +16133,7 @@
         <v>8.159999847412109</v>
       </c>
       <c r="F682" t="n">
-        <v>7.684396743774414</v>
+        <v>7.684395313262939</v>
       </c>
       <c r="G682" t="n">
         <v>4844900</v>
@@ -16156,7 +16156,7 @@
         <v>8.189999580383301</v>
       </c>
       <c r="F683" t="n">
-        <v>7.712647438049316</v>
+        <v>7.712645530700684</v>
       </c>
       <c r="G683" t="n">
         <v>2593300</v>
@@ -16179,7 +16179,7 @@
         <v>8.199999809265137</v>
       </c>
       <c r="F684" t="n">
-        <v>7.722063541412354</v>
+        <v>7.722063064575195</v>
       </c>
       <c r="G684" t="n">
         <v>3485600</v>
@@ -16202,7 +16202,7 @@
         <v>8.359999656677246</v>
       </c>
       <c r="F685" t="n">
-        <v>7.872737407684326</v>
+        <v>7.87273645401001</v>
       </c>
       <c r="G685" t="n">
         <v>4857600</v>
@@ -16225,7 +16225,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F686" t="n">
-        <v>7.929243087768555</v>
+        <v>7.92924165725708</v>
       </c>
       <c r="G686" t="n">
         <v>4368200</v>
@@ -16248,7 +16248,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F687" t="n">
-        <v>7.919824600219727</v>
+        <v>7.91982364654541</v>
       </c>
       <c r="G687" t="n">
         <v>3536000</v>
@@ -16294,7 +16294,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F689" t="n">
-        <v>7.882156848907471</v>
+        <v>7.882155418395996</v>
       </c>
       <c r="G689" t="n">
         <v>2011100</v>
@@ -16317,7 +16317,7 @@
         <v>8.270000457763672</v>
       </c>
       <c r="F690" t="n">
-        <v>7.787983894348145</v>
+        <v>7.787984848022461</v>
       </c>
       <c r="G690" t="n">
         <v>2601100</v>
@@ -16340,7 +16340,7 @@
         <v>8.079999923706055</v>
       </c>
       <c r="F691" t="n">
-        <v>7.609057426452637</v>
+        <v>7.609058380126953</v>
       </c>
       <c r="G691" t="n">
         <v>1932300</v>
@@ -16363,7 +16363,7 @@
         <v>8.119999885559082</v>
       </c>
       <c r="F692" t="n">
-        <v>7.646727085113525</v>
+        <v>7.646726608276367</v>
       </c>
       <c r="G692" t="n">
         <v>2436900</v>
@@ -16386,7 +16386,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F693" t="n">
-        <v>7.477218627929688</v>
+        <v>7.477218151092529</v>
       </c>
       <c r="G693" t="n">
         <v>1970100</v>
@@ -16455,7 +16455,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="F696" t="n">
-        <v>7.034611701965332</v>
+        <v>7.034611225128174</v>
       </c>
       <c r="G696" t="n">
         <v>2612600</v>
@@ -16478,7 +16478,7 @@
         <v>7.389999866485596</v>
       </c>
       <c r="F697" t="n">
-        <v>6.959274291992188</v>
+        <v>6.959274768829346</v>
       </c>
       <c r="G697" t="n">
         <v>1751200</v>
@@ -16501,7 +16501,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="F698" t="n">
-        <v>7.034611701965332</v>
+        <v>7.034611225128174</v>
       </c>
       <c r="G698" t="n">
         <v>1892400</v>
@@ -16524,7 +16524,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F699" t="n">
-        <v>6.949856758117676</v>
+        <v>6.94985818862915</v>
       </c>
       <c r="G699" t="n">
         <v>2520300</v>
@@ -16547,7 +16547,7 @@
         <v>7.159999847412109</v>
       </c>
       <c r="F700" t="n">
-        <v>6.742679595947266</v>
+        <v>6.742680072784424</v>
       </c>
       <c r="G700" t="n">
         <v>5775700</v>
@@ -16570,7 +16570,7 @@
         <v>7.019999980926514</v>
       </c>
       <c r="F701" t="n">
-        <v>6.61083984375</v>
+        <v>6.610840320587158</v>
       </c>
       <c r="G701" t="n">
         <v>2996400</v>
@@ -16593,7 +16593,7 @@
         <v>6.789999961853027</v>
       </c>
       <c r="F702" t="n">
-        <v>6.394245624542236</v>
+        <v>6.394246101379395</v>
       </c>
       <c r="G702" t="n">
         <v>3861300</v>
@@ -16616,7 +16616,7 @@
         <v>6.590000152587891</v>
       </c>
       <c r="F703" t="n">
-        <v>6.205903053283691</v>
+        <v>6.20590353012085</v>
       </c>
       <c r="G703" t="n">
         <v>3874200</v>
@@ -16639,7 +16639,7 @@
         <v>6.710000038146973</v>
       </c>
       <c r="F704" t="n">
-        <v>6.318908214569092</v>
+        <v>6.318909168243408</v>
       </c>
       <c r="G704" t="n">
         <v>2244700</v>
@@ -16662,7 +16662,7 @@
         <v>6.730000019073486</v>
       </c>
       <c r="F705" t="n">
-        <v>6.337742805480957</v>
+        <v>6.337742328643799</v>
       </c>
       <c r="G705" t="n">
         <v>2887900</v>
@@ -16685,7 +16685,7 @@
         <v>6.909999847412109</v>
       </c>
       <c r="F706" t="n">
-        <v>6.507251739501953</v>
+        <v>6.507252216339111</v>
       </c>
       <c r="G706" t="n">
         <v>3542300</v>
@@ -16708,7 +16708,7 @@
         <v>7.210000038146973</v>
       </c>
       <c r="F707" t="n">
-        <v>6.789766311645508</v>
+        <v>6.789766788482666</v>
       </c>
       <c r="G707" t="n">
         <v>6556800</v>
@@ -16731,7 +16731,7 @@
         <v>7.210000038146973</v>
       </c>
       <c r="F708" t="n">
-        <v>6.789766311645508</v>
+        <v>6.789766788482666</v>
       </c>
       <c r="G708" t="n">
         <v>5923100</v>
@@ -16754,7 +16754,7 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F709" t="n">
-        <v>6.893354415893555</v>
+        <v>6.893355369567871</v>
       </c>
       <c r="G709" t="n">
         <v>6544000</v>
@@ -16777,7 +16777,7 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F710" t="n">
-        <v>6.893354415893555</v>
+        <v>6.893355369567871</v>
       </c>
       <c r="G710" t="n">
         <v>3066200</v>
@@ -16823,7 +16823,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F712" t="n">
-        <v>6.883937358856201</v>
+        <v>6.883937835693359</v>
       </c>
       <c r="G712" t="n">
         <v>2983900</v>
@@ -16846,7 +16846,7 @@
         <v>7.539999961853027</v>
       </c>
       <c r="F713" t="n">
-        <v>7.100532531738281</v>
+        <v>7.100532054901123</v>
       </c>
       <c r="G713" t="n">
         <v>2871000</v>
@@ -16869,7 +16869,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F714" t="n">
-        <v>7.128783702850342</v>
+        <v>7.128782749176025</v>
       </c>
       <c r="G714" t="n">
         <v>3299500</v>
@@ -16961,7 +16961,7 @@
         <v>7.760000228881836</v>
       </c>
       <c r="F718" t="n">
-        <v>7.307709217071533</v>
+        <v>7.307709693908691</v>
       </c>
       <c r="G718" t="n">
         <v>4166100</v>
@@ -16984,7 +16984,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F719" t="n">
-        <v>7.552556037902832</v>
+        <v>7.55255651473999</v>
       </c>
       <c r="G719" t="n">
         <v>2675300</v>
@@ -17007,7 +17007,7 @@
         <v>8.159999847412109</v>
       </c>
       <c r="F720" t="n">
-        <v>7.684396743774414</v>
+        <v>7.684395313262939</v>
       </c>
       <c r="G720" t="n">
         <v>3019300</v>
@@ -17053,7 +17053,7 @@
         <v>8.079999923706055</v>
       </c>
       <c r="F722" t="n">
-        <v>7.609057426452637</v>
+        <v>7.609058380126953</v>
       </c>
       <c r="G722" t="n">
         <v>1368400</v>
@@ -17076,7 +17076,7 @@
         <v>7.769999980926514</v>
       </c>
       <c r="F723" t="n">
-        <v>7.317127227783203</v>
+        <v>7.317126750946045</v>
       </c>
       <c r="G723" t="n">
         <v>2903800</v>
@@ -17099,7 +17099,7 @@
         <v>7.760000228881836</v>
       </c>
       <c r="F724" t="n">
-        <v>7.307709217071533</v>
+        <v>7.307709693908691</v>
       </c>
       <c r="G724" t="n">
         <v>2518800</v>
@@ -17122,7 +17122,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F725" t="n">
-        <v>7.486635208129883</v>
+        <v>7.486635684967041</v>
       </c>
       <c r="G725" t="n">
         <v>6447400</v>
@@ -17145,7 +17145,7 @@
         <v>7.760000228881836</v>
       </c>
       <c r="F726" t="n">
-        <v>7.307709217071533</v>
+        <v>7.307709693908691</v>
       </c>
       <c r="G726" t="n">
         <v>5354000</v>
@@ -17168,7 +17168,7 @@
         <v>8.449999809265137</v>
       </c>
       <c r="F727" t="n">
-        <v>7.957494258880615</v>
+        <v>7.957493782043457</v>
       </c>
       <c r="G727" t="n">
         <v>6286000</v>
@@ -17191,7 +17191,7 @@
         <v>8.119999885559082</v>
       </c>
       <c r="F728" t="n">
-        <v>7.646727085113525</v>
+        <v>7.646726608276367</v>
       </c>
       <c r="G728" t="n">
         <v>3972900</v>
@@ -17214,7 +17214,7 @@
         <v>8.479999542236328</v>
       </c>
       <c r="F729" t="n">
-        <v>7.985743999481201</v>
+        <v>7.985743522644043</v>
       </c>
       <c r="G729" t="n">
         <v>6279600</v>
@@ -17237,7 +17237,7 @@
         <v>8.630000114440918</v>
       </c>
       <c r="F730" t="n">
-        <v>8.127002716064453</v>
+        <v>8.127001762390137</v>
       </c>
       <c r="G730" t="n">
         <v>7342100</v>
@@ -17260,7 +17260,7 @@
         <v>8.689999580383301</v>
       </c>
       <c r="F731" t="n">
-        <v>8.183504104614258</v>
+        <v>8.183503150939941</v>
       </c>
       <c r="G731" t="n">
         <v>9481800</v>
@@ -17283,7 +17283,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F732" t="n">
-        <v>7.966910362243652</v>
+        <v>7.966910839080811</v>
       </c>
       <c r="G732" t="n">
         <v>3623700</v>
@@ -17306,7 +17306,7 @@
         <v>8.359999656677246</v>
       </c>
       <c r="F733" t="n">
-        <v>7.872737407684326</v>
+        <v>7.87273645401001</v>
       </c>
       <c r="G733" t="n">
         <v>3711500</v>
@@ -17329,7 +17329,7 @@
         <v>8.619999885559082</v>
       </c>
       <c r="F734" t="n">
-        <v>8.117586135864258</v>
+        <v>8.117585182189941</v>
       </c>
       <c r="G734" t="n">
         <v>3450200</v>
@@ -17352,7 +17352,7 @@
         <v>8.489999771118164</v>
       </c>
       <c r="F735" t="n">
-        <v>7.995162487030029</v>
+        <v>7.995160579681396</v>
       </c>
       <c r="G735" t="n">
         <v>2042200</v>
@@ -17375,7 +17375,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F736" t="n">
-        <v>7.919824600219727</v>
+        <v>7.91982364654541</v>
       </c>
       <c r="G736" t="n">
         <v>4061400</v>
@@ -17398,7 +17398,7 @@
         <v>8.430000305175781</v>
       </c>
       <c r="F737" t="n">
-        <v>7.971837043762207</v>
+        <v>7.971836090087891</v>
       </c>
       <c r="G737" t="n">
         <v>6407600</v>
@@ -17421,7 +17421,7 @@
         <v>8.189999580383301</v>
       </c>
       <c r="F738" t="n">
-        <v>7.744877338409424</v>
+        <v>7.744877815246582</v>
       </c>
       <c r="G738" t="n">
         <v>3764900</v>
@@ -17444,7 +17444,7 @@
         <v>8.130000114440918</v>
       </c>
       <c r="F739" t="n">
-        <v>7.68813943862915</v>
+        <v>7.688140869140625</v>
       </c>
       <c r="G739" t="n">
         <v>3064100</v>
@@ -17467,7 +17467,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F740" t="n">
-        <v>7.725966453552246</v>
+        <v>7.72596549987793</v>
       </c>
       <c r="G740" t="n">
         <v>1640500</v>
@@ -17490,7 +17490,7 @@
         <v>8.100000381469727</v>
       </c>
       <c r="F741" t="n">
-        <v>7.65977144241333</v>
+        <v>7.659770011901855</v>
       </c>
       <c r="G741" t="n">
         <v>1399300</v>
@@ -17513,7 +17513,7 @@
         <v>8</v>
       </c>
       <c r="F742" t="n">
-        <v>7.565205574035645</v>
+        <v>7.56520414352417</v>
       </c>
       <c r="G742" t="n">
         <v>3440000</v>
@@ -17536,7 +17536,7 @@
         <v>7.809999942779541</v>
       </c>
       <c r="F743" t="n">
-        <v>7.385531425476074</v>
+        <v>7.385531902313232</v>
       </c>
       <c r="G743" t="n">
         <v>2960300</v>
@@ -17559,7 +17559,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F744" t="n">
-        <v>7.499008655548096</v>
+        <v>7.499009609222412</v>
       </c>
       <c r="G744" t="n">
         <v>2193900</v>
@@ -17582,7 +17582,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F745" t="n">
-        <v>7.423357009887695</v>
+        <v>7.423357486724854</v>
       </c>
       <c r="G745" t="n">
         <v>2405600</v>
@@ -17605,7 +17605,7 @@
         <v>7.840000152587891</v>
       </c>
       <c r="F746" t="n">
-        <v>7.413902282714844</v>
+        <v>7.413901329040527</v>
       </c>
       <c r="G746" t="n">
         <v>3221700</v>
@@ -17628,7 +17628,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F747" t="n">
-        <v>7.61248779296875</v>
+        <v>7.612488269805908</v>
       </c>
       <c r="G747" t="n">
         <v>2765500</v>
@@ -17651,7 +17651,7 @@
         <v>8.239999771118164</v>
       </c>
       <c r="F748" t="n">
-        <v>7.792162895202637</v>
+        <v>7.792160987854004</v>
       </c>
       <c r="G748" t="n">
         <v>3363900</v>
@@ -17674,7 +17674,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F749" t="n">
-        <v>7.943465232849121</v>
+        <v>7.943466663360596</v>
       </c>
       <c r="G749" t="n">
         <v>2866300</v>
@@ -17697,7 +17697,7 @@
         <v>8.829999923706055</v>
       </c>
       <c r="F750" t="n">
-        <v>8.350095748901367</v>
+        <v>8.350094795227051</v>
       </c>
       <c r="G750" t="n">
         <v>12640900</v>
@@ -17720,7 +17720,7 @@
         <v>8.600000381469727</v>
       </c>
       <c r="F751" t="n">
-        <v>8.132596015930176</v>
+        <v>8.132596969604492</v>
       </c>
       <c r="G751" t="n">
         <v>4486200</v>
@@ -17743,7 +17743,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F752" t="n">
-        <v>8.463573455810547</v>
+        <v>8.46357250213623</v>
       </c>
       <c r="G752" t="n">
         <v>3675200</v>
@@ -17766,7 +17766,7 @@
         <v>8.739999771118164</v>
       </c>
       <c r="F753" t="n">
-        <v>8.264986991882324</v>
+        <v>8.264986038208008</v>
       </c>
       <c r="G753" t="n">
         <v>3674200</v>
@@ -17789,7 +17789,7 @@
         <v>9.010000228881836</v>
       </c>
       <c r="F754" t="n">
-        <v>8.52031135559082</v>
+        <v>8.520313262939453</v>
       </c>
       <c r="G754" t="n">
         <v>3304500</v>
@@ -17812,7 +17812,7 @@
         <v>8.779999732971191</v>
       </c>
       <c r="F755" t="n">
-        <v>8.302812576293945</v>
+        <v>8.302810668945312</v>
       </c>
       <c r="G755" t="n">
         <v>3320700</v>
@@ -17835,7 +17835,7 @@
         <v>8.869999885559082</v>
       </c>
       <c r="F756" t="n">
-        <v>8.387921333312988</v>
+        <v>8.387919425964355</v>
       </c>
       <c r="G756" t="n">
         <v>2468300</v>
@@ -17858,7 +17858,7 @@
         <v>9.210000038146973</v>
       </c>
       <c r="F757" t="n">
-        <v>8.709442138671875</v>
+        <v>8.709441184997559</v>
       </c>
       <c r="G757" t="n">
         <v>3303200</v>
@@ -17904,7 +17904,7 @@
         <v>9</v>
       </c>
       <c r="F759" t="n">
-        <v>8.510854721069336</v>
+        <v>8.510856628417969</v>
       </c>
       <c r="G759" t="n">
         <v>2807900</v>
@@ -17927,7 +17927,7 @@
         <v>8.899999618530273</v>
       </c>
       <c r="F760" t="n">
-        <v>8.416290283203125</v>
+        <v>8.416289329528809</v>
       </c>
       <c r="G760" t="n">
         <v>3620400</v>
@@ -17950,7 +17950,7 @@
         <v>9.970000267028809</v>
       </c>
       <c r="F761" t="n">
-        <v>9.428136825561523</v>
+        <v>9.428135871887207</v>
       </c>
       <c r="G761" t="n">
         <v>9115400</v>
@@ -18019,7 +18019,7 @@
         <v>9.029999732971191</v>
       </c>
       <c r="F764" t="n">
-        <v>8.539226531982422</v>
+        <v>8.539227485656738</v>
       </c>
       <c r="G764" t="n">
         <v>4887300</v>
@@ -18042,7 +18042,7 @@
         <v>8.840000152587891</v>
       </c>
       <c r="F765" t="n">
-        <v>8.359551429748535</v>
+        <v>8.359552383422852</v>
       </c>
       <c r="G765" t="n">
         <v>4298900</v>
@@ -18065,7 +18065,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F766" t="n">
-        <v>8.406835556030273</v>
+        <v>8.406834602355957</v>
       </c>
       <c r="G766" t="n">
         <v>4395000</v>
@@ -18111,7 +18111,7 @@
         <v>9.369999885559082</v>
       </c>
       <c r="F768" t="n">
-        <v>8.860746383666992</v>
+        <v>8.860747337341309</v>
       </c>
       <c r="G768" t="n">
         <v>2653600</v>
@@ -18134,7 +18134,7 @@
         <v>9.300000190734863</v>
       </c>
       <c r="F769" t="n">
-        <v>8.794550895690918</v>
+        <v>8.794551849365234</v>
       </c>
       <c r="G769" t="n">
         <v>2597800</v>
@@ -18157,7 +18157,7 @@
         <v>9.380000114440918</v>
       </c>
       <c r="F770" t="n">
-        <v>8.870203971862793</v>
+        <v>8.87020206451416</v>
       </c>
       <c r="G770" t="n">
         <v>1525300</v>
@@ -18226,7 +18226,7 @@
         <v>9.260000228881836</v>
       </c>
       <c r="F773" t="n">
-        <v>8.756726264953613</v>
+        <v>8.75672435760498</v>
       </c>
       <c r="G773" t="n">
         <v>2026200</v>
@@ -18295,7 +18295,7 @@
         <v>9.409999847412109</v>
       </c>
       <c r="F776" t="n">
-        <v>8.898571014404297</v>
+        <v>8.89857292175293</v>
       </c>
       <c r="G776" t="n">
         <v>5094400</v>
@@ -18318,7 +18318,7 @@
         <v>9.390000343322754</v>
       </c>
       <c r="F777" t="n">
-        <v>8.879659652709961</v>
+        <v>8.879658699035645</v>
       </c>
       <c r="G777" t="n">
         <v>3443200</v>
@@ -18341,7 +18341,7 @@
         <v>9.680000305175781</v>
       </c>
       <c r="F778" t="n">
-        <v>9.153898239135742</v>
+        <v>9.153899192810059</v>
       </c>
       <c r="G778" t="n">
         <v>3304500</v>
@@ -18387,7 +18387,7 @@
         <v>9.909999847412109</v>
       </c>
       <c r="F780" t="n">
-        <v>9.371397018432617</v>
+        <v>9.371397972106934</v>
       </c>
       <c r="G780" t="n">
         <v>4020400</v>
@@ -18410,7 +18410,7 @@
         <v>10.25</v>
       </c>
       <c r="F781" t="n">
-        <v>9.692917823791504</v>
+        <v>9.692919731140137</v>
       </c>
       <c r="G781" t="n">
         <v>4873300</v>
@@ -18433,7 +18433,7 @@
         <v>9.479999542236328</v>
       </c>
       <c r="F782" t="n">
-        <v>8.964766502380371</v>
+        <v>8.964767456054688</v>
       </c>
       <c r="G782" t="n">
         <v>4520600</v>
@@ -18479,7 +18479,7 @@
         <v>7.739999771118164</v>
       </c>
       <c r="F784" t="n">
-        <v>7.319336414337158</v>
+        <v>7.3193359375</v>
       </c>
       <c r="G784" t="n">
         <v>7627300</v>
@@ -18502,7 +18502,7 @@
         <v>7.179999828338623</v>
       </c>
       <c r="F785" t="n">
-        <v>6.789771556854248</v>
+        <v>6.789772033691406</v>
       </c>
       <c r="G785" t="n">
         <v>7964500</v>
@@ -18548,7 +18548,7 @@
         <v>6.869999885559082</v>
       </c>
       <c r="F787" t="n">
-        <v>6.496618747711182</v>
+        <v>6.496619701385498</v>
       </c>
       <c r="G787" t="n">
         <v>5731700</v>
@@ -18571,7 +18571,7 @@
         <v>7.239999771118164</v>
       </c>
       <c r="F788" t="n">
-        <v>6.846510410308838</v>
+        <v>6.846510887145996</v>
       </c>
       <c r="G788" t="n">
         <v>6352300</v>
@@ -18640,7 +18640,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F791" t="n">
-        <v>7.499008655548096</v>
+        <v>7.499009609222412</v>
       </c>
       <c r="G791" t="n">
         <v>4480200</v>
@@ -18663,7 +18663,7 @@
         <v>8.569999694824219</v>
       </c>
       <c r="F792" t="n">
-        <v>8.104225158691406</v>
+        <v>8.104227066040039</v>
       </c>
       <c r="G792" t="n">
         <v>5463000</v>
@@ -18686,7 +18686,7 @@
         <v>8.319999694824219</v>
       </c>
       <c r="F793" t="n">
-        <v>7.867814064025879</v>
+        <v>7.867814540863037</v>
       </c>
       <c r="G793" t="n">
         <v>2607800</v>
@@ -18732,7 +18732,7 @@
         <v>8.329999923706055</v>
       </c>
       <c r="F795" t="n">
-        <v>7.877269744873047</v>
+        <v>7.877270698547363</v>
       </c>
       <c r="G795" t="n">
         <v>2573700</v>
@@ -18755,7 +18755,7 @@
         <v>8.220000267028809</v>
       </c>
       <c r="F796" t="n">
-        <v>7.806047439575195</v>
+        <v>7.806046962738037</v>
       </c>
       <c r="G796" t="n">
         <v>2812400</v>
@@ -18778,7 +18778,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F797" t="n">
-        <v>7.559140682220459</v>
+        <v>7.559141159057617</v>
       </c>
       <c r="G797" t="n">
         <v>2667500</v>
@@ -18801,7 +18801,7 @@
         <v>7.949999809265137</v>
       </c>
       <c r="F798" t="n">
-        <v>7.549643993377686</v>
+        <v>7.549643516540527</v>
       </c>
       <c r="G798" t="n">
         <v>3507500</v>
@@ -18824,7 +18824,7 @@
         <v>7.989999771118164</v>
       </c>
       <c r="F799" t="n">
-        <v>7.587630271911621</v>
+        <v>7.587629795074463</v>
       </c>
       <c r="G799" t="n">
         <v>2489000</v>
@@ -18847,7 +18847,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="F800" t="n">
-        <v>7.388205051422119</v>
+        <v>7.388205528259277</v>
       </c>
       <c r="G800" t="n">
         <v>4578100</v>
@@ -18893,7 +18893,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F802" t="n">
-        <v>7.606622219085693</v>
+        <v>7.60662317276001</v>
       </c>
       <c r="G802" t="n">
         <v>3242600</v>
@@ -18916,7 +18916,7 @@
         <v>8.210000038146973</v>
       </c>
       <c r="F803" t="n">
-        <v>7.796550273895264</v>
+        <v>7.79655122756958</v>
       </c>
       <c r="G803" t="n">
         <v>3480800</v>
@@ -18939,7 +18939,7 @@
         <v>8.319999694824219</v>
       </c>
       <c r="F804" t="n">
-        <v>7.90101146697998</v>
+        <v>7.901011943817139</v>
       </c>
       <c r="G804" t="n">
         <v>3689300</v>
@@ -18985,7 +18985,7 @@
         <v>8.439999580383301</v>
       </c>
       <c r="F806" t="n">
-        <v>8.014967918395996</v>
+        <v>8.014966011047363</v>
       </c>
       <c r="G806" t="n">
         <v>3463300</v>
@@ -19008,7 +19008,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F807" t="n">
-        <v>8.033960342407227</v>
+        <v>8.033961296081543</v>
       </c>
       <c r="G807" t="n">
         <v>3022100</v>
@@ -19031,7 +19031,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F808" t="n">
-        <v>8.442306518554688</v>
+        <v>8.442307472229004</v>
       </c>
       <c r="G808" t="n">
         <v>7451100</v>
@@ -19054,7 +19054,7 @@
         <v>9.020000457763672</v>
       </c>
       <c r="F809" t="n">
-        <v>8.565759658813477</v>
+        <v>8.565760612487793</v>
       </c>
       <c r="G809" t="n">
         <v>2498800</v>
@@ -19077,7 +19077,7 @@
         <v>8.939999580383301</v>
       </c>
       <c r="F810" t="n">
-        <v>8.489788055419922</v>
+        <v>8.489787101745605</v>
       </c>
       <c r="G810" t="n">
         <v>3015600</v>
@@ -19100,7 +19100,7 @@
         <v>9.210000038146973</v>
       </c>
       <c r="F811" t="n">
-        <v>8.746191024780273</v>
+        <v>8.74619197845459</v>
       </c>
       <c r="G811" t="n">
         <v>4687300</v>
@@ -19146,7 +19146,7 @@
         <v>9.520000457763672</v>
       </c>
       <c r="F813" t="n">
-        <v>9.040578842163086</v>
+        <v>9.040582656860352</v>
       </c>
       <c r="G813" t="n">
         <v>5134600</v>
@@ -19169,7 +19169,7 @@
         <v>9.25</v>
       </c>
       <c r="F814" t="n">
-        <v>8.784176826477051</v>
+        <v>8.784177780151367</v>
       </c>
       <c r="G814" t="n">
         <v>7766500</v>
@@ -19261,7 +19261,7 @@
         <v>9.199999809265137</v>
       </c>
       <c r="F818" t="n">
-        <v>8.736695289611816</v>
+        <v>8.7366943359375</v>
       </c>
       <c r="G818" t="n">
         <v>2735900</v>
@@ -19307,7 +19307,7 @@
         <v>8.909999847412109</v>
       </c>
       <c r="F820" t="n">
-        <v>8.461298942565918</v>
+        <v>8.461299896240234</v>
       </c>
       <c r="G820" t="n">
         <v>1661400</v>
@@ -19330,7 +19330,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F821" t="n">
-        <v>8.442306518554688</v>
+        <v>8.442307472229004</v>
       </c>
       <c r="G821" t="n">
         <v>1631700</v>
@@ -19376,7 +19376,7 @@
         <v>9.689999580383301</v>
       </c>
       <c r="F823" t="n">
-        <v>9.202018737792969</v>
+        <v>9.202017784118652</v>
       </c>
       <c r="G823" t="n">
         <v>3443100</v>
@@ -19399,7 +19399,7 @@
         <v>9.520000457763672</v>
       </c>
       <c r="F824" t="n">
-        <v>9.040578842163086</v>
+        <v>9.040582656860352</v>
       </c>
       <c r="G824" t="n">
         <v>4445500</v>
@@ -19422,7 +19422,7 @@
         <v>9.590000152587891</v>
       </c>
       <c r="F825" t="n">
-        <v>9.1070556640625</v>
+        <v>9.107054710388184</v>
       </c>
       <c r="G825" t="n">
         <v>7000600</v>
@@ -19445,7 +19445,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F826" t="n">
-        <v>8.983601570129395</v>
+        <v>8.983600616455078</v>
       </c>
       <c r="G826" t="n">
         <v>6249300</v>
@@ -19468,7 +19468,7 @@
         <v>9.199999809265137</v>
       </c>
       <c r="F827" t="n">
-        <v>8.736695289611816</v>
+        <v>8.7366943359375</v>
       </c>
       <c r="G827" t="n">
         <v>2913100</v>
@@ -19491,7 +19491,7 @@
         <v>9.420000076293945</v>
       </c>
       <c r="F828" t="n">
-        <v>8.945614814758301</v>
+        <v>8.945616722106934</v>
       </c>
       <c r="G828" t="n">
         <v>3442700</v>
@@ -19514,7 +19514,7 @@
         <v>9.229999542236328</v>
       </c>
       <c r="F829" t="n">
-        <v>8.76518440246582</v>
+        <v>8.765183448791504</v>
       </c>
       <c r="G829" t="n">
         <v>5059200</v>
@@ -19537,7 +19537,7 @@
         <v>9.210000038146973</v>
       </c>
       <c r="F830" t="n">
-        <v>8.746191024780273</v>
+        <v>8.74619197845459</v>
       </c>
       <c r="G830" t="n">
         <v>3243200</v>
@@ -19560,7 +19560,7 @@
         <v>9.520000457763672</v>
       </c>
       <c r="F831" t="n">
-        <v>9.040578842163086</v>
+        <v>9.040582656860352</v>
       </c>
       <c r="G831" t="n">
         <v>6349200</v>
@@ -19583,7 +19583,7 @@
         <v>9.689999580383301</v>
       </c>
       <c r="F832" t="n">
-        <v>9.202018737792969</v>
+        <v>9.202017784118652</v>
       </c>
       <c r="G832" t="n">
         <v>2373500</v>
@@ -19629,7 +19629,7 @@
         <v>9.460000038146973</v>
       </c>
       <c r="F834" t="n">
-        <v>8.983601570129395</v>
+        <v>8.983600616455078</v>
       </c>
       <c r="G834" t="n">
         <v>3947800</v>
@@ -19675,7 +19675,7 @@
         <v>9.279999732971191</v>
       </c>
       <c r="F836" t="n">
-        <v>8.812665939331055</v>
+        <v>8.812664985656738</v>
       </c>
       <c r="G836" t="n">
         <v>5322000</v>
@@ -19721,7 +19721,7 @@
         <v>9.180000305175781</v>
       </c>
       <c r="F838" t="n">
-        <v>8.717703819274902</v>
+        <v>8.717702865600586</v>
       </c>
       <c r="G838" t="n">
         <v>4149900</v>
@@ -19767,7 +19767,7 @@
         <v>9.640000343322754</v>
       </c>
       <c r="F840" t="n">
-        <v>9.154537200927734</v>
+        <v>9.154538154602051</v>
       </c>
       <c r="G840" t="n">
         <v>7691000</v>
@@ -19790,7 +19790,7 @@
         <v>10.11999988555908</v>
       </c>
       <c r="F841" t="n">
-        <v>9.610363006591797</v>
+        <v>9.61036491394043</v>
       </c>
       <c r="G841" t="n">
         <v>9075300</v>
@@ -19813,7 +19813,7 @@
         <v>10.19999980926514</v>
       </c>
       <c r="F842" t="n">
-        <v>9.686334609985352</v>
+        <v>9.686336517333984</v>
       </c>
       <c r="G842" t="n">
         <v>3521900</v>
@@ -19836,7 +19836,7 @@
         <v>10.48999977111816</v>
       </c>
       <c r="F843" t="n">
-        <v>9.96173095703125</v>
+        <v>9.961730003356934</v>
       </c>
       <c r="G843" t="n">
         <v>6151500</v>
@@ -19859,7 +19859,7 @@
         <v>10.17000007629395</v>
       </c>
       <c r="F844" t="n">
-        <v>9.65784740447998</v>
+        <v>9.657846450805664</v>
       </c>
       <c r="G844" t="n">
         <v>3793300</v>
@@ -19882,7 +19882,7 @@
         <v>10.23999977111816</v>
       </c>
       <c r="F845" t="n">
-        <v>9.724321365356445</v>
+        <v>9.724320411682129</v>
       </c>
       <c r="G845" t="n">
         <v>1990100</v>
@@ -19928,7 +19928,7 @@
         <v>10.34000015258789</v>
       </c>
       <c r="F847" t="n">
-        <v>9.819286346435547</v>
+        <v>9.819287300109863</v>
       </c>
       <c r="G847" t="n">
         <v>1487500</v>
@@ -19951,7 +19951,7 @@
         <v>10.44999980926514</v>
       </c>
       <c r="F848" t="n">
-        <v>9.923746109008789</v>
+        <v>9.923747062683105</v>
       </c>
       <c r="G848" t="n">
         <v>1638500</v>
@@ -19997,7 +19997,7 @@
         <v>10.5</v>
       </c>
       <c r="F850" t="n">
-        <v>9.971226692199707</v>
+        <v>9.97122859954834</v>
       </c>
       <c r="G850" t="n">
         <v>4283100</v>
@@ -20089,7 +20089,7 @@
         <v>11.51000022888184</v>
       </c>
       <c r="F854" t="n">
-        <v>10.93036556243896</v>
+        <v>10.93036651611328</v>
       </c>
       <c r="G854" t="n">
         <v>2621900</v>
@@ -20112,7 +20112,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F855" t="n">
-        <v>10.93986129760742</v>
+        <v>10.93986320495605</v>
       </c>
       <c r="G855" t="n">
         <v>2314000</v>
@@ -20158,7 +20158,7 @@
         <v>11.59000015258789</v>
       </c>
       <c r="F857" t="n">
-        <v>11.0063362121582</v>
+        <v>11.00633716583252</v>
       </c>
       <c r="G857" t="n">
         <v>2243200</v>
@@ -20181,7 +20181,7 @@
         <v>11.47000026702881</v>
       </c>
       <c r="F858" t="n">
-        <v>10.8923807144165</v>
+        <v>10.89237976074219</v>
       </c>
       <c r="G858" t="n">
         <v>1308900</v>
@@ -20204,7 +20204,7 @@
         <v>11.48999977111816</v>
       </c>
       <c r="F859" t="n">
-        <v>10.94477081298828</v>
+        <v>10.94476890563965</v>
       </c>
       <c r="G859" t="n">
         <v>1370900</v>
@@ -20227,7 +20227,7 @@
         <v>11.60000038146973</v>
       </c>
       <c r="F860" t="n">
-        <v>11.04955005645752</v>
+        <v>11.04955196380615</v>
       </c>
       <c r="G860" t="n">
         <v>1767300</v>
@@ -20250,7 +20250,7 @@
         <v>10.89999961853027</v>
       </c>
       <c r="F861" t="n">
-        <v>10.38276672363281</v>
+        <v>10.38276767730713</v>
       </c>
       <c r="G861" t="n">
         <v>4168400</v>
@@ -20273,7 +20273,7 @@
         <v>11.27999973297119</v>
       </c>
       <c r="F862" t="n">
-        <v>10.74473476409912</v>
+        <v>10.74473571777344</v>
       </c>
       <c r="G862" t="n">
         <v>1774400</v>
@@ -20296,7 +20296,7 @@
         <v>11.31999969482422</v>
       </c>
       <c r="F863" t="n">
-        <v>10.78283500671387</v>
+        <v>10.78283786773682</v>
       </c>
       <c r="G863" t="n">
         <v>3474400</v>
@@ -20319,7 +20319,7 @@
         <v>10.75</v>
       </c>
       <c r="F864" t="n">
-        <v>10.2398853302002</v>
+        <v>10.23988437652588</v>
       </c>
       <c r="G864" t="n">
         <v>4806200</v>
@@ -20365,7 +20365,7 @@
         <v>11.06999969482422</v>
       </c>
       <c r="F866" t="n">
-        <v>10.54470062255859</v>
+        <v>10.54470157623291</v>
       </c>
       <c r="G866" t="n">
         <v>2584200</v>
@@ -20388,7 +20388,7 @@
         <v>11.02999973297119</v>
       </c>
       <c r="F867" t="n">
-        <v>10.50659847259521</v>
+        <v>10.5065975189209</v>
       </c>
       <c r="G867" t="n">
         <v>1639400</v>
@@ -20434,7 +20434,7 @@
         <v>10.78999996185303</v>
       </c>
       <c r="F869" t="n">
-        <v>10.27798748016357</v>
+        <v>10.27798843383789</v>
       </c>
       <c r="G869" t="n">
         <v>2355700</v>
@@ -20457,7 +20457,7 @@
         <v>10.89000034332275</v>
       </c>
       <c r="F870" t="n">
-        <v>10.37324237823486</v>
+        <v>10.37324333190918</v>
       </c>
       <c r="G870" t="n">
         <v>1653400</v>
@@ -20480,7 +20480,7 @@
         <v>10.75</v>
       </c>
       <c r="F871" t="n">
-        <v>10.2398853302002</v>
+        <v>10.23988437652588</v>
       </c>
       <c r="G871" t="n">
         <v>1396500</v>
@@ -20526,7 +20526,7 @@
         <v>10.47999954223633</v>
       </c>
       <c r="F873" t="n">
-        <v>9.982696533203125</v>
+        <v>9.982695579528809</v>
       </c>
       <c r="G873" t="n">
         <v>1514400</v>
@@ -20595,7 +20595,7 @@
         <v>10.67000007629395</v>
       </c>
       <c r="F876" t="n">
-        <v>10.16368198394775</v>
+        <v>10.16368103027344</v>
       </c>
       <c r="G876" t="n">
         <v>1392600</v>
@@ -20618,7 +20618,7 @@
         <v>10.53999996185303</v>
       </c>
       <c r="F877" t="n">
-        <v>10.03984928131104</v>
+        <v>10.03984832763672</v>
       </c>
       <c r="G877" t="n">
         <v>1758500</v>
@@ -20825,7 +20825,7 @@
         <v>10.64999961853027</v>
       </c>
       <c r="F886" t="n">
-        <v>10.14463233947754</v>
+        <v>10.14463043212891</v>
       </c>
       <c r="G886" t="n">
         <v>1100600</v>
@@ -20963,7 +20963,7 @@
         <v>10.63000011444092</v>
       </c>
       <c r="F892" t="n">
-        <v>10.12557792663574</v>
+        <v>10.12557888031006</v>
       </c>
       <c r="G892" t="n">
         <v>1739000</v>
@@ -21009,7 +21009,7 @@
         <v>9.199999809265137</v>
       </c>
       <c r="F894" t="n">
-        <v>8.763436317443848</v>
+        <v>8.763437271118164</v>
       </c>
       <c r="G894" t="n">
         <v>7635800</v>
@@ -21055,7 +21055,7 @@
         <v>9.140000343322754</v>
       </c>
       <c r="F896" t="n">
-        <v>8.706284523010254</v>
+        <v>8.706283569335938</v>
       </c>
       <c r="G896" t="n">
         <v>1867900</v>
@@ -21078,7 +21078,7 @@
         <v>9.180000305175781</v>
       </c>
       <c r="F897" t="n">
-        <v>8.744387626647949</v>
+        <v>8.744384765625</v>
       </c>
       <c r="G897" t="n">
         <v>3400700</v>
@@ -21101,7 +21101,7 @@
         <v>9.079999923706055</v>
       </c>
       <c r="F898" t="n">
-        <v>8.649129867553711</v>
+        <v>8.649130821228027</v>
       </c>
       <c r="G898" t="n">
         <v>1488200</v>
@@ -21124,7 +21124,7 @@
         <v>8.920000076293945</v>
       </c>
       <c r="F899" t="n">
-        <v>8.496722221374512</v>
+        <v>8.496723175048828</v>
       </c>
       <c r="G899" t="n">
         <v>1816600</v>
@@ -21170,7 +21170,7 @@
         <v>8.710000038146973</v>
       </c>
       <c r="F901" t="n">
-        <v>8.296689033508301</v>
+        <v>8.296687126159668</v>
       </c>
       <c r="G901" t="n">
         <v>2018700</v>
@@ -21216,7 +21216,7 @@
         <v>8.189999580383301</v>
       </c>
       <c r="F903" t="n">
-        <v>7.801363468170166</v>
+        <v>7.80136251449585</v>
       </c>
       <c r="G903" t="n">
         <v>1703000</v>
@@ -21239,7 +21239,7 @@
         <v>8.130000114440918</v>
       </c>
       <c r="F904" t="n">
-        <v>7.744210243225098</v>
+        <v>7.744210720062256</v>
       </c>
       <c r="G904" t="n">
         <v>5294700</v>
@@ -21262,7 +21262,7 @@
         <v>8.210000038146973</v>
       </c>
       <c r="F905" t="n">
-        <v>7.820413589477539</v>
+        <v>7.820414543151855</v>
       </c>
       <c r="G905" t="n">
         <v>1229100</v>
@@ -21285,7 +21285,7 @@
         <v>8.310000419616699</v>
       </c>
       <c r="F906" t="n">
-        <v>7.915668964385986</v>
+        <v>7.915669918060303</v>
       </c>
       <c r="G906" t="n">
         <v>1119700</v>
@@ -21331,7 +21331,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F908" t="n">
-        <v>8.058551788330078</v>
+        <v>8.058550834655762</v>
       </c>
       <c r="G908" t="n">
         <v>1195000</v>
@@ -21354,7 +21354,7 @@
         <v>8.310000419616699</v>
       </c>
       <c r="F909" t="n">
-        <v>7.915668964385986</v>
+        <v>7.915669918060303</v>
       </c>
       <c r="G909" t="n">
         <v>1349900</v>
@@ -21377,7 +21377,7 @@
         <v>8.430000305175781</v>
       </c>
       <c r="F910" t="n">
-        <v>8.029976844787598</v>
+        <v>8.029973983764648</v>
       </c>
       <c r="G910" t="n">
         <v>1066000</v>
@@ -21400,7 +21400,7 @@
         <v>8.340000152587891</v>
       </c>
       <c r="F911" t="n">
-        <v>7.9442458152771</v>
+        <v>7.944246292114258</v>
       </c>
       <c r="G911" t="n">
         <v>1133800</v>
@@ -21423,7 +21423,7 @@
         <v>8.560000419616699</v>
       </c>
       <c r="F912" t="n">
-        <v>8.153807640075684</v>
+        <v>8.153806686401367</v>
       </c>
       <c r="G912" t="n">
         <v>1969100</v>
@@ -21446,7 +21446,7 @@
         <v>8.699999809265137</v>
       </c>
       <c r="F913" t="n">
-        <v>8.287161827087402</v>
+        <v>8.287162780761719</v>
       </c>
       <c r="G913" t="n">
         <v>3377400</v>
@@ -21492,7 +21492,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F915" t="n">
-        <v>8.315739631652832</v>
+        <v>8.315738677978516</v>
       </c>
       <c r="G915" t="n">
         <v>1278100</v>
@@ -21515,7 +21515,7 @@
         <v>8.619999885559082</v>
       </c>
       <c r="F916" t="n">
-        <v>8.210959434509277</v>
+        <v>8.210958480834961</v>
       </c>
       <c r="G916" t="n">
         <v>770000</v>
@@ -21538,7 +21538,7 @@
         <v>8.550000190734863</v>
       </c>
       <c r="F917" t="n">
-        <v>8.144281387329102</v>
+        <v>8.144282341003418</v>
       </c>
       <c r="G917" t="n">
         <v>1568500</v>
@@ -21561,7 +21561,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F918" t="n">
-        <v>8.001398086547852</v>
+        <v>8.001399040222168</v>
       </c>
       <c r="G918" t="n">
         <v>1117600</v>
@@ -21584,7 +21584,7 @@
         <v>8.109999656677246</v>
       </c>
       <c r="F919" t="n">
-        <v>7.725159645080566</v>
+        <v>7.725160121917725</v>
       </c>
       <c r="G919" t="n">
         <v>1379300</v>
@@ -21607,7 +21607,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F920" t="n">
-        <v>8.020452499389648</v>
+        <v>8.020450592041016</v>
       </c>
       <c r="G920" t="n">
         <v>1816100</v>
@@ -21630,7 +21630,7 @@
         <v>8.010000228881836</v>
       </c>
       <c r="F921" t="n">
-        <v>7.629904747009277</v>
+        <v>7.629905223846436</v>
       </c>
       <c r="G921" t="n">
         <v>2371700</v>
@@ -21676,7 +21676,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F923" t="n">
-        <v>7.586852073669434</v>
+        <v>7.586852550506592</v>
       </c>
       <c r="G923" t="n">
         <v>1500100</v>
@@ -21699,7 +21699,7 @@
         <v>8.300000190734863</v>
       </c>
       <c r="F924" t="n">
-        <v>7.940841674804688</v>
+        <v>7.940842628479004</v>
       </c>
       <c r="G924" t="n">
         <v>5702900</v>
@@ -21745,7 +21745,7 @@
         <v>7.929999828338623</v>
       </c>
       <c r="F926" t="n">
-        <v>7.586852073669434</v>
+        <v>7.586852550506592</v>
       </c>
       <c r="G926" t="n">
         <v>2602800</v>
@@ -21768,7 +21768,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F927" t="n">
-        <v>7.672958374023438</v>
+        <v>7.672958850860596</v>
       </c>
       <c r="G927" t="n">
         <v>1361000</v>
@@ -21814,7 +21814,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F929" t="n">
-        <v>7.816468238830566</v>
+        <v>7.81646728515625</v>
       </c>
       <c r="G929" t="n">
         <v>1701700</v>
@@ -21837,7 +21837,7 @@
         <v>8.319999694824219</v>
       </c>
       <c r="F930" t="n">
-        <v>7.959976673126221</v>
+        <v>7.959975242614746</v>
       </c>
       <c r="G930" t="n">
         <v>2474100</v>
@@ -21860,7 +21860,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F931" t="n">
-        <v>7.816468238830566</v>
+        <v>7.81646728515625</v>
       </c>
       <c r="G931" t="n">
         <v>1320500</v>
@@ -21906,7 +21906,7 @@
         <v>8.090000152587891</v>
       </c>
       <c r="F933" t="n">
-        <v>7.739927768707275</v>
+        <v>7.739928722381592</v>
       </c>
       <c r="G933" t="n">
         <v>1450800</v>
@@ -21929,7 +21929,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F934" t="n">
-        <v>7.816468238830566</v>
+        <v>7.81646728515625</v>
       </c>
       <c r="G934" t="n">
         <v>1749100</v>
@@ -21975,7 +21975,7 @@
         <v>8.340000152587891</v>
       </c>
       <c r="F936" t="n">
-        <v>7.979111194610596</v>
+        <v>7.979111671447754</v>
       </c>
       <c r="G936" t="n">
         <v>3696400</v>
@@ -21998,7 +21998,7 @@
         <v>8.180000305175781</v>
       </c>
       <c r="F937" t="n">
-        <v>7.826035022735596</v>
+        <v>7.826034545898438</v>
       </c>
       <c r="G937" t="n">
         <v>1667900</v>
@@ -22044,7 +22044,7 @@
         <v>8.359999656677246</v>
       </c>
       <c r="F939" t="n">
-        <v>7.998246192932129</v>
+        <v>7.998245239257812</v>
       </c>
       <c r="G939" t="n">
         <v>1561100</v>
@@ -22067,7 +22067,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F940" t="n">
-        <v>7.921707153320312</v>
+        <v>7.921706676483154</v>
       </c>
       <c r="G940" t="n">
         <v>939400</v>
@@ -22090,7 +22090,7 @@
         <v>8.279999732971191</v>
       </c>
       <c r="F941" t="n">
-        <v>7.921707153320312</v>
+        <v>7.921706676483154</v>
       </c>
       <c r="G941" t="n">
         <v>926400</v>
@@ -22113,7 +22113,7 @@
         <v>8.369999885559082</v>
       </c>
       <c r="F942" t="n">
-        <v>8.0078125</v>
+        <v>8.007813453674316</v>
       </c>
       <c r="G942" t="n">
         <v>1040500</v>
@@ -22136,7 +22136,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F943" t="n">
-        <v>8.170458793640137</v>
+        <v>8.170455932617188</v>
       </c>
       <c r="G943" t="n">
         <v>1348100</v>
@@ -22159,7 +22159,7 @@
         <v>8.479999542236328</v>
       </c>
       <c r="F944" t="n">
-        <v>8.113052368164062</v>
+        <v>8.113053321838379</v>
       </c>
       <c r="G944" t="n">
         <v>926700</v>
@@ -22182,7 +22182,7 @@
         <v>8.479999542236328</v>
       </c>
       <c r="F945" t="n">
-        <v>8.113052368164062</v>
+        <v>8.113053321838379</v>
       </c>
       <c r="G945" t="n">
         <v>573700</v>
@@ -22205,7 +22205,7 @@
         <v>8.479999542236328</v>
       </c>
       <c r="F946" t="n">
-        <v>8.113052368164062</v>
+        <v>8.113053321838379</v>
       </c>
       <c r="G946" t="n">
         <v>692600</v>
@@ -22228,7 +22228,7 @@
         <v>8.590000152587891</v>
       </c>
       <c r="F947" t="n">
-        <v>8.218292236328125</v>
+        <v>8.218293190002441</v>
       </c>
       <c r="G947" t="n">
         <v>1555300</v>
@@ -22251,7 +22251,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F948" t="n">
-        <v>8.170458793640137</v>
+        <v>8.170455932617188</v>
       </c>
       <c r="G948" t="n">
         <v>1987200</v>
@@ -22274,7 +22274,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F949" t="n">
-        <v>8.04608154296875</v>
+        <v>8.046080589294434</v>
       </c>
       <c r="G949" t="n">
         <v>578800</v>
@@ -22366,7 +22366,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F953" t="n">
-        <v>8.05565071105957</v>
+        <v>8.055648803710938</v>
       </c>
       <c r="G953" t="n">
         <v>1170900</v>
@@ -22389,7 +22389,7 @@
         <v>8.350000381469727</v>
       </c>
       <c r="F954" t="n">
-        <v>7.9886794090271</v>
+        <v>7.988679885864258</v>
       </c>
       <c r="G954" t="n">
         <v>953900</v>
@@ -22458,7 +22458,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F957" t="n">
-        <v>8.562715530395508</v>
+        <v>8.562712669372559</v>
       </c>
       <c r="G957" t="n">
         <v>6265400</v>
@@ -22527,7 +22527,7 @@
         <v>9</v>
       </c>
       <c r="F960" t="n">
-        <v>8.610551834106445</v>
+        <v>8.610552787780762</v>
       </c>
       <c r="G960" t="n">
         <v>1525300</v>
@@ -22550,7 +22550,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F961" t="n">
-        <v>9.653385162353516</v>
+        <v>9.653386116027832</v>
       </c>
       <c r="G961" t="n">
         <v>11752100</v>
@@ -22573,7 +22573,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F962" t="n">
-        <v>8.562715530395508</v>
+        <v>8.562712669372559</v>
       </c>
       <c r="G962" t="n">
         <v>4810800</v>
@@ -22596,7 +22596,7 @@
         <v>8.890000343322754</v>
       </c>
       <c r="F963" t="n">
-        <v>8.505311012268066</v>
+        <v>8.505311965942383</v>
       </c>
       <c r="G963" t="n">
         <v>1793800</v>
@@ -22619,7 +22619,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F964" t="n">
-        <v>8.706223487854004</v>
+        <v>8.70622444152832</v>
       </c>
       <c r="G964" t="n">
         <v>1200000</v>
@@ -22642,7 +22642,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F965" t="n">
-        <v>8.562715530395508</v>
+        <v>8.562712669372559</v>
       </c>
       <c r="G965" t="n">
         <v>1843900</v>
@@ -22665,7 +22665,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F966" t="n">
-        <v>8.773193359375</v>
+        <v>8.773194313049316</v>
       </c>
       <c r="G966" t="n">
         <v>1491500</v>
@@ -22688,7 +22688,7 @@
         <v>9.199999809265137</v>
       </c>
       <c r="F967" t="n">
-        <v>8.801898002624512</v>
+        <v>8.801896095275879</v>
       </c>
       <c r="G967" t="n">
         <v>1189400</v>
@@ -22734,7 +22734,7 @@
         <v>8.989999771118164</v>
       </c>
       <c r="F969" t="n">
-        <v>8.600982666015625</v>
+        <v>8.600984573364258</v>
       </c>
       <c r="G969" t="n">
         <v>983900</v>
@@ -22757,7 +22757,7 @@
         <v>8.859999656677246</v>
       </c>
       <c r="F970" t="n">
-        <v>8.476609230041504</v>
+        <v>8.47661018371582</v>
       </c>
       <c r="G970" t="n">
         <v>1407100</v>
@@ -22780,7 +22780,7 @@
         <v>8.859999656677246</v>
       </c>
       <c r="F971" t="n">
-        <v>8.476609230041504</v>
+        <v>8.47661018371582</v>
       </c>
       <c r="G971" t="n">
         <v>1175000</v>
@@ -22803,7 +22803,7 @@
         <v>8.859999656677246</v>
       </c>
       <c r="F972" t="n">
-        <v>8.476609230041504</v>
+        <v>8.47661018371582</v>
       </c>
       <c r="G972" t="n">
         <v>1014200</v>
@@ -22826,7 +22826,7 @@
         <v>8.510000228881836</v>
       </c>
       <c r="F973" t="n">
-        <v>8.141756057739258</v>
+        <v>8.141755104064941</v>
       </c>
       <c r="G973" t="n">
         <v>1088400</v>
@@ -22849,7 +22849,7 @@
         <v>8.489999771118164</v>
       </c>
       <c r="F974" t="n">
-        <v>8.12261962890625</v>
+        <v>8.122620582580566</v>
       </c>
       <c r="G974" t="n">
         <v>1044200</v>
@@ -22872,7 +22872,7 @@
         <v>8.310000419616699</v>
       </c>
       <c r="F975" t="n">
-        <v>7.950409889221191</v>
+        <v>7.95041036605835</v>
       </c>
       <c r="G975" t="n">
         <v>1866200</v>
@@ -22895,7 +22895,7 @@
         <v>8.069999694824219</v>
       </c>
       <c r="F976" t="n">
-        <v>7.720793724060059</v>
+        <v>7.720794200897217</v>
       </c>
       <c r="G976" t="n">
         <v>1510300</v>
@@ -22918,7 +22918,7 @@
         <v>8.340000152587891</v>
       </c>
       <c r="F977" t="n">
-        <v>7.979111194610596</v>
+        <v>7.979111671447754</v>
       </c>
       <c r="G977" t="n">
         <v>1299400</v>
@@ -22941,7 +22941,7 @@
         <v>8.109999656677246</v>
       </c>
       <c r="F978" t="n">
-        <v>7.759062767028809</v>
+        <v>7.759063720703125</v>
       </c>
       <c r="G978" t="n">
         <v>1246100</v>
@@ -22964,7 +22964,7 @@
         <v>8.340000152587891</v>
       </c>
       <c r="F979" t="n">
-        <v>7.979111194610596</v>
+        <v>7.979111671447754</v>
       </c>
       <c r="G979" t="n">
         <v>1151600</v>
@@ -22987,7 +22987,7 @@
         <v>8.550000190734863</v>
       </c>
       <c r="F980" t="n">
-        <v>8.180025100708008</v>
+        <v>8.180024147033691</v>
       </c>
       <c r="G980" t="n">
         <v>1653200</v>
@@ -23010,7 +23010,7 @@
         <v>8.659999847412109</v>
       </c>
       <c r="F981" t="n">
-        <v>8.285263061523438</v>
+        <v>8.285264015197754</v>
       </c>
       <c r="G981" t="n">
         <v>1193300</v>
@@ -23033,7 +23033,7 @@
         <v>8.539999961853027</v>
       </c>
       <c r="F982" t="n">
-        <v>8.170458793640137</v>
+        <v>8.170455932617188</v>
       </c>
       <c r="G982" t="n">
         <v>1284100</v>
@@ -23056,7 +23056,7 @@
         <v>8.5</v>
       </c>
       <c r="F983" t="n">
-        <v>8.132187843322754</v>
+        <v>8.132186889648438</v>
       </c>
       <c r="G983" t="n">
         <v>825300</v>
@@ -23102,7 +23102,7 @@
         <v>8.039999961853027</v>
       </c>
       <c r="F985" t="n">
-        <v>7.692092895507812</v>
+        <v>7.692092418670654</v>
       </c>
       <c r="G985" t="n">
         <v>2428700</v>
@@ -23148,7 +23148,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F987" t="n">
-        <v>7.64885139465332</v>
+        <v>7.648851871490479</v>
       </c>
       <c r="G987" t="n">
         <v>1622900</v>
@@ -23171,7 +23171,7 @@
         <v>8.069999694824219</v>
       </c>
       <c r="F988" t="n">
-        <v>7.754550933837891</v>
+        <v>7.754551410675049</v>
       </c>
       <c r="G988" t="n">
         <v>3452200</v>
@@ -23263,7 +23263,7 @@
         <v>8.560000419616699</v>
       </c>
       <c r="F992" t="n">
-        <v>8.225399971008301</v>
+        <v>8.225399017333984</v>
       </c>
       <c r="G992" t="n">
         <v>1793500</v>
@@ -23309,7 +23309,7 @@
         <v>8.560000419616699</v>
       </c>
       <c r="F994" t="n">
-        <v>8.225399971008301</v>
+        <v>8.225399017333984</v>
       </c>
       <c r="G994" t="n">
         <v>1070700</v>
@@ -23332,7 +23332,7 @@
         <v>8.439999580383301</v>
       </c>
       <c r="F995" t="n">
-        <v>8.110089302062988</v>
+        <v>8.110088348388672</v>
       </c>
       <c r="G995" t="n">
         <v>1105300</v>
@@ -23378,7 +23378,7 @@
         <v>8.409999847412109</v>
       </c>
       <c r="F997" t="n">
-        <v>8.08126163482666</v>
+        <v>8.081260681152344</v>
       </c>
       <c r="G997" t="n">
         <v>793300</v>
@@ -23401,7 +23401,7 @@
         <v>8.420000076293945</v>
       </c>
       <c r="F998" t="n">
-        <v>8.090871810913086</v>
+        <v>8.090869903564453</v>
       </c>
       <c r="G998" t="n">
         <v>1412500</v>
@@ -23424,7 +23424,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F999" t="n">
-        <v>8.302271842956543</v>
+        <v>8.302270889282227</v>
       </c>
       <c r="G999" t="n">
         <v>1519000</v>
@@ -23447,7 +23447,7 @@
         <v>8.640000343322754</v>
       </c>
       <c r="F1000" t="n">
-        <v>8.302271842956543</v>
+        <v>8.302270889282227</v>
       </c>
       <c r="G1000" t="n">
         <v>2881500</v>
@@ -23470,7 +23470,7 @@
         <v>7.880000114440918</v>
       </c>
       <c r="F1001" t="n">
-        <v>7.571978092193604</v>
+        <v>7.571978569030762</v>
       </c>
       <c r="G1001" t="n">
         <v>6031900</v>
@@ -23516,7 +23516,7 @@
         <v>7.679999828338623</v>
       </c>
       <c r="F1003" t="n">
-        <v>7.379796028137207</v>
+        <v>7.379796504974365</v>
       </c>
       <c r="G1003" t="n">
         <v>1817000</v>
@@ -23585,7 +23585,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F1006" t="n">
-        <v>7.62963342666626</v>
+        <v>7.629632949829102</v>
       </c>
       <c r="G1006" t="n">
         <v>1251200</v>
@@ -23631,7 +23631,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F1008" t="n">
-        <v>7.514324188232422</v>
+        <v>7.514323711395264</v>
       </c>
       <c r="G1008" t="n">
         <v>5780300</v>
@@ -23654,7 +23654,7 @@
         <v>7.659999847412109</v>
       </c>
       <c r="F1009" t="n">
-        <v>7.360577583312988</v>
+        <v>7.360578060150146</v>
       </c>
       <c r="G1009" t="n">
         <v>1617400</v>
@@ -23700,7 +23700,7 @@
         <v>7.179999828338623</v>
       </c>
       <c r="F1011" t="n">
-        <v>6.899340629577637</v>
+        <v>6.89933967590332</v>
       </c>
       <c r="G1011" t="n">
         <v>2682400</v>
@@ -23723,7 +23723,7 @@
         <v>7.300000190734863</v>
       </c>
       <c r="F1012" t="n">
-        <v>7.014649868011475</v>
+        <v>7.014650344848633</v>
       </c>
       <c r="G1012" t="n">
         <v>5179700</v>
@@ -23746,7 +23746,7 @@
         <v>7.340000152587891</v>
       </c>
       <c r="F1013" t="n">
-        <v>7.053086280822754</v>
+        <v>7.053086757659912</v>
       </c>
       <c r="G1013" t="n">
         <v>1958600</v>
@@ -23769,7 +23769,7 @@
         <v>7.260000228881836</v>
       </c>
       <c r="F1014" t="n">
-        <v>6.976213932037354</v>
+        <v>6.976214408874512</v>
       </c>
       <c r="G1014" t="n">
         <v>1853200</v>
@@ -23792,7 +23792,7 @@
         <v>7.210000038146973</v>
       </c>
       <c r="F1015" t="n">
-        <v>6.928168296813965</v>
+        <v>6.928168773651123</v>
       </c>
       <c r="G1015" t="n">
         <v>2382600</v>
@@ -23815,7 +23815,7 @@
         <v>7.369999885559082</v>
       </c>
       <c r="F1016" t="n">
-        <v>7.081912994384766</v>
+        <v>7.081913471221924</v>
       </c>
       <c r="G1016" t="n">
         <v>1953100</v>
@@ -23838,7 +23838,7 @@
         <v>7.590000152587891</v>
       </c>
       <c r="F1017" t="n">
-        <v>7.293314456939697</v>
+        <v>7.293314933776855</v>
       </c>
       <c r="G1017" t="n">
         <v>2664600</v>
@@ -23861,7 +23861,7 @@
         <v>7.75</v>
       </c>
       <c r="F1018" t="n">
-        <v>7.447060108184814</v>
+        <v>7.447059631347656</v>
       </c>
       <c r="G1018" t="n">
         <v>2722900</v>
@@ -23884,7 +23884,7 @@
         <v>7.619999885559082</v>
       </c>
       <c r="F1019" t="n">
-        <v>7.322141647338867</v>
+        <v>7.322141170501709</v>
       </c>
       <c r="G1019" t="n">
         <v>1648800</v>
@@ -23930,7 +23930,7 @@
         <v>7.300000190734863</v>
       </c>
       <c r="F1021" t="n">
-        <v>7.014649868011475</v>
+        <v>7.014650344848633</v>
       </c>
       <c r="G1021" t="n">
         <v>1985800</v>
@@ -23953,7 +23953,7 @@
         <v>7.599999904632568</v>
       </c>
       <c r="F1022" t="n">
-        <v>7.302923679351807</v>
+        <v>7.302923202514648</v>
       </c>
       <c r="G1022" t="n">
         <v>3697800</v>
@@ -23976,7 +23976,7 @@
         <v>7.75</v>
       </c>
       <c r="F1023" t="n">
-        <v>7.447060108184814</v>
+        <v>7.447059631347656</v>
       </c>
       <c r="G1023" t="n">
         <v>1488000</v>
@@ -23999,7 +23999,7 @@
         <v>7.840000152587891</v>
       </c>
       <c r="F1024" t="n">
-        <v>7.533542156219482</v>
+        <v>7.533541679382324</v>
       </c>
       <c r="G1024" t="n">
         <v>2110500</v>
@@ -24022,7 +24022,7 @@
         <v>7.75</v>
       </c>
       <c r="F1025" t="n">
-        <v>7.447060108184814</v>
+        <v>7.447059631347656</v>
       </c>
       <c r="G1025" t="n">
         <v>1639900</v>
@@ -24045,7 +24045,7 @@
         <v>7.519999980926514</v>
       </c>
       <c r="F1026" t="n">
-        <v>7.22605037689209</v>
+        <v>7.226050853729248</v>
       </c>
       <c r="G1026" t="n">
         <v>1860100</v>
@@ -24068,7 +24068,7 @@
         <v>7.539999961853027</v>
       </c>
       <c r="F1027" t="n">
-        <v>7.24526834487915</v>
+        <v>7.245269298553467</v>
       </c>
       <c r="G1027" t="n">
         <v>1959500</v>
@@ -24091,7 +24091,7 @@
         <v>7.840000152587891</v>
       </c>
       <c r="F1028" t="n">
-        <v>7.533542156219482</v>
+        <v>7.533541679382324</v>
       </c>
       <c r="G1028" t="n">
         <v>1661100</v>
@@ -24137,7 +24137,7 @@
         <v>7.619999885559082</v>
       </c>
       <c r="F1030" t="n">
-        <v>7.322141647338867</v>
+        <v>7.322141170501709</v>
       </c>
       <c r="G1030" t="n">
         <v>2024500</v>
@@ -24229,7 +24229,7 @@
         <v>7.190000057220459</v>
       </c>
       <c r="F1034" t="n">
-        <v>6.908949851989746</v>
+        <v>6.908950328826904</v>
       </c>
       <c r="G1034" t="n">
         <v>1625000</v>
@@ -24252,7 +24252,7 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F1035" t="n">
-        <v>7.033868312835693</v>
+        <v>7.03386926651001</v>
       </c>
       <c r="G1035" t="n">
         <v>1597100</v>
@@ -24275,7 +24275,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F1036" t="n">
-        <v>7.024258613586426</v>
+        <v>7.024258136749268</v>
       </c>
       <c r="G1036" t="n">
         <v>1740800</v>
@@ -24298,7 +24298,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="F1037" t="n">
-        <v>7.178004264831543</v>
+        <v>7.178004741668701</v>
       </c>
       <c r="G1037" t="n">
         <v>3667800</v>
@@ -24321,7 +24321,7 @@
         <v>7.880000114440918</v>
       </c>
       <c r="F1038" t="n">
-        <v>7.571978092193604</v>
+        <v>7.571978569030762</v>
       </c>
       <c r="G1038" t="n">
         <v>4584600</v>
@@ -24367,7 +24367,7 @@
         <v>7.590000152587891</v>
       </c>
       <c r="F1040" t="n">
-        <v>7.293314456939697</v>
+        <v>7.293314933776855</v>
       </c>
       <c r="G1040" t="n">
         <v>3375900</v>
@@ -24390,7 +24390,7 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F1041" t="n">
-        <v>7.033868312835693</v>
+        <v>7.03386926651001</v>
       </c>
       <c r="G1041" t="n">
         <v>3000300</v>
@@ -24413,7 +24413,7 @@
         <v>7.150000095367432</v>
       </c>
       <c r="F1042" t="n">
-        <v>6.870513439178467</v>
+        <v>6.870513916015625</v>
       </c>
       <c r="G1042" t="n">
         <v>3896200</v>
@@ -24459,7 +24459,7 @@
         <v>7.519999980926514</v>
       </c>
       <c r="F1044" t="n">
-        <v>7.22605037689209</v>
+        <v>7.226050853729248</v>
       </c>
       <c r="G1044" t="n">
         <v>3465200</v>
@@ -24482,7 +24482,7 @@
         <v>7.639999866485596</v>
       </c>
       <c r="F1045" t="n">
-        <v>7.341360092163086</v>
+        <v>7.34135913848877</v>
       </c>
       <c r="G1045" t="n">
         <v>4866300</v>
@@ -24505,7 +24505,7 @@
         <v>7.329999923706055</v>
       </c>
       <c r="F1046" t="n">
-        <v>7.043477058410645</v>
+        <v>7.043477535247803</v>
       </c>
       <c r="G1046" t="n">
         <v>2407400</v>
@@ -24528,7 +24528,7 @@
         <v>7.460000038146973</v>
       </c>
       <c r="F1047" t="n">
-        <v>7.168395519256592</v>
+        <v>7.168396472930908</v>
       </c>
       <c r="G1047" t="n">
         <v>2377400</v>
@@ -24574,7 +24574,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F1049" t="n">
-        <v>7.549745082855225</v>
+        <v>7.549744606018066</v>
       </c>
       <c r="G1049" t="n">
         <v>2702600</v>
@@ -24597,7 +24597,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F1050" t="n">
-        <v>7.308384895324707</v>
+        <v>7.308384418487549</v>
       </c>
       <c r="G1050" t="n">
         <v>5077200</v>
@@ -24620,7 +24620,7 @@
         <v>7.570000171661377</v>
       </c>
       <c r="F1051" t="n">
-        <v>7.308384895324707</v>
+        <v>7.308384418487549</v>
       </c>
       <c r="G1051" t="n">
         <v>2995100</v>
@@ -24643,7 +24643,7 @@
         <v>7.619999885559082</v>
       </c>
       <c r="F1052" t="n">
-        <v>7.356656551361084</v>
+        <v>7.356656074523926</v>
       </c>
       <c r="G1052" t="n">
         <v>2745500</v>
@@ -24666,7 +24666,7 @@
         <v>7.409999847412109</v>
       </c>
       <c r="F1053" t="n">
-        <v>7.153913974761963</v>
+        <v>7.153913497924805</v>
       </c>
       <c r="G1053" t="n">
         <v>1648000</v>
@@ -24689,7 +24689,7 @@
         <v>7.46999979019165</v>
       </c>
       <c r="F1054" t="n">
-        <v>7.21183967590332</v>
+        <v>7.211840629577637</v>
       </c>
       <c r="G1054" t="n">
         <v>1099900</v>
@@ -24735,7 +24735,7 @@
         <v>7.449999809265137</v>
       </c>
       <c r="F1056" t="n">
-        <v>7.192531108856201</v>
+        <v>7.192531585693359</v>
       </c>
       <c r="G1056" t="n">
         <v>1778700</v>
@@ -24758,7 +24758,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F1057" t="n">
-        <v>7.578707218170166</v>
+        <v>7.578707695007324</v>
       </c>
       <c r="G1057" t="n">
         <v>2681400</v>
@@ -24781,7 +24781,7 @@
         <v>7.590000152587891</v>
       </c>
       <c r="F1058" t="n">
-        <v>7.327693462371826</v>
+        <v>7.327693939208984</v>
       </c>
       <c r="G1058" t="n">
         <v>1676800</v>
@@ -24804,7 +24804,7 @@
         <v>7.590000152587891</v>
       </c>
       <c r="F1059" t="n">
-        <v>7.327693462371826</v>
+        <v>7.327693939208984</v>
       </c>
       <c r="G1059" t="n">
         <v>1391000</v>
@@ -24850,7 +24850,7 @@
         <v>7.730000019073486</v>
       </c>
       <c r="F1061" t="n">
-        <v>7.462855339050293</v>
+        <v>7.462854862213135</v>
       </c>
       <c r="G1061" t="n">
         <v>1954400</v>
@@ -24873,7 +24873,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="F1062" t="n">
-        <v>7.269767284393311</v>
+        <v>7.269766807556152</v>
       </c>
       <c r="G1062" t="n">
         <v>2603100</v>
@@ -24896,7 +24896,7 @@
         <v>7.25</v>
       </c>
       <c r="F1063" t="n">
-        <v>6.999443054199219</v>
+        <v>6.999443531036377</v>
       </c>
       <c r="G1063" t="n">
         <v>2311200</v>
@@ -24919,7 +24919,7 @@
         <v>7.150000095367432</v>
       </c>
       <c r="F1064" t="n">
-        <v>6.902899265289307</v>
+        <v>6.902899742126465</v>
       </c>
       <c r="G1064" t="n">
         <v>1787900</v>
@@ -25011,7 +25011,7 @@
         <v>7.159999847412109</v>
       </c>
       <c r="F1068" t="n">
-        <v>6.912554264068604</v>
+        <v>6.912553787231445</v>
       </c>
       <c r="G1068" t="n">
         <v>1350900</v>
@@ -25034,7 +25034,7 @@
         <v>6.989999771118164</v>
       </c>
       <c r="F1069" t="n">
-        <v>6.748428344726562</v>
+        <v>6.748428821563721</v>
       </c>
       <c r="G1069" t="n">
         <v>2011300</v>
@@ -25057,7 +25057,7 @@
         <v>6.880000114440918</v>
       </c>
       <c r="F1070" t="n">
-        <v>6.64223051071167</v>
+        <v>6.642231464385986</v>
       </c>
       <c r="G1070" t="n">
         <v>1883800</v>
@@ -25080,7 +25080,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F1071" t="n">
-        <v>7.057369709014893</v>
+        <v>7.057369232177734</v>
       </c>
       <c r="G1071" t="n">
         <v>2824800</v>
@@ -25103,7 +25103,7 @@
         <v>7.380000114440918</v>
       </c>
       <c r="F1072" t="n">
-        <v>7.124951362609863</v>
+        <v>7.124950408935547</v>
       </c>
       <c r="G1072" t="n">
         <v>1448200</v>
@@ -25195,7 +25195,7 @@
         <v>6.760000228881836</v>
       </c>
       <c r="F1076" t="n">
-        <v>6.52637767791748</v>
+        <v>6.526378154754639</v>
       </c>
       <c r="G1076" t="n">
         <v>1797900</v>
@@ -25241,7 +25241,7 @@
         <v>7.010000228881836</v>
       </c>
       <c r="F1078" t="n">
-        <v>6.767738342285156</v>
+        <v>6.767738819122314</v>
       </c>
       <c r="G1078" t="n">
         <v>1323700</v>
@@ -25264,7 +25264,7 @@
         <v>6.849999904632568</v>
       </c>
       <c r="F1079" t="n">
-        <v>6.61326789855957</v>
+        <v>6.613266944885254</v>
       </c>
       <c r="G1079" t="n">
         <v>1380100</v>
@@ -25287,7 +25287,7 @@
         <v>6.860000133514404</v>
       </c>
       <c r="F1080" t="n">
-        <v>6.622921943664551</v>
+        <v>6.622922420501709</v>
       </c>
       <c r="G1080" t="n">
         <v>1616600</v>
@@ -25333,7 +25333,7 @@
         <v>7.25</v>
       </c>
       <c r="F1082" t="n">
-        <v>6.999443054199219</v>
+        <v>6.999443531036377</v>
       </c>
       <c r="G1082" t="n">
         <v>1784700</v>
@@ -25356,7 +25356,7 @@
         <v>7.039999961853027</v>
       </c>
       <c r="F1083" t="n">
-        <v>6.796701431274414</v>
+        <v>6.796700954437256</v>
       </c>
       <c r="G1083" t="n">
         <v>1729200</v>
@@ -25402,7 +25402,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F1085" t="n">
-        <v>6.371907234191895</v>
+        <v>6.371906757354736</v>
       </c>
       <c r="G1085" t="n">
         <v>2647400</v>
@@ -25425,7 +25425,7 @@
         <v>6.739999771118164</v>
       </c>
       <c r="F1086" t="n">
-        <v>6.507069110870361</v>
+        <v>6.507068634033203</v>
       </c>
       <c r="G1086" t="n">
         <v>2145500</v>
@@ -25448,7 +25448,7 @@
         <v>6.539999961853027</v>
       </c>
       <c r="F1087" t="n">
-        <v>6.313980579376221</v>
+        <v>6.313981056213379</v>
       </c>
       <c r="G1087" t="n">
         <v>1719700</v>
@@ -25494,7 +25494,7 @@
         <v>6.989999771118164</v>
       </c>
       <c r="F1089" t="n">
-        <v>6.748428344726562</v>
+        <v>6.748428821563721</v>
       </c>
       <c r="G1089" t="n">
         <v>2045400</v>
@@ -25517,7 +25517,7 @@
         <v>6.860000133514404</v>
       </c>
       <c r="F1090" t="n">
-        <v>6.622921943664551</v>
+        <v>6.622922420501709</v>
       </c>
       <c r="G1090" t="n">
         <v>1922900</v>
@@ -25609,7 +25609,7 @@
         <v>6.96999979019165</v>
       </c>
       <c r="F1094" t="n">
-        <v>6.729120254516602</v>
+        <v>6.729119777679443</v>
       </c>
       <c r="G1094" t="n">
         <v>1612400</v>
@@ -25655,7 +25655,7 @@
         <v>6.929999828338623</v>
       </c>
       <c r="F1096" t="n">
-        <v>6.690503120422363</v>
+        <v>6.690502643585205</v>
       </c>
       <c r="G1096" t="n">
         <v>1822000</v>
@@ -25678,7 +25678,7 @@
         <v>7.190000057220459</v>
       </c>
       <c r="F1097" t="n">
-        <v>6.941517353057861</v>
+        <v>6.941516876220703</v>
       </c>
       <c r="G1097" t="n">
         <v>2574200</v>
@@ -25701,7 +25701,7 @@
         <v>7.349999904632568</v>
       </c>
       <c r="F1098" t="n">
-        <v>7.095988273620605</v>
+        <v>7.095988750457764</v>
       </c>
       <c r="G1098" t="n">
         <v>1847200</v>
@@ -25747,7 +25747,7 @@
         <v>7.480000019073486</v>
       </c>
       <c r="F1100" t="n">
-        <v>7.221494197845459</v>
+        <v>7.221495628356934</v>
       </c>
       <c r="G1100" t="n">
         <v>2276100</v>
@@ -25770,7 +25770,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F1101" t="n">
-        <v>7.057369709014893</v>
+        <v>7.057369232177734</v>
       </c>
       <c r="G1101" t="n">
         <v>1745500</v>
@@ -25839,7 +25839,7 @@
         <v>7.610000133514404</v>
       </c>
       <c r="F1104" t="n">
-        <v>7.347002506256104</v>
+        <v>7.347002983093262</v>
       </c>
       <c r="G1104" t="n">
         <v>2410000</v>
@@ -25885,7 +25885,7 @@
         <v>7.369999885559082</v>
       </c>
       <c r="F1106" t="n">
-        <v>7.115296363830566</v>
+        <v>7.115296840667725</v>
       </c>
       <c r="G1106" t="n">
         <v>1514300</v>
@@ -25954,7 +25954,7 @@
         <v>6.599999904632568</v>
       </c>
       <c r="F1109" t="n">
-        <v>6.371907234191895</v>
+        <v>6.371906757354736</v>
       </c>
       <c r="G1109" t="n">
         <v>2399400</v>
@@ -25977,7 +25977,7 @@
         <v>6.400000095367432</v>
       </c>
       <c r="F1110" t="n">
-        <v>6.178819179534912</v>
+        <v>6.17881965637207</v>
       </c>
       <c r="G1110" t="n">
         <v>2720000</v>
@@ -26161,7 +26161,7 @@
         <v>6.590000152587891</v>
       </c>
       <c r="F1118" t="n">
-        <v>6.397237777709961</v>
+        <v>6.397238254547119</v>
       </c>
       <c r="G1118" t="n">
         <v>2162500</v>
@@ -26253,7 +26253,7 @@
         <v>6.289999961853027</v>
       </c>
       <c r="F1122" t="n">
-        <v>6.106012344360352</v>
+        <v>6.10601282119751</v>
       </c>
       <c r="G1122" t="n">
         <v>1554600</v>
@@ -26345,7 +26345,7 @@
         <v>6.650000095367432</v>
       </c>
       <c r="F1126" t="n">
-        <v>6.455482006072998</v>
+        <v>6.455482482910156</v>
       </c>
       <c r="G1126" t="n">
         <v>1026600</v>
@@ -26391,7 +26391,7 @@
         <v>6.690000057220459</v>
       </c>
       <c r="F1128" t="n">
-        <v>6.49431324005127</v>
+        <v>6.494312763214111</v>
       </c>
       <c r="G1128" t="n">
         <v>1834600</v>
@@ -26437,7 +26437,7 @@
         <v>6.590000152587891</v>
       </c>
       <c r="F1130" t="n">
-        <v>6.397237777709961</v>
+        <v>6.397238254547119</v>
       </c>
       <c r="G1130" t="n">
         <v>1471200</v>
@@ -26506,7 +26506,7 @@
         <v>7.110000133514404</v>
       </c>
       <c r="F1133" t="n">
-        <v>6.902027130126953</v>
+        <v>6.902027606964111</v>
       </c>
       <c r="G1133" t="n">
         <v>1633900</v>
@@ -26575,7 +26575,7 @@
         <v>7.070000171661377</v>
       </c>
       <c r="F1136" t="n">
-        <v>6.863197326660156</v>
+        <v>6.863197803497314</v>
       </c>
       <c r="G1136" t="n">
         <v>3381700</v>
@@ -26713,7 +26713,7 @@
         <v>7.25</v>
       </c>
       <c r="F1142" t="n">
-        <v>7.0379319190979</v>
+        <v>7.037931442260742</v>
       </c>
       <c r="G1142" t="n">
         <v>1839200</v>
@@ -26759,7 +26759,7 @@
         <v>7.309999942779541</v>
       </c>
       <c r="F1144" t="n">
-        <v>7.096177101135254</v>
+        <v>7.096176624298096</v>
       </c>
       <c r="G1144" t="n">
         <v>2301000</v>
@@ -26782,7 +26782,7 @@
         <v>7.699999809265137</v>
       </c>
       <c r="F1145" t="n">
-        <v>7.47476863861084</v>
+        <v>7.474769592285156</v>
       </c>
       <c r="G1145" t="n">
         <v>3347000</v>
@@ -26851,7 +26851,7 @@
         <v>7.849999904632568</v>
       </c>
       <c r="F1148" t="n">
-        <v>7.620380878448486</v>
+        <v>7.620381355285645</v>
       </c>
       <c r="G1148" t="n">
         <v>2600000</v>
@@ -26943,7 +26943,7 @@
         <v>8.260000228881836</v>
       </c>
       <c r="F1152" t="n">
-        <v>8.018388748168945</v>
+        <v>8.018389701843262</v>
       </c>
       <c r="G1152" t="n">
         <v>1229900</v>
@@ -27012,7 +27012,7 @@
         <v>7.960000038146973</v>
       </c>
       <c r="F1155" t="n">
-        <v>7.727164268493652</v>
+        <v>7.727163791656494</v>
       </c>
       <c r="G1155" t="n">
         <v>1505500</v>
@@ -27035,7 +27035,7 @@
         <v>7.869999885559082</v>
       </c>
       <c r="F1156" t="n">
-        <v>7.639796733856201</v>
+        <v>7.639796257019043</v>
       </c>
       <c r="G1156" t="n">
         <v>1336500</v>
@@ -27058,7 +27058,7 @@
         <v>7.630000114440918</v>
       </c>
       <c r="F1157" t="n">
-        <v>7.406816959381104</v>
+        <v>7.406817436218262</v>
       </c>
       <c r="G1157" t="n">
         <v>1303700</v>
@@ -27104,7 +27104,7 @@
         <v>7.659999847412109</v>
       </c>
       <c r="F1159" t="n">
-        <v>7.435938358306885</v>
+        <v>7.435938835144043</v>
       </c>
       <c r="G1159" t="n">
         <v>962800</v>
@@ -27127,7 +27127,7 @@
         <v>7.820000171661377</v>
       </c>
       <c r="F1160" t="n">
-        <v>7.591259479522705</v>
+        <v>7.591259002685547</v>
       </c>
       <c r="G1160" t="n">
         <v>1180700</v>
@@ -27196,7 +27196,7 @@
         <v>7.400000095367432</v>
       </c>
       <c r="F1163" t="n">
-        <v>7.183545112609863</v>
+        <v>7.183544158935547</v>
       </c>
       <c r="G1163" t="n">
         <v>1054200</v>
@@ -27288,7 +27288,7 @@
         <v>8.390000343322754</v>
       </c>
       <c r="F1167" t="n">
-        <v>8.144587516784668</v>
+        <v>8.144586563110352</v>
       </c>
       <c r="G1167" t="n">
         <v>14817800</v>
@@ -27357,7 +27357,7 @@
         <v>8.390000343322754</v>
       </c>
       <c r="F1170" t="n">
-        <v>8.144587516784668</v>
+        <v>8.144586563110352</v>
       </c>
       <c r="G1170" t="n">
         <v>3544700</v>
@@ -27403,7 +27403,7 @@
         <v>8.380000114440918</v>
       </c>
       <c r="F1172" t="n">
-        <v>8.134878158569336</v>
+        <v>8.134879112243652</v>
       </c>
       <c r="G1172" t="n">
         <v>3473600</v>
@@ -27426,7 +27426,7 @@
         <v>8.260000228881836</v>
       </c>
       <c r="F1173" t="n">
-        <v>8.052019119262695</v>
+        <v>8.052020072937012</v>
       </c>
       <c r="G1173" t="n">
         <v>2837700</v>
@@ -27495,7 +27495,7 @@
         <v>8.189999580383301</v>
       </c>
       <c r="F1176" t="n">
-        <v>7.983781814575195</v>
+        <v>7.983781337738037</v>
       </c>
       <c r="G1176" t="n">
         <v>1830000</v>
@@ -27541,7 +27541,7 @@
         <v>8.050000190734863</v>
       </c>
       <c r="F1178" t="n">
-        <v>7.847307682037354</v>
+        <v>7.847307205200195</v>
       </c>
       <c r="G1178" t="n">
         <v>2071700</v>
@@ -27564,7 +27564,7 @@
         <v>7.980000019073486</v>
       </c>
       <c r="F1179" t="n">
-        <v>7.779068470001221</v>
+        <v>7.779068946838379</v>
       </c>
       <c r="G1179" t="n">
         <v>3831200</v>
@@ -27587,7 +27587,7 @@
         <v>7.699999809265137</v>
       </c>
       <c r="F1180" t="n">
-        <v>7.506119251251221</v>
+        <v>7.506119728088379</v>
       </c>
       <c r="G1180" t="n">
         <v>2648500</v>
@@ -27771,7 +27771,7 @@
         <v>8.380000114440918</v>
       </c>
       <c r="F1188" t="n">
-        <v>8.168996810913086</v>
+        <v>8.168997764587402</v>
       </c>
       <c r="G1188" t="n">
         <v>3805800</v>
@@ -27817,7 +27817,7 @@
         <v>8.289999961853027</v>
       </c>
       <c r="F1190" t="n">
-        <v>8.081264495849609</v>
+        <v>8.081263542175293</v>
       </c>
       <c r="G1190" t="n">
         <v>6684300</v>
@@ -27955,7 +27955,7 @@
         <v>8.350000381469727</v>
       </c>
       <c r="F1196" t="n">
-        <v>8.139754295349121</v>
+        <v>8.139753341674805</v>
       </c>
       <c r="G1196" t="n">
         <v>8108600</v>
@@ -27978,7 +27978,7 @@
         <v>8.579999923706055</v>
       </c>
       <c r="F1197" t="n">
-        <v>8.363961219787598</v>
+        <v>8.363960266113281</v>
       </c>
       <c r="G1197" t="n">
         <v>13344300</v>
@@ -28001,7 +28001,7 @@
         <v>8.600000381469727</v>
       </c>
       <c r="F1198" t="n">
-        <v>8.383459091186523</v>
+        <v>8.383457183837891</v>
       </c>
       <c r="G1198" t="n">
         <v>12812200</v>
@@ -28024,7 +28024,7 @@
         <v>8.550000190734863</v>
       </c>
       <c r="F1199" t="n">
-        <v>8.334716796875</v>
+        <v>8.334717750549316</v>
       </c>
       <c r="G1199" t="n">
         <v>26378300</v>
@@ -28093,7 +28093,7 @@
         <v>8.449999809265137</v>
       </c>
       <c r="F1202" t="n">
-        <v>8.237234115600586</v>
+        <v>8.237235069274902</v>
       </c>
       <c r="G1202" t="n">
         <v>2297000</v>
@@ -28185,7 +28185,7 @@
         <v>8.460000038146973</v>
       </c>
       <c r="F1206" t="n">
-        <v>8.246983528137207</v>
+        <v>8.246982574462891</v>
       </c>
       <c r="G1206" t="n">
         <v>7441500</v>
@@ -28208,7 +28208,7 @@
         <v>8.449999809265137</v>
       </c>
       <c r="F1207" t="n">
-        <v>8.237234115600586</v>
+        <v>8.237235069274902</v>
       </c>
       <c r="G1207" t="n">
         <v>6354400</v>
@@ -28231,7 +28231,7 @@
         <v>8.25</v>
       </c>
       <c r="F1208" t="n">
-        <v>8.042271614074707</v>
+        <v>8.042270660400391</v>
       </c>
       <c r="G1208" t="n">
         <v>5412800</v>
@@ -28254,7 +28254,7 @@
         <v>8.260000228881836</v>
       </c>
       <c r="F1209" t="n">
-        <v>8.052019119262695</v>
+        <v>8.052020072937012</v>
       </c>
       <c r="G1209" t="n">
         <v>5379900</v>
@@ -28369,7 +28369,7 @@
         <v>9.100000381469727</v>
       </c>
       <c r="F1214" t="n">
-        <v>8.870867729187012</v>
+        <v>8.870868682861328</v>
       </c>
       <c r="G1214" t="n">
         <v>7978200</v>
@@ -28392,7 +28392,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F1215" t="n">
-        <v>8.919609069824219</v>
+        <v>8.919608116149902</v>
       </c>
       <c r="G1215" t="n">
         <v>6088300</v>
@@ -28415,7 +28415,7 @@
         <v>9.170000076293945</v>
       </c>
       <c r="F1216" t="n">
-        <v>8.939105987548828</v>
+        <v>8.939105033874512</v>
       </c>
       <c r="G1216" t="n">
         <v>4502700</v>
@@ -28461,7 +28461,7 @@
         <v>9.220000267028809</v>
       </c>
       <c r="F1218" t="n">
-        <v>8.987846374511719</v>
+        <v>8.987847328186035</v>
       </c>
       <c r="G1218" t="n">
         <v>2636500</v>
@@ -28484,7 +28484,7 @@
         <v>8.979999542236328</v>
       </c>
       <c r="F1219" t="n">
-        <v>8.753890037536621</v>
+        <v>8.753889083862305</v>
       </c>
       <c r="G1219" t="n">
         <v>2222100</v>
@@ -28507,7 +28507,7 @@
         <v>8.949999809265137</v>
       </c>
       <c r="F1220" t="n">
-        <v>8.724645614624023</v>
+        <v>8.72464656829834</v>
       </c>
       <c r="G1220" t="n">
         <v>2309100</v>
@@ -28622,7 +28622,7 @@
         <v>9.090000152587891</v>
       </c>
       <c r="F1225" t="n">
-        <v>8.861120223999023</v>
+        <v>8.861119270324707</v>
       </c>
       <c r="G1225" t="n">
         <v>3111200</v>
@@ -28737,7 +28737,7 @@
         <v>9.470000267028809</v>
       </c>
       <c r="F1230" t="n">
-        <v>9.231552124023438</v>
+        <v>9.231551170349121</v>
       </c>
       <c r="G1230" t="n">
         <v>2215700</v>
@@ -28783,7 +28783,7 @@
         <v>9.630000114440918</v>
       </c>
       <c r="F1232" t="n">
-        <v>9.387523651123047</v>
+        <v>9.387524604797363</v>
       </c>
       <c r="G1232" t="n">
         <v>2141400</v>
@@ -28806,7 +28806,7 @@
         <v>9.819999694824219</v>
       </c>
       <c r="F1233" t="n">
-        <v>9.572738647460938</v>
+        <v>9.572739601135254</v>
       </c>
       <c r="G1233" t="n">
         <v>3128100</v>
@@ -28852,7 +28852,7 @@
         <v>9.810000419616699</v>
       </c>
       <c r="F1235" t="n">
-        <v>9.562991142272949</v>
+        <v>9.562992095947266</v>
       </c>
       <c r="G1235" t="n">
         <v>2149900</v>
@@ -34675,6 +34675,29 @@
       </c>
       <c r="G1488" t="n">
         <v>4203900</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>6.869999885559082</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>6.889999866485596</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>6.71999979019165</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>6.880000114440918</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>6.880000114440918</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>6393000</v>
       </c>
     </row>
   </sheetData>
